--- a/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
+++ b/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1409" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1918941-47DF-4D4A-BA2C-0CD77AA8434F}"/>
+  <xr:revisionPtr revIDLastSave="1450" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F53B9AA-6FAA-4ADA-B669-B7FF3CEEE06B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="allende" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="507">
   <si>
     <t>id</t>
   </si>
@@ -50,43 +50,13 @@
     <t>country</t>
   </si>
   <si>
-    <t>zip-code</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>oldest-known-year</t>
-  </si>
-  <si>
-    <t>oldest-known-month</t>
-  </si>
-  <si>
     <t>desc</t>
-  </si>
-  <si>
-    <t>desc-language</t>
-  </si>
-  <si>
-    <t>alt-name</t>
-  </si>
-  <si>
-    <t>former-name</t>
-  </si>
-  <si>
-    <t>verified-in-maps</t>
-  </si>
-  <si>
-    <t>openstreetmap-link</t>
-  </si>
-  <si>
-    <t>google-maps-link</t>
-  </si>
-  <si>
-    <t>abacq-reference</t>
   </si>
   <si>
     <t>Salvador Allende</t>
@@ -627,18 +597,6 @@
     <t>region</t>
   </si>
   <si>
-    <t>locale-1</t>
-  </si>
-  <si>
-    <t>locale-2</t>
-  </si>
-  <si>
-    <t>locale-3</t>
-  </si>
-  <si>
-    <t>locale-4</t>
-  </si>
-  <si>
     <t>Auditorio Salvador Allende</t>
   </si>
   <si>
@@ -999,9 +957,6 @@
     <t>https://goo.gl/maps/c8QopwqqbE6wFmnL6</t>
   </si>
   <si>
-    <t>oldest-known-day</t>
-  </si>
-  <si>
     <t>Araucanía</t>
   </si>
   <si>
@@ -1361,9 +1316,6 @@
     <t>Clermont-Ferrand</t>
   </si>
   <si>
-    <t>locale-5</t>
-  </si>
-  <si>
     <t>Cournon-d'Auvergne</t>
   </si>
   <si>
@@ -1470,9 +1422,6 @@
   </si>
   <si>
     <t>Kerbasquiou</t>
-  </si>
-  <si>
-    <t>oldest-known-source</t>
   </si>
   <si>
     <t>google maps</t>
@@ -1601,6 +1550,72 @@
   </si>
   <si>
     <t>http://www.abacq.org/calle/index.php?2011/12/22/559-cugnaux-francia</t>
+  </si>
+  <si>
+    <t>Museo de la Solidaridad Salvador Allende</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/828126833</t>
+  </si>
+  <si>
+    <t>museum</t>
+  </si>
+  <si>
+    <t>Museo de la Solidaridad</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/iTN1N5LEPEX73woS6</t>
+  </si>
+  <si>
+    <t>locale_1</t>
+  </si>
+  <si>
+    <t>locale_2</t>
+  </si>
+  <si>
+    <t>locale_3</t>
+  </si>
+  <si>
+    <t>locale_4</t>
+  </si>
+  <si>
+    <t>locale_5</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>oldest_known_year</t>
+  </si>
+  <si>
+    <t>oldest_known_month</t>
+  </si>
+  <si>
+    <t>oldest_known_day</t>
+  </si>
+  <si>
+    <t>oldest_known_source</t>
+  </si>
+  <si>
+    <t>desc_language</t>
+  </si>
+  <si>
+    <t>alt_name</t>
+  </si>
+  <si>
+    <t>former_name</t>
+  </si>
+  <si>
+    <t>verified_in_maps</t>
+  </si>
+  <si>
+    <t>openstreetmap_link</t>
+  </si>
+  <si>
+    <t>google_maps_link</t>
+  </si>
+  <si>
+    <t>abacq_reference</t>
   </si>
 </sst>
 </file>
@@ -1928,13 +1943,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO102"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A102" sqref="A102"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1964,70 +1979,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>490</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>189</v>
+        <v>491</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>190</v>
+        <v>492</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>191</v>
+        <v>493</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>11</v>
+        <v>501</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>12</v>
+        <v>502</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>13</v>
+        <v>503</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>15</v>
+        <v>505</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>16</v>
+        <v>506</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -2051,25 +2066,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2092,25 +2107,25 @@
         <v>19</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4">
         <v>1</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
@@ -2134,25 +2149,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2173,29 +2188,29 @@
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4">
         <v>1</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
@@ -2219,28 +2234,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="13"/>
@@ -2252,13 +2267,13 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -2268,7 +2283,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2292,25 +2307,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -2331,7 +2346,7 @@
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -2341,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2371,25 +2386,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -2410,13 +2425,13 @@
         <v>26</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
@@ -2425,10 +2440,10 @@
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -2452,22 +2467,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2491,25 +2506,25 @@
         <v>26</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="6"/>
       <c r="U7" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="V7" s="4">
         <v>1</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2533,22 +2548,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2570,13 +2585,13 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -2585,10 +2600,10 @@
       </c>
       <c r="W8" s="6"/>
       <c r="X8" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -2612,25 +2627,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2651,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -2661,13 +2676,13 @@
         <v>1</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2691,25 +2706,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2730,7 +2745,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -2740,13 +2755,13 @@
         <v>1</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2770,25 +2785,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2811,7 +2826,7 @@
         <v>26</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -2821,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2851,22 +2866,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2890,25 +2905,25 @@
         <v>19</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="4">
         <v>1</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2932,22 +2947,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2971,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -2981,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
@@ -3007,25 +3022,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3048,7 +3063,7 @@
         <v>29</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -3058,13 +3073,13 @@
         <v>1</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -3088,25 +3103,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -3125,13 +3140,13 @@
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -3140,10 +3155,10 @@
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
@@ -3167,25 +3182,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -3206,22 +3221,22 @@
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="6"/>
       <c r="T16" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="4">
         <v>1</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -3246,28 +3261,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="13">
@@ -3281,7 +3296,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -3291,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -3321,25 +3336,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -3362,7 +3377,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -3373,10 +3388,10 @@
       </c>
       <c r="W18" s="6"/>
       <c r="X18" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -3400,25 +3415,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -3437,13 +3452,13 @@
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -3451,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -3481,25 +3496,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3522,7 +3537,7 @@
         <v>28</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -3532,13 +3547,13 @@
         <v>1</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -3562,25 +3577,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -3603,25 +3618,25 @@
         <v>26</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="V21" s="4">
         <v>1</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
@@ -3645,25 +3660,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -3684,13 +3699,13 @@
         <v>26</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -3698,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -3728,25 +3743,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -3769,29 +3784,29 @@
         <v>10</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="4">
         <v>1</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
@@ -3815,25 +3830,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -3856,7 +3871,7 @@
         <v>15</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3866,13 +3881,13 @@
         <v>1</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
@@ -3896,25 +3911,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -3928,7 +3943,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -3938,13 +3953,13 @@
         <v>0</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
@@ -3968,25 +3983,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -4009,16 +4024,16 @@
         <v>1</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="4">
@@ -4026,10 +4041,10 @@
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
@@ -4053,25 +4068,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -4086,13 +4101,13 @@
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -4100,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -4130,25 +4145,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -4171,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -4181,13 +4196,13 @@
         <v>1</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
@@ -4211,25 +4226,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -4250,27 +4265,27 @@
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="V29" s="6">
         <v>1</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
@@ -4294,25 +4309,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K30" s="14">
         <v>9140110</v>
@@ -4333,19 +4348,19 @@
         <v>21</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V30" s="3">
         <v>1</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4353,25 +4368,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K31" s="14">
         <v>9210007</v>
@@ -4392,19 +4407,19 @@
         <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V31" s="3">
         <v>1</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="X31" s="8" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4412,25 +4427,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K32" s="14">
         <v>9090184</v>
@@ -4451,19 +4466,19 @@
         <v>21</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V32" s="3">
         <v>1</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4471,25 +4486,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K33" s="14">
         <v>8150000</v>
@@ -4510,19 +4525,19 @@
         <v>21</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V33" s="3">
         <v>1</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4530,25 +4545,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K34" s="14">
         <v>9362427</v>
@@ -4569,19 +4584,19 @@
         <v>21</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V34" s="3">
         <v>1</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4589,25 +4604,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L35" s="3">
         <v>-25.398264530651701</v>
@@ -4625,22 +4640,22 @@
         <v>8</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="V35" s="3">
         <v>1</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4648,25 +4663,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K36" s="14">
         <v>1790437</v>
@@ -4687,19 +4702,19 @@
         <v>8</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V36" s="3">
         <v>1</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4707,25 +4722,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="L37" s="3">
         <v>-33.187467887892403</v>
@@ -4743,19 +4758,19 @@
         <v>8</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V37" s="3">
         <v>1</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4763,28 +4778,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K38" s="14">
         <v>8370403</v>
@@ -4805,19 +4820,19 @@
         <v>8</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V38" s="3">
         <v>1</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4825,28 +4840,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L39" s="3">
         <v>-33.442573314249699</v>
@@ -4858,22 +4873,22 @@
         <v>2008</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="V39" s="3">
         <v>1</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4881,28 +4896,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L40" s="3">
         <v>-33.442406735950001</v>
@@ -4914,22 +4929,22 @@
         <v>2008</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="V40" s="3">
         <v>1</v>
       </c>
       <c r="W40" s="8" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="Y40" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4937,25 +4952,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="K41" s="14">
         <v>7870154</v>
@@ -4976,19 +4991,19 @@
         <v>8</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V41" s="3">
         <v>1</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4996,25 +5011,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K42" s="14">
         <v>8940000</v>
@@ -5035,19 +5050,19 @@
         <v>8</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V42" s="3">
         <v>1</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5055,25 +5070,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K43" s="14">
         <v>2910036</v>
@@ -5094,16 +5109,16 @@
         <v>8</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V43" s="3">
         <v>1</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Y43" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5111,25 +5126,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K44" s="14">
         <v>2910036</v>
@@ -5147,13 +5162,13 @@
         <v>4</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V44" s="3">
         <v>1</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5161,25 +5176,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L45" s="3">
         <v>-34.658200000000001</v>
@@ -5197,16 +5212,16 @@
         <v>8</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V45" s="3">
         <v>1</v>
       </c>
       <c r="W45" s="8" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Y45" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5214,25 +5229,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G46" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="K46" s="14">
         <v>4370786</v>
@@ -5253,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V46" s="3">
         <v>1</v>
       </c>
       <c r="W46" s="8" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="Y46" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5273,25 +5288,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="K47" s="14">
         <v>4370786</v>
@@ -5312,16 +5327,16 @@
         <v>10</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V47" s="3">
         <v>1</v>
       </c>
       <c r="W47" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5329,25 +5344,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="K48" s="14">
         <v>6200537</v>
@@ -5368,22 +5383,22 @@
         <v>8</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="V48" s="3">
         <v>1</v>
       </c>
       <c r="W48" s="8" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="X48" s="8" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="Y48" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5391,22 +5406,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K49" s="14">
         <v>2540114</v>
@@ -5427,19 +5442,19 @@
         <v>8</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V49" s="3">
         <v>1</v>
       </c>
       <c r="W49" s="8" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="X49" s="8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="Y49" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5447,22 +5462,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K50" s="14">
         <v>2580253</v>
@@ -5477,13 +5492,13 @@
         <v>2015</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V50" s="3">
         <v>0</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5491,25 +5506,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K51" s="14">
         <v>9670000</v>
@@ -5527,16 +5542,16 @@
         <v>5</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V51" s="3">
         <v>1</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="X51" s="8" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5544,25 +5559,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K52" s="14">
         <v>9140110</v>
@@ -5583,16 +5598,16 @@
         <v>8</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V52" s="3">
         <v>1</v>
       </c>
       <c r="X52" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="Y52" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5600,25 +5615,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="K53" s="14">
         <v>8010000</v>
@@ -5639,16 +5654,16 @@
         <v>11</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V53" s="3">
         <v>1</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="X53" s="8" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5656,25 +5671,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="L54" s="3">
         <v>-33.713178508031604</v>
@@ -5692,16 +5707,16 @@
         <v>14</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V54" s="3">
         <v>1</v>
       </c>
       <c r="W54" s="8" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="X54" s="8" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5709,25 +5724,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="L55" s="3">
         <v>-33.706864166440397</v>
@@ -5742,13 +5757,13 @@
         <v>12</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V55" s="3">
         <v>1</v>
       </c>
       <c r="X55" s="8" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5756,25 +5771,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="K56" s="14">
         <v>1930000</v>
@@ -5792,16 +5807,16 @@
         <v>12</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V56" s="3">
         <v>1</v>
       </c>
       <c r="W56" s="8" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="X56" s="8" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5809,28 +5824,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="K57" s="14">
         <v>97419</v>
@@ -5851,19 +5866,19 @@
         <v>8</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="V57" s="3">
         <v>1</v>
       </c>
       <c r="W57" s="8" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="X57" s="8" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5871,25 +5886,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K58" s="14">
         <v>9140110</v>
@@ -5907,13 +5922,13 @@
         <v>2</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V58" s="3">
         <v>1</v>
       </c>
       <c r="X58" s="8" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5921,25 +5936,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="K59" s="14">
         <v>97300</v>
@@ -5960,16 +5975,16 @@
         <v>12</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V59" s="3">
         <v>1</v>
       </c>
       <c r="W59" s="8" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="X59" s="8" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5977,25 +5992,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="K60" s="14">
         <v>8012117</v>
@@ -6013,16 +6028,16 @@
         <v>8</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V60" s="3">
         <v>1</v>
       </c>
       <c r="W60" s="8" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="X60" s="8" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6030,25 +6045,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="K61" s="14">
         <v>9020078</v>
@@ -6069,22 +6084,22 @@
         <v>23</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="V61" s="3">
         <v>1</v>
       </c>
       <c r="W61" s="8" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="X61" s="8" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6092,25 +6107,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K62" s="14">
         <v>8700000</v>
@@ -6128,16 +6143,16 @@
         <v>5</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V62" s="3">
         <v>1</v>
       </c>
       <c r="W62" s="8" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="X62" s="8" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6145,25 +6160,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="K63" s="14">
         <v>7980008</v>
@@ -6178,13 +6193,13 @@
         <v>2014</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V63" s="3">
         <v>1</v>
       </c>
       <c r="X63" s="8" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6192,25 +6207,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="K64" s="14">
         <v>1310000</v>
@@ -6228,13 +6243,13 @@
         <v>7</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V64" s="3">
         <v>1</v>
       </c>
       <c r="X64" s="8" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6242,25 +6257,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="L65" s="3">
         <v>-38.733962241319396</v>
@@ -6275,19 +6290,19 @@
         <v>3</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="V65" s="3">
         <v>1</v>
       </c>
       <c r="W65" s="8" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="X65" s="8" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6295,25 +6310,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="K66" s="14">
         <v>4720359</v>
@@ -6334,16 +6349,16 @@
         <v>16</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V66" s="3">
         <v>1</v>
       </c>
       <c r="W66" s="8" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="X66" s="8" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6351,25 +6366,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="K67" s="14">
         <v>5030000</v>
@@ -6390,13 +6405,13 @@
         <v>27</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V67" s="3">
         <v>1</v>
       </c>
       <c r="X67" s="8" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6404,25 +6419,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G68" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="L68" s="3">
         <v>-37.596467640336897</v>
@@ -6440,16 +6455,16 @@
         <v>2</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V68" s="3">
         <v>1</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="X68" s="8" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6457,25 +6472,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="G69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H69" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K69" s="14">
         <v>4081375</v>
@@ -6493,16 +6508,16 @@
         <v>1</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V69" s="3">
         <v>1</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="X69" s="8" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6510,25 +6525,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H70" s="3" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="K70" s="14">
         <v>4160000</v>
@@ -6543,16 +6558,16 @@
         <v>2016</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V70" s="3">
         <v>1</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="X70" s="8" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6560,25 +6575,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="K71" s="14">
         <v>4190000</v>
@@ -6593,13 +6608,13 @@
         <v>2022</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V71" s="3">
         <v>1</v>
       </c>
       <c r="X71" s="8" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6607,25 +6622,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K72" s="14">
         <v>1720700</v>
@@ -6646,19 +6661,19 @@
         <v>14</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="V72" s="3">
         <v>1</v>
       </c>
       <c r="W72" s="8" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="X72" s="8" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6666,25 +6681,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K73" s="14">
         <v>1720700</v>
@@ -6705,16 +6720,16 @@
         <v>14</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V73" s="3">
         <v>1</v>
       </c>
       <c r="W73" s="8" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="X73" s="8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6722,25 +6737,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="K74" s="14">
         <v>1720700</v>
@@ -6758,13 +6773,13 @@
         <v>10</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V74" s="3">
         <v>1</v>
       </c>
       <c r="X74" s="8" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6772,25 +6787,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K75" s="14">
         <v>5550451</v>
@@ -6811,16 +6826,16 @@
         <v>8</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V75" s="3">
         <v>1</v>
       </c>
       <c r="W75" s="8" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="X75" s="8" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6828,25 +6843,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="K76" s="14">
         <v>5700808</v>
@@ -6861,13 +6876,13 @@
         <v>2013</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V76" s="3">
         <v>1</v>
       </c>
       <c r="X76" s="8" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6875,25 +6890,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L77" s="3">
         <v>-39.6431644719502</v>
@@ -6908,16 +6923,16 @@
         <v>3</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V77" s="3">
         <v>1</v>
       </c>
       <c r="W77" s="8" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="X77" s="8" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6925,25 +6940,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="K78" s="14">
         <v>6160534</v>
@@ -6964,16 +6979,16 @@
         <v>16</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V78" s="3">
         <v>1</v>
       </c>
       <c r="W78" s="8" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="X78" s="8" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6981,25 +6996,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K79" s="14">
         <v>2940640</v>
@@ -7017,16 +7032,16 @@
         <v>2</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V79" s="3">
         <v>1</v>
       </c>
       <c r="W79" s="8" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="X79" s="8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7034,25 +7049,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="K80" s="14">
         <v>1130000</v>
@@ -7073,16 +7088,16 @@
         <v>26</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V80" s="3">
         <v>1</v>
       </c>
       <c r="W80" s="8" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="X80" s="8" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7090,25 +7105,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="K81" s="14">
         <v>2100000</v>
@@ -7129,16 +7144,16 @@
         <v>24</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V81" s="3">
         <v>1</v>
       </c>
       <c r="W81" s="8" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="X81" s="8" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7146,25 +7161,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="L82" s="3">
         <v>-32.784049770332999</v>
@@ -7182,16 +7197,16 @@
         <v>30</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V82" s="3">
         <v>1</v>
       </c>
       <c r="W82" s="8" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="X82" s="8" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7199,25 +7214,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="L83" s="3">
         <v>-38.130151669861398</v>
@@ -7232,13 +7247,13 @@
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V83" s="3">
         <v>1</v>
       </c>
       <c r="X83" s="8" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7246,25 +7261,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K84" s="14">
         <v>8940000</v>
@@ -7282,25 +7297,25 @@
         <v>12</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="R84" s="11" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="V84" s="3">
         <v>1</v>
       </c>
       <c r="W84" s="8" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="X84" s="8" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7308,25 +7323,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="K85" s="14">
         <v>5700808</v>
@@ -7344,13 +7359,13 @@
         <v>2</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V85" s="3">
         <v>1</v>
       </c>
       <c r="X85" s="8" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7358,25 +7373,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="G86" s="3" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K86" s="14">
         <v>2200</v>
@@ -7397,25 +7412,25 @@
         <v>4</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R86" s="11" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="V86" s="3">
         <v>1</v>
       </c>
       <c r="W86" s="8" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="X86" s="8" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="Y86" s="8" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7423,28 +7438,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G87" s="3" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="K87" s="14">
         <v>86000</v>
@@ -7465,25 +7480,25 @@
         <v>5</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R87" s="11" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="V87" s="3">
         <v>1</v>
       </c>
       <c r="W87" s="8" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="X87" s="8" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="Y87" s="8" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7491,28 +7506,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G88" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K88" s="14">
         <v>91120</v>
@@ -7533,19 +7548,19 @@
         <v>21</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V88" s="3">
         <v>1</v>
       </c>
       <c r="W88" s="8" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="X88" s="8" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="Y88" s="8" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7553,28 +7568,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G89" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K89" s="14">
         <v>91120</v>
@@ -7595,19 +7610,19 @@
         <v>20</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V89" s="3">
         <v>1</v>
       </c>
       <c r="W89" s="8" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="X89" s="8" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="Y89" s="8" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7615,28 +7630,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G90" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="K90" s="14">
         <v>63300</v>
@@ -7654,19 +7669,19 @@
         <v>11</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V90" s="3">
         <v>1</v>
       </c>
       <c r="W90" s="8" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="X90" s="8" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="Y90" s="8" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7674,31 +7689,31 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G91" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="K91" s="14">
         <v>63800</v>
@@ -7716,19 +7731,19 @@
         <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V91" s="3">
         <v>1</v>
       </c>
       <c r="W91" s="8" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="X91" s="8" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Y91" s="8" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7736,28 +7751,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G92" s="3" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="K92" s="14">
         <v>18100</v>
@@ -7775,25 +7790,25 @@
         <v>9</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="V92" s="3">
         <v>1</v>
       </c>
       <c r="W92" s="8" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="X92" s="8" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Y92" s="8" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7801,31 +7816,31 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G93" s="3" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="K93" s="14">
         <v>29700</v>
@@ -7840,19 +7855,19 @@
         <v>1989</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="V93" s="3">
         <v>1</v>
       </c>
       <c r="W93" s="8" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="X93" s="8" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="Y93" s="8" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7860,31 +7875,31 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G94" s="3" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="K94" s="14">
         <v>29100</v>
@@ -7905,19 +7920,19 @@
         <v>2</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V94" s="3">
         <v>1</v>
       </c>
       <c r="W94" s="8" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="X94" s="8" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="Y94" s="8" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7925,31 +7940,31 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G95" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="L95" s="3">
         <v>46.343936980975201</v>
@@ -7964,19 +7979,19 @@
         <v>9</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V95" s="3">
         <v>1</v>
       </c>
       <c r="W95" s="8" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="X95" s="8" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="Y95" s="8" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7984,31 +7999,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G96" s="3" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="K96" s="14">
         <v>29000</v>
@@ -8029,19 +8044,19 @@
         <v>17</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V96" s="3">
         <v>1</v>
       </c>
       <c r="W96" s="8" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="X96" s="8" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="Y96" s="8" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8049,31 +8064,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G97" s="3" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="K97" s="14">
         <v>51370</v>
@@ -8091,16 +8106,16 @@
         <v>8</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V97" s="3">
         <v>1</v>
       </c>
       <c r="X97" s="8" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="Y97" s="8" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8108,31 +8123,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G98" s="3" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="K98" s="14">
         <v>29730</v>
@@ -8153,19 +8168,19 @@
         <v>16</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="V98" s="3">
         <v>1</v>
       </c>
       <c r="W98" s="8" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="X98" s="8" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="Y98" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8173,28 +8188,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G99" s="3" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="K99" s="14">
         <v>62200</v>
@@ -8212,19 +8227,19 @@
         <v>4</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V99" s="3">
         <v>1</v>
       </c>
       <c r="W99" s="8" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="X99" s="8" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="Y99" s="8" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8232,31 +8247,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G100" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="K100" s="14">
         <v>94600</v>
@@ -8274,16 +8289,16 @@
         <v>8</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V100" s="3">
         <v>1</v>
       </c>
       <c r="W100" s="8" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="X100" s="8" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8291,31 +8306,31 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G101" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="K101" s="14">
         <v>93310</v>
@@ -8333,25 +8348,25 @@
         <v>6</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="R101" s="11" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="V101" s="3">
         <v>1</v>
       </c>
       <c r="W101" s="8" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="X101" s="8" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8359,28 +8374,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="G102" s="3" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="N102" s="3">
         <v>2011</v>
@@ -8392,17 +8407,76 @@
         <v>22</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="8" t="s">
-        <v>501</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K103" s="14">
+        <v>8370136</v>
+      </c>
+      <c r="L103" s="3">
+        <v>-33.454082459016</v>
+      </c>
+      <c r="M103" s="3">
+        <v>-70.667431373276202</v>
+      </c>
+      <c r="N103" s="3">
+        <v>1991</v>
+      </c>
+      <c r="O103" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="V103" s="3">
+        <v>1</v>
+      </c>
+      <c r="W103" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="X103" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AO96" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AO103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -8618,8 +8692,10 @@
     <hyperlink ref="X101" r:id="rId209" xr:uid="{D2DFD674-F25E-4CD9-B528-FB37C88AFCD4}"/>
     <hyperlink ref="W101" r:id="rId210" xr:uid="{620717C9-2CAF-436B-86E4-5E3BFD195F50}"/>
     <hyperlink ref="Y102" r:id="rId211" xr:uid="{8D50298E-5542-47C6-9400-7130D20BE49A}"/>
+    <hyperlink ref="W103" r:id="rId212" xr:uid="{404307FF-63D7-41AF-9E64-A28A3935493D}"/>
+    <hyperlink ref="X103" r:id="rId213" xr:uid="{87F2F918-86DC-4AF6-8891-A22A02A155D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId212"/>
+  <pageSetup orientation="portrait" r:id="rId214"/>
 </worksheet>
 </file>
--- a/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
+++ b/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1450" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F53B9AA-6FAA-4ADA-B669-B7FF3CEEE06B}"/>
+  <xr:revisionPtr revIDLastSave="1571" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7939968C-CC96-4FB2-A09B-9653B9085E43}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allende" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="653">
   <si>
     <t>id</t>
   </si>
@@ -885,9 +885,6 @@
     <t>https://goo.gl/maps/u1i3c4isF3y9yyvb8</t>
   </si>
   <si>
-    <t>Cayenne</t>
-  </si>
-  <si>
     <t>Cayena</t>
   </si>
   <si>
@@ -1256,9 +1253,6 @@
     <t>https://www.openstreetmap.org/way/117605458#map=18/46.58133/0.37284</t>
   </si>
   <si>
-    <t>København NV</t>
-  </si>
-  <si>
     <t>https://goo.gl/maps/C9vhGzVrgVoVc36q8</t>
   </si>
   <si>
@@ -1617,12 +1611,477 @@
   <si>
     <t>abacq_reference</t>
   </si>
+  <si>
+    <t>Capital Region of Denmark</t>
+  </si>
+  <si>
+    <t>Copenhagen Municipality</t>
+  </si>
+  <si>
+    <t>Bragesgade</t>
+  </si>
+  <si>
+    <t>Bórquez Solar</t>
+  </si>
+  <si>
+    <t>Barrancas</t>
+  </si>
+  <si>
+    <t>La Pincoya</t>
+  </si>
+  <si>
+    <t>Los Aralios</t>
+  </si>
+  <si>
+    <t>Villa Los Pinos Altos</t>
+  </si>
+  <si>
+    <t>El Crucero</t>
+  </si>
+  <si>
+    <t>Barrio Bellas Artes</t>
+  </si>
+  <si>
+    <t>Morandé</t>
+  </si>
+  <si>
+    <t>Almendral</t>
+  </si>
+  <si>
+    <t>Cerro Monjas</t>
+  </si>
+  <si>
+    <t>Cerro O'Higgins</t>
+  </si>
+  <si>
+    <t>Avenida Los Chorrillos</t>
+  </si>
+  <si>
+    <t>Población San Joaquín Poniente</t>
+  </si>
+  <si>
+    <t>Lircay</t>
+  </si>
+  <si>
+    <t>Villa Don Sebastián</t>
+  </si>
+  <si>
+    <t>José María Caro Rodríguez</t>
+  </si>
+  <si>
+    <t>Villa Pedro de Oña</t>
+  </si>
+  <si>
+    <t>Población Teniente Merino</t>
+  </si>
+  <si>
+    <t>Cordillera</t>
+  </si>
+  <si>
+    <t>Caleta El Hueso</t>
+  </si>
+  <si>
+    <t>Villa San Francisco</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Población Centenario II</t>
+  </si>
+  <si>
+    <t>Atenas</t>
+  </si>
+  <si>
+    <t>Cruz Almeyda</t>
+  </si>
+  <si>
+    <t>Villa Julio Donoso</t>
+  </si>
+  <si>
+    <t>Carcoop</t>
+  </si>
+  <si>
+    <t>Nueva Independencia</t>
+  </si>
+  <si>
+    <t>Santa Julia</t>
+  </si>
+  <si>
+    <t>Población Nuevo Horizonte</t>
+  </si>
+  <si>
+    <t>El Cobre / Imperial</t>
+  </si>
+  <si>
+    <t>Calle Nueva Imperial</t>
+  </si>
+  <si>
+    <t>Flor de Maipo</t>
+  </si>
+  <si>
+    <t>Población Nuevo Buin</t>
+  </si>
+  <si>
+    <t>Cuz Cuz Bajo</t>
+  </si>
+  <si>
+    <t>Condominio Los Naranjos</t>
+  </si>
+  <si>
+    <t>Villa Las Margaritas</t>
+  </si>
+  <si>
+    <t>Avenida Teniente Cruz</t>
+  </si>
+  <si>
+    <t>Las Tranqueras</t>
+  </si>
+  <si>
+    <t>Santa Luisa</t>
+  </si>
+  <si>
+    <t>El Alto</t>
+  </si>
+  <si>
+    <t>Villa Alegre</t>
+  </si>
+  <si>
+    <t>Santa Florentina</t>
+  </si>
+  <si>
+    <t>Población José Joaquín Pérez</t>
+  </si>
+  <si>
+    <t>La Puntilla</t>
+  </si>
+  <si>
+    <t>Villa Alto Cocholgüe</t>
+  </si>
+  <si>
+    <t>Peñuelas Alto</t>
+  </si>
+  <si>
+    <t>Condominio Doña Marina</t>
+  </si>
+  <si>
+    <t>Villa Los Presidentes I</t>
+  </si>
+  <si>
+    <t>Altos de Palguín</t>
+  </si>
+  <si>
+    <t>Villa Cordillera</t>
+  </si>
+  <si>
+    <t>Campos de Hielo Patagónicos</t>
+  </si>
+  <si>
+    <t>Villa Jardín</t>
+  </si>
+  <si>
+    <t>Villa Los Copihues</t>
+  </si>
+  <si>
+    <t>Los Llanos Altos</t>
+  </si>
+  <si>
+    <t>La Legua Nueva</t>
+  </si>
+  <si>
+    <t>Alcalde Pedro Alarcón</t>
+  </si>
+  <si>
+    <t>ساحة سلفادور ألندي 	Place Salvador Allende</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Algiers</t>
+  </si>
+  <si>
+    <t>Sidi M'Hamed District</t>
+  </si>
+  <si>
+    <t>El Mouradia</t>
+  </si>
+  <si>
+    <t>16016</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/5549172181</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/9QP1kuoswBG4RZ1s9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/03/11/51-argel-argelia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Lima Metropolitan Area</t>
+  </si>
+  <si>
+    <t>Province of Lima</t>
+  </si>
+  <si>
+    <t>Surquillo</t>
+  </si>
+  <si>
+    <t>Villa Victoria</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/426845566</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/tC5TJgUhPoRYyHkV9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/20/13-peru</t>
+  </si>
+  <si>
+    <t>Villa María del Triunfo</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/241226313#map=18/-12.18260/-76.94901</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/si4ws6UzUJcWKGr8A</t>
+  </si>
+  <si>
+    <t>Vallecito</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/111941989</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/9gS4FS77yjSxQ36x9</t>
+  </si>
+  <si>
+    <t>Arrondissement de Cayenne</t>
+  </si>
+  <si>
+    <t>Cité Chatenay</t>
+  </si>
+  <si>
+    <t>Bœuf Mort</t>
+  </si>
+  <si>
+    <t>Rua Salvador Allende</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Luanda Province</t>
+  </si>
+  <si>
+    <t>Municipality of Luanda</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Vila Alice</t>
+  </si>
+  <si>
+    <t>Maculusso</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/31258848</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/KDJ5iiNVPZfxJC68A</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/21-angola</t>
+  </si>
+  <si>
+    <t>A center named after Salvador Allende</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Dahban</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/05/05/344-dahban-arabia-saudita</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Chubut Province</t>
+  </si>
+  <si>
+    <t>Departamento Rawson</t>
+  </si>
+  <si>
+    <t>Municipio de Trelew</t>
+  </si>
+  <si>
+    <t>Trelew</t>
+  </si>
+  <si>
+    <t>Alberdi</t>
+  </si>
+  <si>
+    <t>U9100</t>
+  </si>
+  <si>
+    <t>"... Sigan ustedes sabiendo que, mucho más temprano que tarde, se abrirán las grandes alamedas por donde pase el hombre libre para construir una sociedad mejor ..."
+Salvador Allende Gossens
+Presidente de Chile
+La Municipalidad y el pueblo de Trelew al presidente de la hermana república de Chile, Dr. Salvador Allende Gossens, en el 42° aniversario de su asunción.
+"Por la democracia en América Latina"
+Máximo Gabriel Pérez Catán, Intendente
+1970 - 04 de Noviembre - 2012</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/156835843</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/KLzCLt1eM3PHgHYz5</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2013/06/27/606-trelew-argentina</t>
+  </si>
+  <si>
+    <t>Aula Magna Presidente Salvador Allende</t>
+  </si>
+  <si>
+    <t>Neuquén Province</t>
+  </si>
+  <si>
+    <t>Confluencia</t>
+  </si>
+  <si>
+    <t>Municipio de Neuquén</t>
+  </si>
+  <si>
+    <t>Neuquén</t>
+  </si>
+  <si>
+    <t>Área Centro Este</t>
+  </si>
+  <si>
+    <t>Q8300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Nacional del Comahue
+Aula Magna Presidente Salvador Allende
+Nombre restituido por ordenanza 0598/88 del Consejo Superior
+Neuquén 17 noviembre 1988
+</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/1065996590</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/ZLR5uftdYdy2zVTE7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/09/09/539-neuquen-argentina</t>
+  </si>
+  <si>
+    <t>Calle 18 / Salvador Allende</t>
+  </si>
+  <si>
+    <t>Buenos Aires Province</t>
+  </si>
+  <si>
+    <t>Partido de La Plata</t>
+  </si>
+  <si>
+    <t>La Plata</t>
+  </si>
+  <si>
+    <t>Calle Salvador Allende
+En homenaje al ex presidente chileno
+Municipalidad de La Plata
+Ordenanza 6996
+La Plata, 12 de octubre de 1994</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/453728754</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/UwYL2YCaPRoX8pt4A</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/03/24/156-la-plata-argentina</t>
+  </si>
+  <si>
+    <t>Partido de Avellaneda</t>
+  </si>
+  <si>
+    <t>Sarandí</t>
+  </si>
+  <si>
+    <t>Villa Cristóbal Colón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Más temprano que tarde, de nuevo se abrirán las grandes alamedas por donde pase el hombre libre ..."
+</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2012/09/09/584-sarandi-argentina</t>
+  </si>
+  <si>
+    <t>Autonomous City of Buenos Aires</t>
+  </si>
+  <si>
+    <t>Comuna 14</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Barrio Parque</t>
+  </si>
+  <si>
+    <t>Homenaje de la Legislatura de la ciudad de Buenos Aires
+en el centenario de su natalicio al
+Presidente de la República de Chile
+Salvador Allende Grossens
+Luchador por la libertad
+La democracia y la justicia social
+1908 - 26 de junio - 2008</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/10596781</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/bC8B4zyaEvwK6u64A</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/09/15/547-buenos-aires-argentina</t>
+  </si>
+  <si>
+    <t>Placa: Salvador Allende en la Plaza República de Chile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1662,6 +2121,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1684,7 +2150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1692,8 +2158,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1713,6 +2177,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1943,13 +2411,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1957,11 +2425,10 @@
     <col min="1" max="1" width="5.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="10" width="12.6640625" style="3"/>
-    <col min="11" max="11" width="12.6640625" style="14"/>
+    <col min="11" max="11" width="12.6640625" style="12"/>
     <col min="12" max="13" width="13" style="3" customWidth="1"/>
     <col min="14" max="14" width="18" style="3" customWidth="1"/>
-    <col min="15" max="17" width="19" style="3" customWidth="1"/>
-    <col min="18" max="18" width="38.109375" style="3" customWidth="1"/>
+    <col min="15" max="18" width="19" style="3" customWidth="1"/>
     <col min="19" max="19" width="14" style="3" customWidth="1"/>
     <col min="20" max="23" width="19" style="3" customWidth="1"/>
     <col min="24" max="24" width="17" style="3" customWidth="1"/>
@@ -1985,22 +2452,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>493</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -2009,40 +2476,40 @@
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -2086,9 +2553,11 @@
       <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>5710000</v>
       </c>
       <c r="L2" s="4">
@@ -2107,7 +2576,7 @@
         <v>19</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -2124,7 +2593,7 @@
       <c r="X2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="16" t="s">
         <v>164</v>
       </c>
       <c r="Z2" s="6"/>
@@ -2144,7 +2613,7 @@
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:41" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2171,7 +2640,7 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>4190000</v>
       </c>
       <c r="L3" s="4">
@@ -2188,10 +2657,10 @@
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>364</v>
+        <v>444</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>21</v>
@@ -2258,7 +2727,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="4">
@@ -2267,10 +2736,10 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>363</v>
+        <v>444</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>21</v>
@@ -2329,7 +2798,7 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>8370403</v>
       </c>
       <c r="L5" s="4">
@@ -2346,7 +2815,7 @@
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -2408,7 +2877,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="4">
         <v>-33.4973046159975</v>
       </c>
@@ -2425,7 +2894,7 @@
         <v>26</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>38</v>
@@ -2484,10 +2953,12 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>1100026</v>
       </c>
       <c r="L7" s="4">
@@ -2506,7 +2977,7 @@
         <v>26</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -2568,7 +3039,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="4">
         <v>-20.222863143639401</v>
       </c>
@@ -2585,9 +3056,9 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="R8" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>159</v>
       </c>
       <c r="S8" s="4" t="s">
@@ -2647,9 +3118,11 @@
       <c r="H9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="4">
         <v>-33.593177062007797</v>
       </c>
@@ -2666,7 +3139,7 @@
         <v>4</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -2726,9 +3199,11 @@
       <c r="H10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="4">
         <v>-33.5178932464284</v>
       </c>
@@ -2745,7 +3220,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -2805,9 +3280,11 @@
       <c r="H11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>510</v>
+      </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <v>9362427</v>
       </c>
       <c r="L11" s="4">
@@ -2826,7 +3303,7 @@
         <v>26</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -2883,10 +3360,12 @@
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <v>1240000</v>
       </c>
       <c r="L12" s="4">
@@ -2905,7 +3384,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -2964,10 +3443,12 @@
       <c r="G13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <v>1240000</v>
       </c>
       <c r="L13" s="4">
@@ -2986,7 +3467,7 @@
         <v>28</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -3042,9 +3523,11 @@
       <c r="H14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>512</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="13">
+      <c r="K14" s="11">
         <v>5507138</v>
       </c>
       <c r="L14" s="4">
@@ -3063,7 +3546,7 @@
         <v>29</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -3075,7 +3558,7 @@
       <c r="W14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="X14" s="17" t="s">
         <v>240</v>
       </c>
       <c r="Y14" s="5" t="s">
@@ -3125,7 +3608,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="4">
         <v>-34.166239274400198</v>
       </c>
@@ -3140,9 +3623,9 @@
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="R15" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="R15" s="7" t="s">
         <v>160</v>
       </c>
       <c r="S15" s="4" t="s">
@@ -3202,9 +3685,11 @@
       <c r="H16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="13">
+      <c r="K16" s="11">
         <v>2850546</v>
       </c>
       <c r="L16" s="4">
@@ -3221,7 +3706,7 @@
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="6"/>
@@ -3285,7 +3770,7 @@
         <v>89</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <v>1530000</v>
       </c>
       <c r="L17" s="6"/>
@@ -3296,7 +3781,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -3358,7 +3843,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <v>5301065</v>
       </c>
       <c r="L18" s="4">
@@ -3377,7 +3862,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -3435,9 +3920,13 @@
       <c r="H19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="13"/>
+      <c r="I19" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="K19" s="11"/>
       <c r="L19" s="4">
         <v>-33.442029258705702</v>
       </c>
@@ -3452,9 +3941,9 @@
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="R19" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>161</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -3518,7 +4007,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <v>1390000</v>
       </c>
       <c r="L20" s="4">
@@ -3537,7 +4026,7 @@
         <v>28</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -3599,7 +4088,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="13">
+      <c r="K21" s="11">
         <v>1500000</v>
       </c>
       <c r="L21" s="4">
@@ -3618,7 +4107,7 @@
         <v>26</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -3655,7 +4144,7 @@
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
     </row>
-    <row r="22" spans="1:41" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3680,9 +4169,13 @@
       <c r="H22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="13"/>
+      <c r="I22" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K22" s="11"/>
       <c r="L22" s="4">
         <v>-33.047329111824297</v>
       </c>
@@ -3699,9 +4192,9 @@
         <v>26</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="R22" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="R22" s="7" t="s">
         <v>158</v>
       </c>
       <c r="S22" s="4" t="s">
@@ -3763,9 +4256,11 @@
       <c r="H23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>518</v>
+      </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="13">
+      <c r="K23" s="11">
         <v>3560515</v>
       </c>
       <c r="L23" s="4">
@@ -3784,7 +4279,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>117</v>
@@ -3850,9 +4345,11 @@
       <c r="H24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <v>1395584</v>
       </c>
       <c r="L24" s="4">
@@ -3871,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3943,7 +4440,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -4005,7 +4502,7 @@
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="13">
+      <c r="K26" s="11">
         <v>3130000</v>
       </c>
       <c r="L26" s="4">
@@ -4024,10 +4521,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>366</v>
+        <v>443</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>21</v>
@@ -4090,7 +4587,7 @@
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="13"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="4">
@@ -4101,10 +4598,10 @@
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>367</v>
+        <v>444</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="S27" s="4" t="s">
         <v>21</v>
@@ -4114,10 +4611,10 @@
       <c r="V27" s="6">
         <v>0</v>
       </c>
-      <c r="W27" s="7" t="s">
+      <c r="W27" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="X27" s="7" t="s">
+      <c r="X27" s="17" t="s">
         <v>142</v>
       </c>
       <c r="Y27" s="5" t="s">
@@ -4165,9 +4662,11 @@
       <c r="H28" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>520</v>
+      </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <v>9120490</v>
       </c>
       <c r="L28" s="6">
@@ -4186,7 +4685,7 @@
         <v>9</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -4195,13 +4694,13 @@
       <c r="V28" s="6">
         <v>1</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="X28" s="7" t="s">
+      <c r="X28" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="Y28" s="7" t="s">
+      <c r="Y28" s="17" t="s">
         <v>146</v>
       </c>
       <c r="Z28" s="6"/>
@@ -4246,9 +4745,13 @@
       <c r="H29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="13">
+      <c r="I29" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="K29" s="11">
         <v>3461761</v>
       </c>
       <c r="L29" s="6">
@@ -4265,7 +4768,7 @@
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -4278,13 +4781,13 @@
       <c r="V29" s="6">
         <v>1</v>
       </c>
-      <c r="W29" s="7" t="s">
+      <c r="W29" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="X29" s="7" t="s">
+      <c r="X29" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="Y29" s="7" t="s">
+      <c r="Y29" s="17" t="s">
         <v>163</v>
       </c>
       <c r="Z29" s="6"/>
@@ -4329,7 +4832,10 @@
       <c r="H30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K30" s="14">
+      <c r="I30" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="K30" s="12">
         <v>9140110</v>
       </c>
       <c r="L30" s="3">
@@ -4348,18 +4854,18 @@
         <v>21</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V30" s="3">
         <v>1</v>
       </c>
-      <c r="W30" s="8" t="s">
+      <c r="W30" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="X30" s="8" t="s">
+      <c r="X30" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="Y30" s="8" t="s">
+      <c r="Y30" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4388,7 +4894,7 @@
       <c r="H31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="12">
         <v>9210007</v>
       </c>
       <c r="L31" s="3">
@@ -4407,18 +4913,18 @@
         <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V31" s="3">
         <v>1</v>
       </c>
-      <c r="W31" s="8" t="s">
+      <c r="W31" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="X31" s="8" t="s">
+      <c r="X31" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="Y31" s="8" t="s">
+      <c r="Y31" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4447,7 +4953,10 @@
       <c r="H32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K32" s="14">
+      <c r="I32" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="K32" s="12">
         <v>9090184</v>
       </c>
       <c r="L32" s="3">
@@ -4466,18 +4975,18 @@
         <v>21</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V32" s="3">
         <v>1</v>
       </c>
-      <c r="W32" s="8" t="s">
+      <c r="W32" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="X32" s="8" t="s">
+      <c r="X32" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="Y32" s="8" t="s">
+      <c r="Y32" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4501,12 +5010,15 @@
         <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>31</v>
+        <v>526</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K33" s="14">
+      <c r="I33" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="K33" s="12">
         <v>8150000</v>
       </c>
       <c r="L33" s="3">
@@ -4525,18 +5037,18 @@
         <v>21</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V33" s="3">
         <v>1</v>
       </c>
-      <c r="W33" s="8" t="s">
+      <c r="W33" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="X33" s="8" t="s">
+      <c r="X33" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="Y33" s="8" t="s">
+      <c r="Y33" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4565,7 +5077,7 @@
       <c r="H34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="12">
         <v>9362427</v>
       </c>
       <c r="L34" s="3">
@@ -4584,18 +5096,18 @@
         <v>21</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V34" s="3">
         <v>1</v>
       </c>
-      <c r="W34" s="8" t="s">
+      <c r="W34" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="X34" s="8" t="s">
+      <c r="X34" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="Y34" s="8" t="s">
+      <c r="Y34" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4624,6 +5136,9 @@
       <c r="H35" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="I35" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="L35" s="3">
         <v>-25.398264530651701</v>
       </c>
@@ -4640,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>166</v>
@@ -4648,13 +5163,13 @@
       <c r="V35" s="3">
         <v>1</v>
       </c>
-      <c r="W35" s="8" t="s">
+      <c r="W35" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="X35" s="8" t="s">
+      <c r="X35" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="Y35" s="8" t="s">
+      <c r="Y35" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4681,9 +5196,15 @@
         <v>170</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K36" s="14">
+      <c r="J36" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="K36" s="12">
         <v>1790437</v>
       </c>
       <c r="L36" s="3">
@@ -4702,18 +5223,18 @@
         <v>8</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V36" s="3">
         <v>1</v>
       </c>
-      <c r="W36" s="8" t="s">
+      <c r="W36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="X36" s="8" t="s">
+      <c r="X36" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="Y36" s="8" t="s">
+      <c r="Y36" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4742,6 +5263,12 @@
       <c r="H37" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="I37" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="L37" s="3">
         <v>-33.187467887892403</v>
       </c>
@@ -4758,18 +5285,18 @@
         <v>8</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V37" s="3">
         <v>1</v>
       </c>
-      <c r="W37" s="8" t="s">
+      <c r="W37" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="X37" s="8" t="s">
+      <c r="X37" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="Y37" s="8" t="s">
+      <c r="Y37" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4801,7 +5328,7 @@
       <c r="I38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="12">
         <v>8370403</v>
       </c>
       <c r="L38" s="3">
@@ -4820,18 +5347,18 @@
         <v>8</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V38" s="3">
         <v>1</v>
       </c>
-      <c r="W38" s="8" t="s">
+      <c r="W38" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="X38" s="8" t="s">
+      <c r="X38" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="Y38" s="8" t="s">
+      <c r="Y38" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4873,7 +5400,7 @@
         <v>2008</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>183</v>
@@ -4881,13 +5408,13 @@
       <c r="V39" s="3">
         <v>1</v>
       </c>
-      <c r="W39" s="8" t="s">
+      <c r="W39" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="X39" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="Y39" s="8" t="s">
+      <c r="Y39" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4929,7 +5456,7 @@
         <v>2008</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>189</v>
@@ -4937,13 +5464,13 @@
       <c r="V40" s="3">
         <v>1</v>
       </c>
-      <c r="W40" s="8" t="s">
+      <c r="W40" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="X40" s="8" t="s">
+      <c r="X40" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="Y40" s="8" t="s">
+      <c r="Y40" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4972,7 +5499,13 @@
       <c r="H41" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K41" s="14">
+      <c r="I41" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="K41" s="12">
         <v>7870154</v>
       </c>
       <c r="L41" s="3">
@@ -4991,18 +5524,18 @@
         <v>8</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V41" s="3">
         <v>1</v>
       </c>
-      <c r="W41" s="8" t="s">
+      <c r="W41" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="X41" s="8" t="s">
+      <c r="X41" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="Y41" s="8" t="s">
+      <c r="Y41" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5031,7 +5564,10 @@
       <c r="H42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="14">
+      <c r="I42" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="K42" s="12">
         <v>8940000</v>
       </c>
       <c r="L42" s="3">
@@ -5050,18 +5586,18 @@
         <v>8</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V42" s="3">
         <v>1</v>
       </c>
-      <c r="W42" s="8" t="s">
+      <c r="W42" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="X42" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="Y42" s="8" t="s">
+      <c r="Y42" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5090,7 +5626,7 @@
       <c r="H43" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="12">
         <v>2910036</v>
       </c>
       <c r="L43" s="3">
@@ -5109,15 +5645,15 @@
         <v>8</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V43" s="3">
         <v>1</v>
       </c>
-      <c r="W43" s="8" t="s">
+      <c r="W43" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="Y43" s="8" t="s">
+      <c r="Y43" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5146,7 +5682,7 @@
       <c r="H44" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="12">
         <v>2910036</v>
       </c>
       <c r="L44" s="3">
@@ -5162,12 +5698,12 @@
         <v>4</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V44" s="3">
         <v>1</v>
       </c>
-      <c r="X44" s="8" t="s">
+      <c r="X44" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5212,15 +5748,15 @@
         <v>8</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V45" s="3">
         <v>1</v>
       </c>
-      <c r="W45" s="8" t="s">
+      <c r="W45" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="Y45" s="8" t="s">
+      <c r="Y45" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5249,7 +5785,10 @@
       <c r="H46" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="14">
+      <c r="I46" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="K46" s="12">
         <v>4370786</v>
       </c>
       <c r="L46" s="3">
@@ -5268,18 +5807,18 @@
         <v>8</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V46" s="3">
         <v>1</v>
       </c>
-      <c r="W46" s="8" t="s">
+      <c r="W46" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="X46" s="8" t="s">
+      <c r="X46" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="Y46" s="8" t="s">
+      <c r="Y46" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5308,7 +5847,10 @@
       <c r="H47" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="K47" s="14">
+      <c r="I47" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="K47" s="12">
         <v>4370786</v>
       </c>
       <c r="L47" s="3">
@@ -5327,15 +5869,15 @@
         <v>10</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V47" s="3">
         <v>1</v>
       </c>
-      <c r="W47" s="8" t="s">
+      <c r="W47" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="X47" s="8" t="s">
+      <c r="X47" s="16" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5364,7 +5906,10 @@
       <c r="H48" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K48" s="14">
+      <c r="I48" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="K48" s="12">
         <v>6200537</v>
       </c>
       <c r="L48" s="3">
@@ -5383,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>216</v>
@@ -5391,13 +5936,13 @@
       <c r="V48" s="3">
         <v>1</v>
       </c>
-      <c r="W48" s="8" t="s">
+      <c r="W48" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="X48" s="8" t="s">
+      <c r="X48" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="Y48" s="8" t="s">
+      <c r="Y48" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5420,10 +5965,19 @@
       <c r="F49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K49" s="14">
+      <c r="I49" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="K49" s="12">
         <v>2540114</v>
       </c>
       <c r="L49" s="3">
@@ -5442,18 +5996,18 @@
         <v>8</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V49" s="3">
         <v>1</v>
       </c>
-      <c r="W49" s="8" t="s">
+      <c r="W49" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="X49" s="8" t="s">
+      <c r="X49" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="Y49" s="8" t="s">
+      <c r="Y49" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5479,7 +6033,7 @@
       <c r="G50" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="12">
         <v>2580253</v>
       </c>
       <c r="L50" s="3">
@@ -5492,12 +6046,12 @@
         <v>2015</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V50" s="3">
         <v>0</v>
       </c>
-      <c r="X50" s="8" t="s">
+      <c r="X50" s="16" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5526,7 +6080,7 @@
       <c r="H51" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="12">
         <v>9670000</v>
       </c>
       <c r="L51" s="3">
@@ -5542,15 +6096,15 @@
         <v>5</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V51" s="3">
         <v>1</v>
       </c>
-      <c r="W51" s="8" t="s">
+      <c r="W51" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="X51" s="8" t="s">
+      <c r="X51" s="16" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5579,7 +6133,7 @@
       <c r="H52" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="12">
         <v>9140110</v>
       </c>
       <c r="L52" s="3">
@@ -5598,15 +6152,15 @@
         <v>8</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V52" s="3">
         <v>1</v>
       </c>
-      <c r="X52" s="8" t="s">
+      <c r="X52" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="Y52" s="8" t="s">
+      <c r="Y52" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5635,7 +6189,13 @@
       <c r="H53" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K53" s="14">
+      <c r="I53" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="K53" s="12">
         <v>8010000</v>
       </c>
       <c r="L53" s="3">
@@ -5654,15 +6214,15 @@
         <v>11</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V53" s="3">
         <v>1</v>
       </c>
-      <c r="W53" s="8" t="s">
+      <c r="W53" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="X53" s="8" t="s">
+      <c r="X53" s="16" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5691,6 +6251,12 @@
       <c r="H54" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="I54" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>541</v>
+      </c>
       <c r="L54" s="3">
         <v>-33.713178508031604</v>
       </c>
@@ -5707,15 +6273,15 @@
         <v>14</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V54" s="3">
         <v>1</v>
       </c>
-      <c r="W54" s="8" t="s">
+      <c r="W54" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="X54" s="8" t="s">
+      <c r="X54" s="16" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5757,12 +6323,12 @@
         <v>12</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V55" s="3">
         <v>1</v>
       </c>
-      <c r="X55" s="8" t="s">
+      <c r="X55" s="16" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5791,7 +6357,13 @@
       <c r="H56" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K56" s="14">
+      <c r="I56" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="K56" s="12">
         <v>1930000</v>
       </c>
       <c r="L56" s="3">
@@ -5807,15 +6379,15 @@
         <v>12</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V56" s="3">
         <v>1</v>
       </c>
-      <c r="W56" s="8" t="s">
+      <c r="W56" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="X56" s="8" t="s">
+      <c r="X56" s="16" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5830,10 +6402,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>266</v>
@@ -5847,7 +6419,10 @@
       <c r="I57" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K57" s="14">
+      <c r="J57" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="K57" s="12">
         <v>97419</v>
       </c>
       <c r="L57" s="3">
@@ -5866,7 +6441,7 @@
         <v>8</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>264</v>
@@ -5874,10 +6449,10 @@
       <c r="V57" s="3">
         <v>1</v>
       </c>
-      <c r="W57" s="8" t="s">
+      <c r="W57" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="X57" s="8" t="s">
+      <c r="X57" s="16" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5906,7 +6481,7 @@
       <c r="H58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="12">
         <v>9140110</v>
       </c>
       <c r="L58" s="3">
@@ -5922,12 +6497,12 @@
         <v>2</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V58" s="3">
         <v>1</v>
       </c>
-      <c r="X58" s="8" t="s">
+      <c r="X58" s="16" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5945,18 +6520,21 @@
         <v>55</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K59" s="14">
+      <c r="I59" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="K59" s="12">
         <v>97300</v>
       </c>
       <c r="L59" s="3">
@@ -5975,15 +6553,15 @@
         <v>12</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V59" s="3">
         <v>1</v>
       </c>
-      <c r="W59" s="8" t="s">
+      <c r="W59" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="X59" s="8" t="s">
+      <c r="X59" s="16" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6010,9 +6588,12 @@
         <v>232</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K60" s="14">
+        <v>279</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="K60" s="12">
         <v>8012117</v>
       </c>
       <c r="L60" s="3">
@@ -6028,16 +6609,16 @@
         <v>8</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V60" s="3">
         <v>1</v>
       </c>
-      <c r="W60" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="X60" s="8" t="s">
+      <c r="W60" s="16" t="s">
         <v>278</v>
+      </c>
+      <c r="X60" s="16" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6045,7 +6626,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>61</v>
@@ -6063,9 +6644,12 @@
         <v>31</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K61" s="14">
+        <v>283</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="K61" s="12">
         <v>9020078</v>
       </c>
       <c r="L61" s="3">
@@ -6084,10 +6668,10 @@
         <v>23</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="R61" s="11" t="s">
-        <v>285</v>
+        <v>444</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="S61" s="3" t="s">
         <v>21</v>
@@ -6095,11 +6679,11 @@
       <c r="V61" s="3">
         <v>1</v>
       </c>
-      <c r="W61" s="8" t="s">
+      <c r="W61" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="X61" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="X61" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6107,7 +6691,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>61</v>
@@ -6125,9 +6709,15 @@
         <v>31</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K62" s="14">
+        <v>285</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="K62" s="12">
         <v>8700000</v>
       </c>
       <c r="L62" s="3">
@@ -6143,16 +6733,16 @@
         <v>5</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V62" s="3">
         <v>1</v>
       </c>
-      <c r="W62" s="8" t="s">
+      <c r="W62" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="X62" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="X62" s="8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6160,7 +6750,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>61</v>
@@ -6178,9 +6768,9 @@
         <v>31</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K63" s="14">
+        <v>290</v>
+      </c>
+      <c r="K63" s="12">
         <v>7980008</v>
       </c>
       <c r="L63" s="3">
@@ -6193,13 +6783,13 @@
         <v>2014</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V63" s="3">
         <v>1</v>
       </c>
-      <c r="X63" s="8" t="s">
-        <v>292</v>
+      <c r="X63" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6207,7 +6797,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
@@ -6225,9 +6815,9 @@
         <v>67</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K64" s="14">
+        <v>293</v>
+      </c>
+      <c r="K64" s="12">
         <v>1310000</v>
       </c>
       <c r="L64" s="3">
@@ -6243,13 +6833,13 @@
         <v>7</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V64" s="3">
         <v>1</v>
       </c>
-      <c r="X64" s="8" t="s">
-        <v>295</v>
+      <c r="X64" s="16" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6269,13 +6859,16 @@
         <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>298</v>
+      <c r="I65" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="L65" s="3">
         <v>-38.733962241319396</v>
@@ -6290,19 +6883,19 @@
         <v>3</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U65" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="V65" s="3">
+        <v>1</v>
+      </c>
+      <c r="W65" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="X65" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="V65" s="3">
-        <v>1</v>
-      </c>
-      <c r="W65" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="X65" s="8" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6322,15 +6915,21 @@
         <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="K66" s="14">
+      <c r="I66" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="K66" s="12">
         <v>4720359</v>
       </c>
       <c r="L66" s="3">
@@ -6349,16 +6948,16 @@
         <v>16</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V66" s="3">
         <v>1</v>
       </c>
-      <c r="W66" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="X66" s="8" t="s">
-        <v>302</v>
+      <c r="W66" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="X66" s="16" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6366,7 +6965,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>8</v>
@@ -6378,15 +6977,15 @@
         <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K67" s="14">
+        <v>307</v>
+      </c>
+      <c r="K67" s="12">
         <v>5030000</v>
       </c>
       <c r="L67" s="3">
@@ -6405,13 +7004,13 @@
         <v>27</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V67" s="3">
         <v>1</v>
       </c>
-      <c r="X67" s="8" t="s">
-        <v>306</v>
+      <c r="X67" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6437,7 +7036,10 @@
         <v>205</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="L68" s="3">
         <v>-37.596467640336897</v>
@@ -6455,16 +7057,16 @@
         <v>2</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V68" s="3">
         <v>1</v>
       </c>
-      <c r="W68" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="X68" s="8" t="s">
+      <c r="W68" s="16" t="s">
         <v>309</v>
+      </c>
+      <c r="X68" s="16" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6472,7 +7074,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>8</v>
@@ -6492,7 +7094,10 @@
       <c r="H69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="14">
+      <c r="I69" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K69" s="12">
         <v>4081375</v>
       </c>
       <c r="L69" s="3">
@@ -6508,16 +7113,16 @@
         <v>1</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V69" s="3">
         <v>1</v>
       </c>
-      <c r="W69" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="X69" s="8" t="s">
-        <v>312</v>
+      <c r="W69" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="X69" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6543,9 +7148,12 @@
         <v>19</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K70" s="14">
+        <v>314</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="K70" s="12">
         <v>4160000</v>
       </c>
       <c r="L70" s="3">
@@ -6558,16 +7166,16 @@
         <v>2016</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V70" s="3">
         <v>1</v>
       </c>
-      <c r="W70" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="X70" s="8" t="s">
+      <c r="W70" s="16" t="s">
         <v>316</v>
+      </c>
+      <c r="X70" s="16" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6593,28 +7201,28 @@
         <v>19</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K71" s="14">
+        <v>317</v>
+      </c>
+      <c r="K71" s="12">
         <v>4190000</v>
       </c>
       <c r="L71" s="3">
         <v>-36.993802080677</v>
       </c>
-      <c r="M71" s="10">
+      <c r="M71" s="8">
         <v>-73.156231908435302</v>
       </c>
       <c r="N71" s="3">
         <v>2022</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V71" s="3">
         <v>1</v>
       </c>
-      <c r="X71" s="8" t="s">
-        <v>319</v>
+      <c r="X71" s="16" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6642,7 +7250,13 @@
       <c r="H72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K72" s="14">
+      <c r="I72" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="K72" s="12">
         <v>1720700</v>
       </c>
       <c r="L72" s="3">
@@ -6661,19 +7275,19 @@
         <v>14</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U72" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="V72" s="3">
+        <v>1</v>
+      </c>
+      <c r="W72" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="X72" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="V72" s="3">
-        <v>1</v>
-      </c>
-      <c r="W72" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="X72" s="8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6681,7 +7295,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>8</v>
@@ -6701,7 +7315,13 @@
       <c r="H73" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K73" s="14">
+      <c r="I73" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="K73" s="12">
         <v>1720700</v>
       </c>
       <c r="L73" s="3">
@@ -6720,16 +7340,16 @@
         <v>14</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V73" s="3">
         <v>1</v>
       </c>
-      <c r="W73" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="X73" s="8" t="s">
+      <c r="W73" s="16" t="s">
         <v>324</v>
+      </c>
+      <c r="X73" s="16" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6737,7 +7357,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>8</v>
@@ -6755,9 +7375,9 @@
         <v>170</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K74" s="14">
+        <v>319</v>
+      </c>
+      <c r="K74" s="12">
         <v>1720700</v>
       </c>
       <c r="L74" s="3">
@@ -6773,13 +7393,13 @@
         <v>10</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V74" s="3">
         <v>1</v>
       </c>
-      <c r="X74" s="8" t="s">
-        <v>327</v>
+      <c r="X74" s="16" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6805,9 +7425,12 @@
         <v>74</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K75" s="14">
+        <v>328</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="K75" s="12">
         <v>5550451</v>
       </c>
       <c r="L75" s="3">
@@ -6826,16 +7449,16 @@
         <v>8</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V75" s="3">
         <v>1</v>
       </c>
-      <c r="W75" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="X75" s="8" t="s">
-        <v>328</v>
+      <c r="W75" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="X75" s="16" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6843,7 +7466,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>8</v>
@@ -6861,9 +7484,9 @@
         <v>12</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="K76" s="14">
+        <v>331</v>
+      </c>
+      <c r="K76" s="12">
         <v>5700808</v>
       </c>
       <c r="L76" s="3">
@@ -6876,13 +7499,13 @@
         <v>2013</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V76" s="3">
         <v>1</v>
       </c>
-      <c r="X76" s="8" t="s">
-        <v>331</v>
+      <c r="X76" s="16" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6902,13 +7525,19 @@
         <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>336</v>
+      <c r="I77" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="L77" s="3">
         <v>-39.6431644719502</v>
@@ -6923,16 +7552,16 @@
         <v>3</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V77" s="3">
         <v>1</v>
       </c>
-      <c r="W77" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="X77" s="8" t="s">
-        <v>333</v>
+      <c r="W77" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="X77" s="16" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6955,12 +7584,15 @@
         <v>212</v>
       </c>
       <c r="G78" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K78" s="14">
+      <c r="I78" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K78" s="12">
         <v>6160534</v>
       </c>
       <c r="L78" s="3">
@@ -6979,16 +7611,16 @@
         <v>16</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V78" s="3">
         <v>1</v>
       </c>
-      <c r="W78" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="X78" s="8" t="s">
-        <v>338</v>
+      <c r="W78" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="X78" s="16" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6996,7 +7628,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>8</v>
@@ -7014,9 +7646,12 @@
         <v>80</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="K79" s="14">
+        <v>343</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="K79" s="12">
         <v>2940640</v>
       </c>
       <c r="L79" s="3">
@@ -7032,16 +7667,16 @@
         <v>2</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V79" s="3">
         <v>1</v>
       </c>
-      <c r="W79" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="X79" s="8" t="s">
+      <c r="W79" s="16" t="s">
         <v>342</v>
+      </c>
+      <c r="X79" s="16" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7067,9 +7702,9 @@
         <v>43</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K80" s="14">
+        <v>346</v>
+      </c>
+      <c r="K80" s="12">
         <v>1130000</v>
       </c>
       <c r="L80" s="3">
@@ -7088,16 +7723,16 @@
         <v>26</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V80" s="3">
         <v>1</v>
       </c>
-      <c r="W80" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="X80" s="8" t="s">
-        <v>346</v>
+      <c r="W80" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="X80" s="16" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7105,7 +7740,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>8</v>
@@ -7120,12 +7755,15 @@
         <v>51</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="K81" s="14">
+        <v>349</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="K81" s="12">
         <v>2100000</v>
       </c>
       <c r="L81" s="3">
@@ -7144,16 +7782,16 @@
         <v>24</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V81" s="3">
         <v>1</v>
       </c>
-      <c r="W81" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="X81" s="8" t="s">
-        <v>349</v>
+      <c r="W81" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="X81" s="16" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7176,10 +7814,13 @@
         <v>51</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="L82" s="3">
         <v>-32.784049770332999</v>
@@ -7197,16 +7838,16 @@
         <v>30</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V82" s="3">
         <v>1</v>
       </c>
-      <c r="W82" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="X82" s="8" t="s">
+      <c r="W82" s="16" t="s">
         <v>353</v>
+      </c>
+      <c r="X82" s="16" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7214,7 +7855,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>217</v>
@@ -7226,13 +7867,13 @@
         <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L83" s="3">
         <v>-38.130151669861398</v>
@@ -7247,13 +7888,13 @@
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V83" s="3">
         <v>1</v>
       </c>
-      <c r="X83" s="8" t="s">
-        <v>358</v>
+      <c r="X83" s="16" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7281,7 +7922,13 @@
       <c r="H84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K84" s="14">
+      <c r="I84" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="K84" s="12">
         <v>8940000</v>
       </c>
       <c r="L84" s="3">
@@ -7297,25 +7944,25 @@
         <v>12</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="R84" s="11" t="s">
-        <v>361</v>
+        <v>444</v>
+      </c>
+      <c r="R84" s="9" t="s">
+        <v>360</v>
       </c>
       <c r="S84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="T84" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="V84" s="3">
+        <v>1</v>
+      </c>
+      <c r="W84" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="X84" s="16" t="s">
         <v>359</v>
-      </c>
-      <c r="V84" s="3">
-        <v>1</v>
-      </c>
-      <c r="W84" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="X84" s="8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7341,9 +7988,9 @@
         <v>12</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="K85" s="14">
+        <v>331</v>
+      </c>
+      <c r="K85" s="12">
         <v>5700808</v>
       </c>
       <c r="L85" s="3">
@@ -7359,13 +8006,13 @@
         <v>2</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V85" s="3">
         <v>1</v>
       </c>
-      <c r="X85" s="8" t="s">
-        <v>365</v>
+      <c r="X85" s="16" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7373,27 +8020,33 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="K86" s="14">
+      <c r="J86" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="K86" s="12">
         <v>2200</v>
       </c>
       <c r="L86" s="3">
@@ -7412,25 +8065,25 @@
         <v>4</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="R86" s="11" t="s">
-        <v>378</v>
+        <v>445</v>
+      </c>
+      <c r="R86" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="S86" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="V86" s="3">
+        <v>1</v>
+      </c>
+      <c r="W86" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="X86" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="V86" s="3">
-        <v>1</v>
-      </c>
-      <c r="W86" s="8" t="s">
+      <c r="Y86" s="16" t="s">
         <v>376</v>
-      </c>
-      <c r="X86" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y86" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7444,24 +8097,24 @@
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F87" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K87" s="14">
+      <c r="K87" s="12">
         <v>86000</v>
       </c>
       <c r="L87" s="3">
@@ -7480,25 +8133,25 @@
         <v>5</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="R87" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="R87" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="V87" s="3">
+        <v>1</v>
+      </c>
+      <c r="W87" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="X87" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="S87" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="V87" s="3">
-        <v>1</v>
-      </c>
-      <c r="W87" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="X87" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y87" s="8" t="s">
-        <v>379</v>
+      <c r="Y87" s="16" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7512,24 +8165,24 @@
         <v>8</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="K88" s="14">
+      <c r="K88" s="12">
         <v>91120</v>
       </c>
       <c r="L88" s="3">
@@ -7548,19 +8201,19 @@
         <v>21</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V88" s="3">
         <v>1</v>
       </c>
-      <c r="W88" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="X88" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y88" s="8" t="s">
-        <v>390</v>
+      <c r="W88" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="X88" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y88" s="16" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7568,30 +8221,30 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G89" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="K89" s="14">
+      <c r="K89" s="12">
         <v>91120</v>
       </c>
       <c r="L89" s="3">
@@ -7610,19 +8263,19 @@
         <v>20</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V89" s="3">
         <v>1</v>
       </c>
-      <c r="W89" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="X89" s="8" t="s">
+      <c r="W89" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="Y89" s="8" t="s">
-        <v>397</v>
+      <c r="X89" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y89" s="16" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7636,24 +8289,24 @@
         <v>8</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G90" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="K90" s="14">
+      <c r="K90" s="12">
         <v>63300</v>
       </c>
       <c r="L90" s="3">
@@ -7669,19 +8322,19 @@
         <v>11</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V90" s="3">
         <v>1</v>
       </c>
-      <c r="W90" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="X90" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y90" s="8" t="s">
-        <v>404</v>
+      <c r="W90" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="X90" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y90" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7695,27 +8348,27 @@
         <v>8</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K91" s="14">
+        <v>406</v>
+      </c>
+      <c r="K91" s="12">
         <v>63800</v>
       </c>
       <c r="L91" s="3">
@@ -7731,19 +8384,19 @@
         <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V91" s="3">
         <v>1</v>
       </c>
-      <c r="W91" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="X91" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y91" s="8" t="s">
-        <v>406</v>
+      <c r="W91" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X91" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y91" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7751,30 +8404,30 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="K92" s="14">
+      <c r="K92" s="12">
         <v>18100</v>
       </c>
       <c r="L92" s="3">
@@ -7790,25 +8443,25 @@
         <v>9</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="T92" s="3" t="s">
         <v>264</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="V92" s="3">
         <v>1</v>
       </c>
-      <c r="W92" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="X92" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y92" s="8" t="s">
-        <v>412</v>
+      <c r="W92" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="X92" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y92" s="16" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7816,33 +8469,33 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="K93" s="14">
+      <c r="K93" s="12">
         <v>29700</v>
       </c>
       <c r="L93" s="3">
@@ -7855,19 +8508,19 @@
         <v>1989</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="V93" s="3">
         <v>1</v>
       </c>
-      <c r="W93" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="X93" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y93" s="8" t="s">
-        <v>419</v>
+      <c r="W93" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="X93" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y93" s="16" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7875,33 +8528,33 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="K94" s="14">
+        <v>427</v>
+      </c>
+      <c r="K94" s="12">
         <v>29100</v>
       </c>
       <c r="L94" s="3">
@@ -7920,19 +8573,19 @@
         <v>2</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V94" s="3">
         <v>1</v>
       </c>
-      <c r="W94" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="X94" s="8" t="s">
+      <c r="W94" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="Y94" s="8" t="s">
-        <v>427</v>
+      <c r="X94" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y94" s="16" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7940,31 +8593,31 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H95" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K95" s="13" t="s">
         <v>433</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="K95" s="15" t="s">
-        <v>435</v>
       </c>
       <c r="L95" s="3">
         <v>46.343936980975201</v>
@@ -7979,19 +8632,19 @@
         <v>9</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V95" s="3">
         <v>1</v>
       </c>
-      <c r="W95" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="X95" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y95" s="8" t="s">
-        <v>432</v>
+      <c r="W95" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="X95" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y95" s="16" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7999,33 +8652,33 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="K96" s="14">
+        <v>441</v>
+      </c>
+      <c r="K96" s="12">
         <v>29000</v>
       </c>
       <c r="L96" s="3">
@@ -8044,19 +8697,19 @@
         <v>17</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V96" s="3">
         <v>1</v>
       </c>
-      <c r="W96" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="X96" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y96" s="8" t="s">
+      <c r="W96" s="16" t="s">
         <v>440</v>
+      </c>
+      <c r="X96" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y96" s="16" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8064,33 +8717,33 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K97" s="14">
+      <c r="K97" s="12">
         <v>51370</v>
       </c>
       <c r="L97" s="3">
@@ -8106,16 +8759,16 @@
         <v>8</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V97" s="3">
         <v>1</v>
       </c>
-      <c r="X97" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y97" s="8" t="s">
-        <v>456</v>
+      <c r="X97" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y97" s="16" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8123,33 +8776,33 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="K98" s="14">
+        <v>457</v>
+      </c>
+      <c r="K98" s="12">
         <v>29730</v>
       </c>
       <c r="L98" s="3">
@@ -8168,19 +8821,19 @@
         <v>16</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V98" s="3">
         <v>1</v>
       </c>
-      <c r="W98" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="X98" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y98" s="8" t="s">
+      <c r="W98" s="16" t="s">
         <v>458</v>
+      </c>
+      <c r="X98" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y98" s="16" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8194,24 +8847,24 @@
         <v>8</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G99" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="K99" s="14">
+      <c r="K99" s="12">
         <v>62200</v>
       </c>
       <c r="L99" s="3">
@@ -8227,19 +8880,19 @@
         <v>4</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V99" s="3">
         <v>1</v>
       </c>
-      <c r="W99" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="X99" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="Y99" s="8" t="s">
+      <c r="W99" s="16" t="s">
         <v>462</v>
+      </c>
+      <c r="X99" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y99" s="16" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8247,33 +8900,33 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H100" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="J100" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="K100" s="14">
+      <c r="K100" s="12">
         <v>94600</v>
       </c>
       <c r="L100" s="3">
@@ -8289,16 +8942,16 @@
         <v>8</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V100" s="3">
         <v>1</v>
       </c>
-      <c r="W100" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="X100" s="8" t="s">
-        <v>472</v>
+      <c r="W100" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="X100" s="16" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8306,33 +8959,33 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H101" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="K101" s="14">
+      <c r="K101" s="12">
         <v>93310</v>
       </c>
       <c r="L101" s="3">
@@ -8348,25 +9001,25 @@
         <v>6</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="R101" s="11" t="s">
-        <v>480</v>
+        <v>442</v>
+      </c>
+      <c r="R101" s="9" t="s">
+        <v>478</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="V101" s="3">
         <v>1</v>
       </c>
-      <c r="W101" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="X101" s="8" t="s">
+      <c r="W101" s="16" t="s">
         <v>477</v>
+      </c>
+      <c r="X101" s="16" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8374,28 +9027,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G102" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="N102" s="3">
         <v>2011</v>
@@ -8407,13 +9060,13 @@
         <v>22</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="Y102" s="8" t="s">
-        <v>484</v>
+      <c r="Y102" s="16" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8421,10 +9074,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>55</v>
@@ -8444,7 +9097,7 @@
       <c r="I103" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K103" s="14">
+      <c r="K103" s="12">
         <v>8370136</v>
       </c>
       <c r="L103" s="3">
@@ -8460,23 +9113,693 @@
         <v>9</v>
       </c>
       <c r="Q103" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="V103" s="3">
+        <v>1</v>
+      </c>
+      <c r="W103" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="X103" s="16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="14">
+        <v>103</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="L104" s="14">
+        <v>36.753338499999998</v>
+      </c>
+      <c r="M104" s="14">
+        <v>3.0420946</v>
+      </c>
+      <c r="N104" s="14">
+        <v>2007</v>
+      </c>
+      <c r="O104" s="14">
+        <v>3</v>
+      </c>
+      <c r="P104" s="14">
+        <v>11</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R104" s="14"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="14"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="14">
+        <v>1</v>
+      </c>
+      <c r="W104" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="X104" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y104" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="L105" s="3">
+        <v>-12.110276300000001</v>
+      </c>
+      <c r="M105" s="3">
+        <v>-77.010428300000001</v>
+      </c>
+      <c r="N105" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O105" s="3">
+        <v>2</v>
+      </c>
+      <c r="P105" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="V105" s="3">
+        <v>1</v>
+      </c>
+      <c r="W105" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="X105" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y105" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="14">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="K106" s="12">
+        <v>15828</v>
+      </c>
+      <c r="L106" s="3">
+        <v>-12.1825599217897</v>
+      </c>
+      <c r="M106" s="3">
+        <v>-76.948206122631603</v>
+      </c>
+      <c r="N106" s="3">
+        <v>2018</v>
+      </c>
+      <c r="O106" s="3">
+        <v>4</v>
+      </c>
+      <c r="P106" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q106" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="U103" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="V103" s="3">
-        <v>1</v>
-      </c>
-      <c r="W103" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="X103" s="8" t="s">
-        <v>489</v>
+      <c r="V106" s="3">
+        <v>1</v>
+      </c>
+      <c r="W106" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="X106" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K107" s="12">
+        <v>15811</v>
+      </c>
+      <c r="L107" s="3">
+        <v>-12.1428039968166</v>
+      </c>
+      <c r="M107" s="3">
+        <v>-76.953055786907996</v>
+      </c>
+      <c r="N107" s="3">
+        <v>2013</v>
+      </c>
+      <c r="O107" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V107" s="3">
+        <v>1</v>
+      </c>
+      <c r="W107" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L108" s="3">
+        <v>-8.8210223403869605</v>
+      </c>
+      <c r="M108" s="3">
+        <v>13.2346384758041</v>
+      </c>
+      <c r="N108" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O108" s="3">
+        <v>2</v>
+      </c>
+      <c r="P108" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="V108" s="3">
+        <v>1</v>
+      </c>
+      <c r="W108" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="X108" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y108" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="N109" s="3">
+        <v>2009</v>
+      </c>
+      <c r="O109" s="3">
+        <v>5</v>
+      </c>
+      <c r="P109" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="V109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="L110" s="3">
+        <v>-43.2526619</v>
+      </c>
+      <c r="M110" s="3">
+        <v>-65.2937206</v>
+      </c>
+      <c r="N110" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O110" s="3">
+        <v>11</v>
+      </c>
+      <c r="P110" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V110" s="3">
+        <v>1</v>
+      </c>
+      <c r="W110" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="X110" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y110" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="L111" s="3">
+        <v>-38.9398709779149</v>
+      </c>
+      <c r="M111" s="3">
+        <v>-68.057421667015802</v>
+      </c>
+      <c r="N111" s="3">
+        <v>1988</v>
+      </c>
+      <c r="O111" s="3">
+        <v>11</v>
+      </c>
+      <c r="P111" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V111" s="3">
+        <v>1</v>
+      </c>
+      <c r="W111" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="X111" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y111" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="K112" s="12">
+        <v>1900</v>
+      </c>
+      <c r="L112" s="3">
+        <v>-34.925785975120398</v>
+      </c>
+      <c r="M112" s="3">
+        <v>-57.960207031181397</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1994</v>
+      </c>
+      <c r="O112" s="3">
+        <v>10</v>
+      </c>
+      <c r="P112" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V112" s="3">
+        <v>1</v>
+      </c>
+      <c r="W112" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="X112" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y112" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="N113" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O113" s="3">
+        <v>9</v>
+      </c>
+      <c r="P113" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="L114" s="3">
+        <v>-34.581500925866997</v>
+      </c>
+      <c r="M114" s="3">
+        <v>-58.400126822073197</v>
+      </c>
+      <c r="N114" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O114" s="3">
+        <v>6</v>
+      </c>
+      <c r="P114" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V114" s="3">
+        <v>1</v>
+      </c>
+      <c r="W114" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="X114" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y114" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AO103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AO107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -8694,8 +10017,11 @@
     <hyperlink ref="Y102" r:id="rId211" xr:uid="{8D50298E-5542-47C6-9400-7130D20BE49A}"/>
     <hyperlink ref="W103" r:id="rId212" xr:uid="{404307FF-63D7-41AF-9E64-A28A3935493D}"/>
     <hyperlink ref="X103" r:id="rId213" xr:uid="{87F2F918-86DC-4AF6-8891-A22A02A155D0}"/>
+    <hyperlink ref="W104" r:id="rId214" xr:uid="{0AF33AD5-43E5-4C36-A70E-177A04BE4AF4}"/>
+    <hyperlink ref="Y104" r:id="rId215" xr:uid="{A459743A-E5CB-43DD-9F55-E2ABBB41891E}"/>
+    <hyperlink ref="X104" r:id="rId216" xr:uid="{CD6341ED-F5E4-496D-9565-CE5CE008110F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId214"/>
+  <pageSetup orientation="portrait" r:id="rId217"/>
 </worksheet>
 </file>
--- a/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
+++ b/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1571" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7939968C-CC96-4FB2-A09B-9653B9085E43}"/>
+  <xr:revisionPtr revIDLastSave="1578" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76AB5A1D-4637-4DA6-8AA9-E3B1495A5301}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allende" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="691">
   <si>
     <t>id</t>
   </si>
@@ -2075,6 +2075,135 @@
   </si>
   <si>
     <t>Placa: Salvador Allende en la Plaza República de Chile</t>
+  </si>
+  <si>
+    <t>Salvador Allende Memorial</t>
+  </si>
+  <si>
+    <t>ANZ and Oceania</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>Fairfield City Council</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>Vine Street</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/va4MtUGqAPh8JmXv7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/08/25/534-fairfield-australia</t>
+  </si>
+  <si>
+    <t>Salvador-Allende-Hof</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Simmering</t>
+  </si>
+  <si>
+    <t>KG Simmering</t>
+  </si>
+  <si>
+    <t>Wohnhausanlage der Gemeinde Wien errichtet in den Jahren 1963 - 1965
+Salvador Allende-Hof
+Dr. Salvador Allende 1908-1973
+Mitbegründer der Sozialistischen Partei Chiles, 1938 Gesundheitsminister, Vorsitzender der Ärztekammer, am 3. November 1970 zum Präsidenten der Republik Chile gewählt, wurde am 11. September 1973 Opfer eines Militärputsches.</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/401346979</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/10/23/557-viena-austria</t>
+  </si>
+  <si>
+    <t>Salvador-Allende-Denkmal</t>
+  </si>
+  <si>
+    <t>Donaustadt</t>
+  </si>
+  <si>
+    <t>KG Kaisermühlen</t>
+  </si>
+  <si>
+    <t>Salvador Allende G.
+Präsident Chiles 1970-1973
+"Eher früher als später werden sich die breiten Straßen für die Menschen öffnen, die in würde eine bessere Gesselschaft schaffen werden."
+Worte aus Allendes letzter Rede, bevor er und Tausende durch den Militärputsch vom 11. September 1973 starben. Der Putsch war eine Reaktion auf seinen demokratischen Kampf für soziale Gerechtigkeit.
+Salvador Allende G. 26. Juni 1908 - 11. September 1973
+"Más temprano que tarde se abrirán las grandes alamedas por donde pase el hombre libre para construir una sociedad mejor."
+Extracto del último mensaje de Allende a su pueblo, antes de morir el día del golpe militar tras el cual miles de sus compatriotas sufrirían idéntico destino. El golpe fue la reacción a su lucha democrática por la justicia social.</t>
+  </si>
+  <si>
+    <t>de, es</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/308769474</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/10/08/421-viena-austria</t>
+  </si>
+  <si>
+    <t>Allendeplatz</t>
+  </si>
+  <si>
+    <t>Upper Austria</t>
+  </si>
+  <si>
+    <t>Linz</t>
+  </si>
+  <si>
+    <t>Kleinmünchen-Auwiesen</t>
+  </si>
+  <si>
+    <t>Auwiesen</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/24249598</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/TkMtN8JduEWpZkpx5</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/05/29/355-linz-austria</t>
+  </si>
+  <si>
+    <t>Salvador-Allende-Weg</t>
+  </si>
+  <si>
+    <t>desc implied</t>
+  </si>
+  <si>
+    <t>Salvador-Allende-Weg
+Benannt nach dem chilenischen Präsidenten, Arzt und Mitbegründer der Sozialistischen Partei Chiles Salvador Allende, geboren 1908 in Valparaiso. Allende kam bei der Eroberung seines Präsidentenpalastes durch Putschisten am 11. September 1973 in Santiago de Chile ums Leben.
+Dieser Donauparkweg wurde mit Unterstützung von chilenischen Arbeitern (Flüchtlingen) gebaut.
+El „Salvador-Allende-Weg‟ fue nombrado así en honor del presidente chileno Salvador Allende, nacido en 1908 en Valparaíso, médico y cofundador del Partido Socialista de Chile.
+Salvador Allende murió el 11 de septiembre de 1973 en Santiago de Chile durante la toma del palacio presidencial por los golpistas. Este camino en el „Donaupark‟ (Parque del Danubio) fue construido con el apoyo de trabajadores (refugiados) chilenos.
+www.mssa.cl
+www.wien.at/ma42</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/758217539</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2158,13 +2287,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2411,13 +2534,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AO119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A115" sqref="A115"/>
+      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2425,7 +2548,7 @@
     <col min="1" max="1" width="5.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="10" width="12.6640625" style="3"/>
-    <col min="11" max="11" width="12.6640625" style="12"/>
+    <col min="11" max="11" width="12.6640625" style="10"/>
     <col min="12" max="13" width="13" style="3" customWidth="1"/>
     <col min="14" max="14" width="18" style="3" customWidth="1"/>
     <col min="15" max="18" width="19" style="3" customWidth="1"/>
@@ -2466,7 +2589,7 @@
       <c r="J1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>493</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2557,7 +2680,7 @@
         <v>508</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>5710000</v>
       </c>
       <c r="L2" s="4">
@@ -2593,7 +2716,7 @@
       <c r="X2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="14" t="s">
         <v>164</v>
       </c>
       <c r="Z2" s="6"/>
@@ -2613,7 +2736,7 @@
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:41" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2640,7 +2763,7 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>4190000</v>
       </c>
       <c r="L3" s="4">
@@ -2659,7 +2782,7 @@
       <c r="Q3" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>363</v>
       </c>
       <c r="S3" s="4" t="s">
@@ -2698,7 +2821,7 @@
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
     </row>
-    <row r="4" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2727,7 +2850,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="4">
@@ -2738,7 +2861,7 @@
       <c r="Q4" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="4" t="s">
         <v>362</v>
       </c>
       <c r="S4" s="4" t="s">
@@ -2798,7 +2921,7 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>8370403</v>
       </c>
       <c r="L5" s="4">
@@ -2877,7 +3000,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="4">
         <v>-33.4973046159975</v>
       </c>
@@ -2958,7 +3081,7 @@
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>1100026</v>
       </c>
       <c r="L7" s="4">
@@ -3014,7 +3137,7 @@
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
     </row>
-    <row r="8" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3039,7 +3162,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="4">
         <v>-20.222863143639401</v>
       </c>
@@ -3058,7 +3181,7 @@
       <c r="Q8" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="4" t="s">
         <v>159</v>
       </c>
       <c r="S8" s="4" t="s">
@@ -3122,7 +3245,7 @@
         <v>509</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="4">
         <v>-33.593177062007797</v>
       </c>
@@ -3141,7 +3264,7 @@
       <c r="Q9" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -3203,7 +3326,7 @@
         <v>511</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="4">
         <v>-33.5178932464284</v>
       </c>
@@ -3222,7 +3345,7 @@
       <c r="Q10" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -3284,7 +3407,7 @@
         <v>510</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>9362427</v>
       </c>
       <c r="L11" s="4">
@@ -3305,7 +3428,7 @@
       <c r="Q11" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -3365,7 +3488,7 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>1240000</v>
       </c>
       <c r="L12" s="4">
@@ -3386,7 +3509,7 @@
       <c r="Q12" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="6"/>
       <c r="T12" s="4" t="s">
         <v>68</v>
@@ -3448,7 +3571,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>1240000</v>
       </c>
       <c r="L13" s="4">
@@ -3469,7 +3592,7 @@
       <c r="Q13" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -3527,7 +3650,7 @@
         <v>512</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>5507138</v>
       </c>
       <c r="L14" s="4">
@@ -3548,7 +3671,7 @@
       <c r="Q14" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -3558,7 +3681,7 @@
       <c r="W14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="X14" s="17" t="s">
+      <c r="X14" s="15" t="s">
         <v>240</v>
       </c>
       <c r="Y14" s="5" t="s">
@@ -3581,7 +3704,7 @@
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
     </row>
-    <row r="15" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3608,7 +3731,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="4">
         <v>-34.166239274400198</v>
       </c>
@@ -3625,7 +3748,7 @@
       <c r="Q15" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="4" t="s">
         <v>160</v>
       </c>
       <c r="S15" s="4" t="s">
@@ -3689,7 +3812,7 @@
         <v>513</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>2850546</v>
       </c>
       <c r="L16" s="4">
@@ -3770,7 +3893,7 @@
         <v>89</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>1530000</v>
       </c>
       <c r="L17" s="6"/>
@@ -3783,7 +3906,7 @@
       <c r="Q17" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -3843,7 +3966,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>5301065</v>
       </c>
       <c r="L18" s="4">
@@ -3864,7 +3987,7 @@
       <c r="Q18" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="R18" s="6"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -3895,7 +4018,7 @@
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
     </row>
-    <row r="19" spans="1:41" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3926,7 +4049,7 @@
       <c r="J19" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="K19" s="11"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="4">
         <v>-33.442029258705702</v>
       </c>
@@ -3943,7 +4066,7 @@
       <c r="Q19" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="4" t="s">
         <v>161</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -4007,7 +4130,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="11">
+      <c r="K20" s="9">
         <v>1390000</v>
       </c>
       <c r="L20" s="4">
@@ -4028,7 +4151,7 @@
       <c r="Q20" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -4088,7 +4211,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <v>1500000</v>
       </c>
       <c r="L21" s="4">
@@ -4109,7 +4232,7 @@
       <c r="Q21" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="4" t="s">
@@ -4144,7 +4267,7 @@
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
     </row>
-    <row r="22" spans="1:41" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4175,7 +4298,7 @@
       <c r="J22" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="4">
         <v>-33.047329111824297</v>
       </c>
@@ -4194,7 +4317,7 @@
       <c r="Q22" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="4" t="s">
         <v>158</v>
       </c>
       <c r="S22" s="4" t="s">
@@ -4260,7 +4383,7 @@
         <v>518</v>
       </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <v>3560515</v>
       </c>
       <c r="L23" s="4">
@@ -4349,7 +4472,7 @@
         <v>519</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="11">
+      <c r="K24" s="9">
         <v>1395584</v>
       </c>
       <c r="L24" s="4">
@@ -4370,7 +4493,7 @@
       <c r="Q24" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R24" s="6"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -4442,7 +4565,7 @@
       <c r="Q25" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R25" s="6"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -4475,7 +4598,7 @@
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
     </row>
-    <row r="26" spans="1:41" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4502,7 +4625,7 @@
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="11">
+      <c r="K26" s="9">
         <v>3130000</v>
       </c>
       <c r="L26" s="4">
@@ -4523,7 +4646,7 @@
       <c r="Q26" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="4" t="s">
         <v>365</v>
       </c>
       <c r="S26" s="4" t="s">
@@ -4560,7 +4683,7 @@
       <c r="AN26" s="6"/>
       <c r="AO26" s="6"/>
     </row>
-    <row r="27" spans="1:41" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4587,7 +4710,7 @@
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="4">
@@ -4600,7 +4723,7 @@
       <c r="Q27" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="4" t="s">
         <v>366</v>
       </c>
       <c r="S27" s="4" t="s">
@@ -4611,10 +4734,10 @@
       <c r="V27" s="6">
         <v>0</v>
       </c>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="X27" s="17" t="s">
+      <c r="X27" s="15" t="s">
         <v>142</v>
       </c>
       <c r="Y27" s="5" t="s">
@@ -4666,7 +4789,7 @@
         <v>520</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="11">
+      <c r="K28" s="9">
         <v>9120490</v>
       </c>
       <c r="L28" s="6">
@@ -4687,20 +4810,20 @@
       <c r="Q28" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="R28" s="6"/>
+      <c r="R28" s="4"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6">
         <v>1</v>
       </c>
-      <c r="W28" s="17" t="s">
+      <c r="W28" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="X28" s="17" t="s">
+      <c r="X28" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="Y28" s="17" t="s">
+      <c r="Y28" s="15" t="s">
         <v>146</v>
       </c>
       <c r="Z28" s="6"/>
@@ -4751,7 +4874,7 @@
       <c r="J29" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="9">
         <v>3461761</v>
       </c>
       <c r="L29" s="6">
@@ -4770,7 +4893,7 @@
       <c r="Q29" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="R29" s="6"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6" t="s">
         <v>157</v>
@@ -4781,13 +4904,13 @@
       <c r="V29" s="6">
         <v>1</v>
       </c>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="X29" s="17" t="s">
+      <c r="X29" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="Y29" s="17" t="s">
+      <c r="Y29" s="15" t="s">
         <v>163</v>
       </c>
       <c r="Z29" s="6"/>
@@ -4835,7 +4958,7 @@
       <c r="I30" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="10">
         <v>9140110</v>
       </c>
       <c r="L30" s="3">
@@ -4859,13 +4982,13 @@
       <c r="V30" s="3">
         <v>1</v>
       </c>
-      <c r="W30" s="16" t="s">
+      <c r="W30" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="X30" s="16" t="s">
+      <c r="X30" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="Y30" s="16" t="s">
+      <c r="Y30" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4894,7 +5017,7 @@
       <c r="H31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="10">
         <v>9210007</v>
       </c>
       <c r="L31" s="3">
@@ -4918,13 +5041,13 @@
       <c r="V31" s="3">
         <v>1</v>
       </c>
-      <c r="W31" s="16" t="s">
+      <c r="W31" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="X31" s="16" t="s">
+      <c r="X31" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="Y31" s="16" t="s">
+      <c r="Y31" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4956,7 +5079,7 @@
       <c r="I32" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="10">
         <v>9090184</v>
       </c>
       <c r="L32" s="3">
@@ -4980,13 +5103,13 @@
       <c r="V32" s="3">
         <v>1</v>
       </c>
-      <c r="W32" s="16" t="s">
+      <c r="W32" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="X32" s="16" t="s">
+      <c r="X32" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="Y32" s="16" t="s">
+      <c r="Y32" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5018,7 +5141,7 @@
       <c r="I33" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="10">
         <v>8150000</v>
       </c>
       <c r="L33" s="3">
@@ -5042,13 +5165,13 @@
       <c r="V33" s="3">
         <v>1</v>
       </c>
-      <c r="W33" s="16" t="s">
+      <c r="W33" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="X33" s="16" t="s">
+      <c r="X33" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="Y33" s="16" t="s">
+      <c r="Y33" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5077,7 +5200,7 @@
       <c r="H34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="10">
         <v>9362427</v>
       </c>
       <c r="L34" s="3">
@@ -5101,13 +5224,13 @@
       <c r="V34" s="3">
         <v>1</v>
       </c>
-      <c r="W34" s="16" t="s">
+      <c r="W34" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="X34" s="16" t="s">
+      <c r="X34" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Y34" s="16" t="s">
+      <c r="Y34" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5163,13 +5286,13 @@
       <c r="V35" s="3">
         <v>1</v>
       </c>
-      <c r="W35" s="16" t="s">
+      <c r="W35" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="X35" s="16" t="s">
+      <c r="X35" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="Y35" s="16" t="s">
+      <c r="Y35" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5204,7 +5327,7 @@
       <c r="J36" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="10">
         <v>1790437</v>
       </c>
       <c r="L36" s="3">
@@ -5228,13 +5351,13 @@
       <c r="V36" s="3">
         <v>1</v>
       </c>
-      <c r="W36" s="16" t="s">
+      <c r="W36" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="X36" s="16" t="s">
+      <c r="X36" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="Y36" s="16" t="s">
+      <c r="Y36" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5290,13 +5413,13 @@
       <c r="V37" s="3">
         <v>1</v>
       </c>
-      <c r="W37" s="16" t="s">
+      <c r="W37" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="X37" s="16" t="s">
+      <c r="X37" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="Y37" s="16" t="s">
+      <c r="Y37" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5328,7 +5451,7 @@
       <c r="I38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="10">
         <v>8370403</v>
       </c>
       <c r="L38" s="3">
@@ -5352,13 +5475,13 @@
       <c r="V38" s="3">
         <v>1</v>
       </c>
-      <c r="W38" s="16" t="s">
+      <c r="W38" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="X38" s="16" t="s">
+      <c r="X38" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="Y38" s="16" t="s">
+      <c r="Y38" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5408,13 +5531,13 @@
       <c r="V39" s="3">
         <v>1</v>
       </c>
-      <c r="W39" s="16" t="s">
+      <c r="W39" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="X39" s="16" t="s">
+      <c r="X39" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="Y39" s="16" t="s">
+      <c r="Y39" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5464,13 +5587,13 @@
       <c r="V40" s="3">
         <v>1</v>
       </c>
-      <c r="W40" s="16" t="s">
+      <c r="W40" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="X40" s="16" t="s">
+      <c r="X40" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="Y40" s="16" t="s">
+      <c r="Y40" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5505,7 +5628,7 @@
       <c r="J41" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="10">
         <v>7870154</v>
       </c>
       <c r="L41" s="3">
@@ -5529,13 +5652,13 @@
       <c r="V41" s="3">
         <v>1</v>
       </c>
-      <c r="W41" s="16" t="s">
+      <c r="W41" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="X41" s="16" t="s">
+      <c r="X41" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="Y41" s="16" t="s">
+      <c r="Y41" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5567,7 +5690,7 @@
       <c r="I42" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="10">
         <v>8940000</v>
       </c>
       <c r="L42" s="3">
@@ -5591,13 +5714,13 @@
       <c r="V42" s="3">
         <v>1</v>
       </c>
-      <c r="W42" s="16" t="s">
+      <c r="W42" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="X42" s="16" t="s">
+      <c r="X42" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="Y42" s="16" t="s">
+      <c r="Y42" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5626,7 +5749,7 @@
       <c r="H43" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="10">
         <v>2910036</v>
       </c>
       <c r="L43" s="3">
@@ -5650,10 +5773,10 @@
       <c r="V43" s="3">
         <v>1</v>
       </c>
-      <c r="W43" s="16" t="s">
+      <c r="W43" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="Y43" s="16" t="s">
+      <c r="Y43" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5682,7 +5805,7 @@
       <c r="H44" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="10">
         <v>2910036</v>
       </c>
       <c r="L44" s="3">
@@ -5703,7 +5826,7 @@
       <c r="V44" s="3">
         <v>1</v>
       </c>
-      <c r="X44" s="16" t="s">
+      <c r="X44" s="14" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5753,10 +5876,10 @@
       <c r="V45" s="3">
         <v>1</v>
       </c>
-      <c r="W45" s="16" t="s">
+      <c r="W45" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="Y45" s="16" t="s">
+      <c r="Y45" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5788,7 +5911,7 @@
       <c r="I46" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="10">
         <v>4370786</v>
       </c>
       <c r="L46" s="3">
@@ -5812,13 +5935,13 @@
       <c r="V46" s="3">
         <v>1</v>
       </c>
-      <c r="W46" s="16" t="s">
+      <c r="W46" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="X46" s="16" t="s">
+      <c r="X46" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="Y46" s="16" t="s">
+      <c r="Y46" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5850,7 +5973,7 @@
       <c r="I47" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="10">
         <v>4370786</v>
       </c>
       <c r="L47" s="3">
@@ -5874,10 +5997,10 @@
       <c r="V47" s="3">
         <v>1</v>
       </c>
-      <c r="W47" s="16" t="s">
+      <c r="W47" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="X47" s="16" t="s">
+      <c r="X47" s="14" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5909,7 +6032,7 @@
       <c r="I48" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="10">
         <v>6200537</v>
       </c>
       <c r="L48" s="3">
@@ -5936,13 +6059,13 @@
       <c r="V48" s="3">
         <v>1</v>
       </c>
-      <c r="W48" s="16" t="s">
+      <c r="W48" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="X48" s="16" t="s">
+      <c r="X48" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="Y48" s="16" t="s">
+      <c r="Y48" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5977,7 +6100,7 @@
       <c r="J49" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="10">
         <v>2540114</v>
       </c>
       <c r="L49" s="3">
@@ -6001,13 +6124,13 @@
       <c r="V49" s="3">
         <v>1</v>
       </c>
-      <c r="W49" s="16" t="s">
+      <c r="W49" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="X49" s="16" t="s">
+      <c r="X49" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="Y49" s="16" t="s">
+      <c r="Y49" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6033,7 +6156,7 @@
       <c r="G50" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="10">
         <v>2580253</v>
       </c>
       <c r="L50" s="3">
@@ -6051,7 +6174,7 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-      <c r="X50" s="16" t="s">
+      <c r="X50" s="14" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6080,7 +6203,7 @@
       <c r="H51" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="10">
         <v>9670000</v>
       </c>
       <c r="L51" s="3">
@@ -6101,10 +6224,10 @@
       <c r="V51" s="3">
         <v>1</v>
       </c>
-      <c r="W51" s="16" t="s">
+      <c r="W51" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="X51" s="16" t="s">
+      <c r="X51" s="14" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6133,7 +6256,7 @@
       <c r="H52" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="10">
         <v>9140110</v>
       </c>
       <c r="L52" s="3">
@@ -6157,10 +6280,10 @@
       <c r="V52" s="3">
         <v>1</v>
       </c>
-      <c r="X52" s="16" t="s">
+      <c r="X52" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="Y52" s="16" t="s">
+      <c r="Y52" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6195,7 +6318,7 @@
       <c r="J53" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="10">
         <v>8010000</v>
       </c>
       <c r="L53" s="3">
@@ -6219,10 +6342,10 @@
       <c r="V53" s="3">
         <v>1</v>
       </c>
-      <c r="W53" s="16" t="s">
+      <c r="W53" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="X53" s="16" t="s">
+      <c r="X53" s="14" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6278,10 +6401,10 @@
       <c r="V54" s="3">
         <v>1</v>
       </c>
-      <c r="W54" s="16" t="s">
+      <c r="W54" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="X54" s="16" t="s">
+      <c r="X54" s="14" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6328,7 +6451,7 @@
       <c r="V55" s="3">
         <v>1</v>
       </c>
-      <c r="X55" s="16" t="s">
+      <c r="X55" s="14" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6363,7 +6486,7 @@
       <c r="J56" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="10">
         <v>1930000</v>
       </c>
       <c r="L56" s="3">
@@ -6384,10 +6507,10 @@
       <c r="V56" s="3">
         <v>1</v>
       </c>
-      <c r="W56" s="16" t="s">
+      <c r="W56" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="X56" s="16" t="s">
+      <c r="X56" s="14" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6422,7 +6545,7 @@
       <c r="J57" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="10">
         <v>97419</v>
       </c>
       <c r="L57" s="3">
@@ -6449,10 +6572,10 @@
       <c r="V57" s="3">
         <v>1</v>
       </c>
-      <c r="W57" s="16" t="s">
+      <c r="W57" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="X57" s="16" t="s">
+      <c r="X57" s="14" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6481,7 +6604,7 @@
       <c r="H58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="10">
         <v>9140110</v>
       </c>
       <c r="L58" s="3">
@@ -6502,7 +6625,7 @@
       <c r="V58" s="3">
         <v>1</v>
       </c>
-      <c r="X58" s="16" t="s">
+      <c r="X58" s="14" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6534,7 +6657,7 @@
       <c r="I59" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="10">
         <v>97300</v>
       </c>
       <c r="L59" s="3">
@@ -6558,10 +6681,10 @@
       <c r="V59" s="3">
         <v>1</v>
       </c>
-      <c r="W59" s="16" t="s">
+      <c r="W59" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="X59" s="16" t="s">
+      <c r="X59" s="14" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6593,7 +6716,7 @@
       <c r="I60" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="10">
         <v>8012117</v>
       </c>
       <c r="L60" s="3">
@@ -6614,10 +6737,10 @@
       <c r="V60" s="3">
         <v>1</v>
       </c>
-      <c r="W60" s="16" t="s">
+      <c r="W60" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="X60" s="16" t="s">
+      <c r="X60" s="14" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6649,7 +6772,7 @@
       <c r="I61" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="10">
         <v>9020078</v>
       </c>
       <c r="L61" s="3">
@@ -6670,7 +6793,7 @@
       <c r="Q61" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="R61" s="9" t="s">
+      <c r="R61" s="3" t="s">
         <v>284</v>
       </c>
       <c r="S61" s="3" t="s">
@@ -6679,10 +6802,10 @@
       <c r="V61" s="3">
         <v>1</v>
       </c>
-      <c r="W61" s="16" t="s">
+      <c r="W61" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="X61" s="16" t="s">
+      <c r="X61" s="14" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6717,7 +6840,7 @@
       <c r="J62" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="10">
         <v>8700000</v>
       </c>
       <c r="L62" s="3">
@@ -6738,10 +6861,10 @@
       <c r="V62" s="3">
         <v>1</v>
       </c>
-      <c r="W62" s="16" t="s">
+      <c r="W62" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="X62" s="16" t="s">
+      <c r="X62" s="14" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6770,7 +6893,7 @@
       <c r="H63" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="10">
         <v>7980008</v>
       </c>
       <c r="L63" s="3">
@@ -6788,7 +6911,7 @@
       <c r="V63" s="3">
         <v>1</v>
       </c>
-      <c r="X63" s="16" t="s">
+      <c r="X63" s="14" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6817,7 +6940,7 @@
       <c r="H64" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="10">
         <v>1310000</v>
       </c>
       <c r="L64" s="3">
@@ -6838,7 +6961,7 @@
       <c r="V64" s="3">
         <v>1</v>
       </c>
-      <c r="X64" s="16" t="s">
+      <c r="X64" s="14" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6891,10 +7014,10 @@
       <c r="V65" s="3">
         <v>1</v>
       </c>
-      <c r="W65" s="16" t="s">
+      <c r="W65" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="X65" s="16" t="s">
+      <c r="X65" s="14" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6929,7 +7052,7 @@
       <c r="J66" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="10">
         <v>4720359</v>
       </c>
       <c r="L66" s="3">
@@ -6953,10 +7076,10 @@
       <c r="V66" s="3">
         <v>1</v>
       </c>
-      <c r="W66" s="16" t="s">
+      <c r="W66" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="X66" s="16" t="s">
+      <c r="X66" s="14" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6985,7 +7108,7 @@
       <c r="H67" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67" s="10">
         <v>5030000</v>
       </c>
       <c r="L67" s="3">
@@ -7009,7 +7132,7 @@
       <c r="V67" s="3">
         <v>1</v>
       </c>
-      <c r="X67" s="16" t="s">
+      <c r="X67" s="14" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7062,10 +7185,10 @@
       <c r="V68" s="3">
         <v>1</v>
       </c>
-      <c r="W68" s="16" t="s">
+      <c r="W68" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="X68" s="16" t="s">
+      <c r="X68" s="14" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7097,7 +7220,7 @@
       <c r="I69" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K69" s="10">
         <v>4081375</v>
       </c>
       <c r="L69" s="3">
@@ -7118,10 +7241,10 @@
       <c r="V69" s="3">
         <v>1</v>
       </c>
-      <c r="W69" s="16" t="s">
+      <c r="W69" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="X69" s="16" t="s">
+      <c r="X69" s="14" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7153,7 +7276,7 @@
       <c r="I70" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70" s="10">
         <v>4160000</v>
       </c>
       <c r="L70" s="3">
@@ -7171,10 +7294,10 @@
       <c r="V70" s="3">
         <v>1</v>
       </c>
-      <c r="W70" s="16" t="s">
+      <c r="W70" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="X70" s="16" t="s">
+      <c r="X70" s="14" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7203,13 +7326,13 @@
       <c r="H71" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K71" s="10">
         <v>4190000</v>
       </c>
       <c r="L71" s="3">
         <v>-36.993802080677</v>
       </c>
-      <c r="M71" s="8">
+      <c r="M71" s="7">
         <v>-73.156231908435302</v>
       </c>
       <c r="N71" s="3">
@@ -7221,7 +7344,7 @@
       <c r="V71" s="3">
         <v>1</v>
       </c>
-      <c r="X71" s="16" t="s">
+      <c r="X71" s="14" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7256,7 +7379,7 @@
       <c r="J72" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="10">
         <v>1720700</v>
       </c>
       <c r="L72" s="3">
@@ -7283,10 +7406,10 @@
       <c r="V72" s="3">
         <v>1</v>
       </c>
-      <c r="W72" s="16" t="s">
+      <c r="W72" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="X72" s="16" t="s">
+      <c r="X72" s="14" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7321,7 +7444,7 @@
       <c r="J73" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73" s="10">
         <v>1720700</v>
       </c>
       <c r="L73" s="3">
@@ -7345,10 +7468,10 @@
       <c r="V73" s="3">
         <v>1</v>
       </c>
-      <c r="W73" s="16" t="s">
+      <c r="W73" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="X73" s="16" t="s">
+      <c r="X73" s="14" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7377,7 +7500,7 @@
       <c r="H74" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="10">
         <v>1720700</v>
       </c>
       <c r="L74" s="3">
@@ -7398,7 +7521,7 @@
       <c r="V74" s="3">
         <v>1</v>
       </c>
-      <c r="X74" s="16" t="s">
+      <c r="X74" s="14" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7430,7 +7553,7 @@
       <c r="I75" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="10">
         <v>5550451</v>
       </c>
       <c r="L75" s="3">
@@ -7454,10 +7577,10 @@
       <c r="V75" s="3">
         <v>1</v>
       </c>
-      <c r="W75" s="16" t="s">
+      <c r="W75" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="X75" s="16" t="s">
+      <c r="X75" s="14" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7486,7 +7609,7 @@
       <c r="H76" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K76" s="10">
         <v>5700808</v>
       </c>
       <c r="L76" s="3">
@@ -7504,7 +7627,7 @@
       <c r="V76" s="3">
         <v>1</v>
       </c>
-      <c r="X76" s="16" t="s">
+      <c r="X76" s="14" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7557,10 +7680,10 @@
       <c r="V77" s="3">
         <v>1</v>
       </c>
-      <c r="W77" s="16" t="s">
+      <c r="W77" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="X77" s="16" t="s">
+      <c r="X77" s="14" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7592,7 +7715,7 @@
       <c r="I78" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K78" s="10">
         <v>6160534</v>
       </c>
       <c r="L78" s="3">
@@ -7616,10 +7739,10 @@
       <c r="V78" s="3">
         <v>1</v>
       </c>
-      <c r="W78" s="16" t="s">
+      <c r="W78" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="X78" s="16" t="s">
+      <c r="X78" s="14" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7651,7 +7774,7 @@
       <c r="I79" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79" s="10">
         <v>2940640</v>
       </c>
       <c r="L79" s="3">
@@ -7672,10 +7795,10 @@
       <c r="V79" s="3">
         <v>1</v>
       </c>
-      <c r="W79" s="16" t="s">
+      <c r="W79" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="X79" s="16" t="s">
+      <c r="X79" s="14" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7704,7 +7827,7 @@
       <c r="H80" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K80" s="10">
         <v>1130000</v>
       </c>
       <c r="L80" s="3">
@@ -7728,10 +7851,10 @@
       <c r="V80" s="3">
         <v>1</v>
       </c>
-      <c r="W80" s="16" t="s">
+      <c r="W80" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="X80" s="16" t="s">
+      <c r="X80" s="14" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7763,7 +7886,7 @@
       <c r="I81" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K81" s="10">
         <v>2100000</v>
       </c>
       <c r="L81" s="3">
@@ -7787,10 +7910,10 @@
       <c r="V81" s="3">
         <v>1</v>
       </c>
-      <c r="W81" s="16" t="s">
+      <c r="W81" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="X81" s="16" t="s">
+      <c r="X81" s="14" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7843,10 +7966,10 @@
       <c r="V82" s="3">
         <v>1</v>
       </c>
-      <c r="W82" s="16" t="s">
+      <c r="W82" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="X82" s="16" t="s">
+      <c r="X82" s="14" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7893,7 +8016,7 @@
       <c r="V83" s="3">
         <v>1</v>
       </c>
-      <c r="X83" s="16" t="s">
+      <c r="X83" s="14" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7928,7 +8051,7 @@
       <c r="J84" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K84" s="10">
         <v>8940000</v>
       </c>
       <c r="L84" s="3">
@@ -7946,7 +8069,7 @@
       <c r="Q84" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="R84" s="9" t="s">
+      <c r="R84" s="3" t="s">
         <v>360</v>
       </c>
       <c r="S84" s="3" t="s">
@@ -7958,10 +8081,10 @@
       <c r="V84" s="3">
         <v>1</v>
       </c>
-      <c r="W84" s="16" t="s">
+      <c r="W84" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="X84" s="16" t="s">
+      <c r="X84" s="14" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7990,7 +8113,7 @@
       <c r="H85" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K85" s="10">
         <v>5700808</v>
       </c>
       <c r="L85" s="3">
@@ -8011,7 +8134,7 @@
       <c r="V85" s="3">
         <v>1</v>
       </c>
-      <c r="X85" s="16" t="s">
+      <c r="X85" s="14" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8046,7 +8169,7 @@
       <c r="J86" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K86" s="10">
         <v>2200</v>
       </c>
       <c r="L86" s="3">
@@ -8067,7 +8190,7 @@
       <c r="Q86" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="R86" s="9" t="s">
+      <c r="R86" s="3" t="s">
         <v>377</v>
       </c>
       <c r="S86" s="3" t="s">
@@ -8076,13 +8199,13 @@
       <c r="V86" s="3">
         <v>1</v>
       </c>
-      <c r="W86" s="16" t="s">
+      <c r="W86" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="X86" s="16" t="s">
+      <c r="X86" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="Y86" s="16" t="s">
+      <c r="Y86" s="14" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8114,7 +8237,7 @@
       <c r="I87" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="K87" s="12">
+      <c r="K87" s="10">
         <v>86000</v>
       </c>
       <c r="L87" s="3">
@@ -8135,7 +8258,7 @@
       <c r="Q87" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="R87" s="9" t="s">
+      <c r="R87" s="3" t="s">
         <v>380</v>
       </c>
       <c r="S87" s="3" t="s">
@@ -8144,13 +8267,13 @@
       <c r="V87" s="3">
         <v>1</v>
       </c>
-      <c r="W87" s="16" t="s">
+      <c r="W87" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="X87" s="16" t="s">
+      <c r="X87" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="Y87" s="16" t="s">
+      <c r="Y87" s="14" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8182,7 +8305,7 @@
       <c r="I88" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="K88" s="12">
+      <c r="K88" s="10">
         <v>91120</v>
       </c>
       <c r="L88" s="3">
@@ -8206,13 +8329,13 @@
       <c r="V88" s="3">
         <v>1</v>
       </c>
-      <c r="W88" s="16" t="s">
+      <c r="W88" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="X88" s="16" t="s">
+      <c r="X88" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="Y88" s="16" t="s">
+      <c r="Y88" s="14" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8244,7 +8367,7 @@
       <c r="I89" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="K89" s="12">
+      <c r="K89" s="10">
         <v>91120</v>
       </c>
       <c r="L89" s="3">
@@ -8268,13 +8391,13 @@
       <c r="V89" s="3">
         <v>1</v>
       </c>
-      <c r="W89" s="16" t="s">
+      <c r="W89" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="X89" s="16" t="s">
+      <c r="X89" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="Y89" s="16" t="s">
+      <c r="Y89" s="14" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8306,7 +8429,7 @@
       <c r="I90" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="K90" s="12">
+      <c r="K90" s="10">
         <v>63300</v>
       </c>
       <c r="L90" s="3">
@@ -8327,13 +8450,13 @@
       <c r="V90" s="3">
         <v>1</v>
       </c>
-      <c r="W90" s="16" t="s">
+      <c r="W90" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="X90" s="16" t="s">
+      <c r="X90" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="Y90" s="16" t="s">
+      <c r="Y90" s="14" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8368,7 +8491,7 @@
       <c r="J91" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="K91" s="12">
+      <c r="K91" s="10">
         <v>63800</v>
       </c>
       <c r="L91" s="3">
@@ -8389,13 +8512,13 @@
       <c r="V91" s="3">
         <v>1</v>
       </c>
-      <c r="W91" s="16" t="s">
+      <c r="W91" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="X91" s="16" t="s">
+      <c r="X91" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="Y91" s="16" t="s">
+      <c r="Y91" s="14" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8427,7 +8550,7 @@
       <c r="I92" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="K92" s="12">
+      <c r="K92" s="10">
         <v>18100</v>
       </c>
       <c r="L92" s="3">
@@ -8454,13 +8577,13 @@
       <c r="V92" s="3">
         <v>1</v>
       </c>
-      <c r="W92" s="16" t="s">
+      <c r="W92" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="X92" s="16" t="s">
+      <c r="X92" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="Y92" s="16" t="s">
+      <c r="Y92" s="14" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8495,7 +8618,7 @@
       <c r="J93" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="K93" s="12">
+      <c r="K93" s="10">
         <v>29700</v>
       </c>
       <c r="L93" s="3">
@@ -8513,13 +8636,13 @@
       <c r="V93" s="3">
         <v>1</v>
       </c>
-      <c r="W93" s="16" t="s">
+      <c r="W93" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="X93" s="16" t="s">
+      <c r="X93" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="Y93" s="16" t="s">
+      <c r="Y93" s="14" t="s">
         <v>417</v>
       </c>
     </row>
@@ -8554,7 +8677,7 @@
       <c r="J94" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="K94" s="12">
+      <c r="K94" s="10">
         <v>29100</v>
       </c>
       <c r="L94" s="3">
@@ -8578,13 +8701,13 @@
       <c r="V94" s="3">
         <v>1</v>
       </c>
-      <c r="W94" s="16" t="s">
+      <c r="W94" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="X94" s="16" t="s">
+      <c r="X94" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="Y94" s="16" t="s">
+      <c r="Y94" s="14" t="s">
         <v>425</v>
       </c>
     </row>
@@ -8616,7 +8739,7 @@
       <c r="I95" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K95" s="13" t="s">
+      <c r="K95" s="11" t="s">
         <v>433</v>
       </c>
       <c r="L95" s="3">
@@ -8637,13 +8760,13 @@
       <c r="V95" s="3">
         <v>1</v>
       </c>
-      <c r="W95" s="16" t="s">
+      <c r="W95" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="X95" s="16" t="s">
+      <c r="X95" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="Y95" s="16" t="s">
+      <c r="Y95" s="14" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8678,7 +8801,7 @@
       <c r="J96" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="K96" s="12">
+      <c r="K96" s="10">
         <v>29000</v>
       </c>
       <c r="L96" s="3">
@@ -8702,13 +8825,13 @@
       <c r="V96" s="3">
         <v>1</v>
       </c>
-      <c r="W96" s="16" t="s">
+      <c r="W96" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="X96" s="16" t="s">
+      <c r="X96" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="Y96" s="16" t="s">
+      <c r="Y96" s="14" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8743,7 +8866,7 @@
       <c r="J97" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="K97" s="12">
+      <c r="K97" s="10">
         <v>51370</v>
       </c>
       <c r="L97" s="3">
@@ -8764,10 +8887,10 @@
       <c r="V97" s="3">
         <v>1</v>
       </c>
-      <c r="X97" s="16" t="s">
+      <c r="X97" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="Y97" s="16" t="s">
+      <c r="Y97" s="14" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8802,7 +8925,7 @@
       <c r="J98" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="K98" s="12">
+      <c r="K98" s="10">
         <v>29730</v>
       </c>
       <c r="L98" s="3">
@@ -8826,13 +8949,13 @@
       <c r="V98" s="3">
         <v>1</v>
       </c>
-      <c r="W98" s="16" t="s">
+      <c r="W98" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="X98" s="16" t="s">
+      <c r="X98" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="Y98" s="16" t="s">
+      <c r="Y98" s="14" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8864,7 +8987,7 @@
       <c r="I99" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="K99" s="12">
+      <c r="K99" s="10">
         <v>62200</v>
       </c>
       <c r="L99" s="3">
@@ -8885,13 +9008,13 @@
       <c r="V99" s="3">
         <v>1</v>
       </c>
-      <c r="W99" s="16" t="s">
+      <c r="W99" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="X99" s="16" t="s">
+      <c r="X99" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="Y99" s="16" t="s">
+      <c r="Y99" s="14" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8926,7 +9049,7 @@
       <c r="J100" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="K100" s="12">
+      <c r="K100" s="10">
         <v>94600</v>
       </c>
       <c r="L100" s="3">
@@ -8947,10 +9070,10 @@
       <c r="V100" s="3">
         <v>1</v>
       </c>
-      <c r="W100" s="16" t="s">
+      <c r="W100" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="X100" s="16" t="s">
+      <c r="X100" s="14" t="s">
         <v>470</v>
       </c>
     </row>
@@ -8985,7 +9108,7 @@
       <c r="J101" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="K101" s="12">
+      <c r="K101" s="10">
         <v>93310</v>
       </c>
       <c r="L101" s="3">
@@ -9003,7 +9126,7 @@
       <c r="Q101" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="R101" s="9" t="s">
+      <c r="R101" s="3" t="s">
         <v>478</v>
       </c>
       <c r="S101" s="3" t="s">
@@ -9015,10 +9138,10 @@
       <c r="V101" s="3">
         <v>1</v>
       </c>
-      <c r="W101" s="16" t="s">
+      <c r="W101" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="X101" s="16" t="s">
+      <c r="X101" s="14" t="s">
         <v>475</v>
       </c>
     </row>
@@ -9065,7 +9188,7 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="Y102" s="16" t="s">
+      <c r="Y102" s="14" t="s">
         <v>482</v>
       </c>
     </row>
@@ -9097,7 +9220,7 @@
       <c r="I103" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K103" s="12">
+      <c r="K103" s="10">
         <v>8370136</v>
       </c>
       <c r="L103" s="3">
@@ -9121,75 +9244,74 @@
       <c r="V103" s="3">
         <v>1</v>
       </c>
-      <c r="W103" s="16" t="s">
+      <c r="W103" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="X103" s="16" t="s">
+      <c r="X103" s="14" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14">
+      <c r="A104" s="12">
         <v>103</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14" t="s">
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="L104" s="14">
+      <c r="L104" s="12">
         <v>36.753338499999998</v>
       </c>
-      <c r="M104" s="14">
+      <c r="M104" s="12">
         <v>3.0420946</v>
       </c>
-      <c r="N104" s="14">
+      <c r="N104" s="12">
         <v>2007</v>
       </c>
-      <c r="O104" s="14">
+      <c r="O104" s="12">
         <v>3</v>
       </c>
-      <c r="P104" s="14">
+      <c r="P104" s="12">
         <v>11</v>
       </c>
       <c r="Q104" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="14"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="14">
-        <v>1</v>
-      </c>
-      <c r="W104" s="15" t="s">
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12">
+        <v>1</v>
+      </c>
+      <c r="W104" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="X104" s="15" t="s">
+      <c r="X104" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="Y104" s="15" t="s">
+      <c r="Y104" s="13" t="s">
         <v>573</v>
       </c>
     </row>
@@ -9224,7 +9346,7 @@
       <c r="J105" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="K105" s="12" t="s">
+      <c r="K105" s="10" t="s">
         <v>580</v>
       </c>
       <c r="L105" s="3">
@@ -9259,7 +9381,7 @@
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="14">
+      <c r="A106" s="12">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -9286,7 +9408,7 @@
       <c r="I106" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="K106" s="12">
+      <c r="K106" s="10">
         <v>15828</v>
       </c>
       <c r="L106" s="3">
@@ -9348,7 +9470,7 @@
       <c r="J107" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="K107" s="12">
+      <c r="K107" s="10">
         <v>15811</v>
       </c>
       <c r="L107" s="3">
@@ -9501,7 +9623,7 @@
       <c r="J110" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="K110" s="12" t="s">
+      <c r="K110" s="10" t="s">
         <v>614</v>
       </c>
       <c r="L110" s="3">
@@ -9572,7 +9694,7 @@
       <c r="J111" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="K111" s="12" t="s">
+      <c r="K111" s="10" t="s">
         <v>625</v>
       </c>
       <c r="L111" s="3">
@@ -9637,7 +9759,7 @@
       <c r="H112" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="K112" s="12">
+      <c r="K112" s="10">
         <v>1900</v>
       </c>
       <c r="L112" s="3">
@@ -9796,6 +9918,289 @@
       </c>
       <c r="Y114" s="3" t="s">
         <v>651</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="K115" s="10">
+        <v>2163</v>
+      </c>
+      <c r="L115" s="3">
+        <v>-33.876966959649501</v>
+      </c>
+      <c r="M115" s="3">
+        <v>150.95999281748001</v>
+      </c>
+      <c r="N115" s="3">
+        <v>2003</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="V115" s="3">
+        <v>1</v>
+      </c>
+      <c r="X115" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y115" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="K116" s="10">
+        <v>1110</v>
+      </c>
+      <c r="L116" s="3">
+        <v>48.16151</v>
+      </c>
+      <c r="M116" s="3">
+        <v>16.426210000000001</v>
+      </c>
+      <c r="N116" s="3">
+        <v>1965</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="V116" s="3">
+        <v>1</v>
+      </c>
+      <c r="W116" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y116" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K117" s="10">
+        <v>1220</v>
+      </c>
+      <c r="L117" s="3">
+        <v>48.237319999999997</v>
+      </c>
+      <c r="M117" s="3">
+        <v>16.411190000000001</v>
+      </c>
+      <c r="N117" s="3">
+        <v>2005</v>
+      </c>
+      <c r="Q117" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="V117" s="3">
+        <v>1</v>
+      </c>
+      <c r="W117" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y117" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="K118" s="10">
+        <v>4030</v>
+      </c>
+      <c r="L118" s="3">
+        <v>48.250769252574003</v>
+      </c>
+      <c r="M118" s="3">
+        <v>14.3118981181054</v>
+      </c>
+      <c r="N118" s="3">
+        <v>2009</v>
+      </c>
+      <c r="O118" s="3">
+        <v>5</v>
+      </c>
+      <c r="P118" s="3">
+        <v>29</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="V118" s="3">
+        <v>1</v>
+      </c>
+      <c r="W118" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="X118" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y118" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K119" s="10">
+        <v>1220</v>
+      </c>
+      <c r="L119" s="3">
+        <v>48.237319999999997</v>
+      </c>
+      <c r="M119" s="3">
+        <v>16.411190000000001</v>
+      </c>
+      <c r="N119" s="3">
+        <v>2005</v>
+      </c>
+      <c r="Q119" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="R119" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="S119" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="V119" s="3">
+        <v>1</v>
+      </c>
+      <c r="W119" s="3" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
+++ b/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1578" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76AB5A1D-4637-4DA6-8AA9-E3B1495A5301}"/>
+  <xr:revisionPtr revIDLastSave="1605" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BEF3A34-5829-4D05-B313-B161C81218EB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="allende" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="748">
   <si>
     <t>id</t>
   </si>
@@ -2204,6 +2204,185 @@
   </si>
   <si>
     <t>https://www.openstreetmap.org/way/758217539</t>
+  </si>
+  <si>
+    <t>Salvador Allende street</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>Dobrinja</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/59-sarajevo-bosnia-herzegovina</t>
+  </si>
+  <si>
+    <t>Villa Salvador Allende</t>
+  </si>
+  <si>
+    <t>La Pintana</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/NbqWJV69Cbu8h53k6</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/9728569027</t>
+  </si>
+  <si>
+    <t>Praça Salvador Allende</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>Centro Histórico</t>
+  </si>
+  <si>
+    <t>90050-200</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Porto Alegre
+Secretaria Municipal do Meio Ambiente
+Praça Salvador Allende 
+Presidente chileno. Herói das Américas
+2013</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/305752671</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/4FGZmC5aXyT4RUSc9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2013/06/24/597-porto-alegre-brasil</t>
+  </si>
+  <si>
+    <t>Monumento al presidente Salvador Allende en Brasilia</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Salvador Allende
+Tenho fé no Chile e no seu destino, sigam vocês sabendo que, muito mais cedo do que tarde, abrir-se-âo as grandes alamedas por onde passe o homem livre, para construir uma sociedade melhor.
+(Presidente Allende, 11 de setembro 1973)</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/12/12/550-brasilia-brasil</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>22783-020</t>
+  </si>
+  <si>
+    <t>Avenida Salvador Allende
+(1908 - 1973) Médico, fundador do Partido Socialista, presidente do Chile (1970-1973).</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/426694183</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/fakGRb84JRo2jQj8A</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/07/29/499-rio-de-janeiro-brasil</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Sacomã</t>
+  </si>
+  <si>
+    <t>Vila das Mercês</t>
+  </si>
+  <si>
+    <t>04165-000</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/292191474</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/oCKr4cgZmgq7mkCQ6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/12/08/291-sao-paulo-brasil</t>
+  </si>
+  <si>
+    <t>Salvador Allende Bus Station</t>
+  </si>
+  <si>
+    <t>public transport station</t>
+  </si>
+  <si>
+    <t>Recreio dos Bandeirantes</t>
+  </si>
+  <si>
+    <t>Avenida das Américas</t>
+  </si>
+  <si>
+    <t>22790-710</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/276421960</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/hfjxEk8grbHLu8239</t>
+  </si>
+  <si>
+    <t>бул. „Андрей Сахаров“ / Boulevard "Andrej Sakharov"</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Sofia City Province</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Mladost</t>
+  </si>
+  <si>
+    <t>Mladost 1</t>
+  </si>
+  <si>
+    <t>Salvador Allende, 1908-1973, hijo ilustre del pueblo chileno
+Entregó su vida por la causa de la paz, la democracia y el progreso socialista</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>бул. „Салвадор Алиенде“ / Boulevard "Salvador Allende"</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/69596345</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/LfxjeoGtcJmf8gm16</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/10/02/110-sofia-bulgaria</t>
   </si>
 </sst>
 </file>
@@ -2534,13 +2713,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO119"/>
+  <dimension ref="A1:AO127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10203,8 +10382,450 @@
         <v>690</v>
       </c>
     </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="N120" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O120" s="3">
+        <v>2</v>
+      </c>
+      <c r="P120" s="3">
+        <v>18</v>
+      </c>
+      <c r="V120" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="K121" s="10">
+        <v>8010000</v>
+      </c>
+      <c r="L121" s="3">
+        <v>-33.580694899999997</v>
+      </c>
+      <c r="M121" s="3">
+        <v>-70.646144500000005</v>
+      </c>
+      <c r="N121" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O121" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q121" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V121" s="3">
+        <v>1</v>
+      </c>
+      <c r="W121" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="X121" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="L122" s="3">
+        <v>-30.034959675270098</v>
+      </c>
+      <c r="M122" s="3">
+        <v>-51.223894258388903</v>
+      </c>
+      <c r="N122" s="3">
+        <v>2004</v>
+      </c>
+      <c r="O122" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q122" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R122" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="S122" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="V122" s="3">
+        <v>1</v>
+      </c>
+      <c r="W122" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="X122" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y122" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="N123" s="3">
+        <v>2008</v>
+      </c>
+      <c r="Q123" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R123" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="S123" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="V123" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="L124" s="3">
+        <v>-22.985492037936801</v>
+      </c>
+      <c r="M124" s="3">
+        <v>-43.413389967982098</v>
+      </c>
+      <c r="N124" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O124" s="3">
+        <v>2</v>
+      </c>
+      <c r="P124" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q124" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R124" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="V124" s="3">
+        <v>1</v>
+      </c>
+      <c r="W124" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="X124" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y124" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="L125" s="3">
+        <v>-23.618749999999999</v>
+      </c>
+      <c r="M125" s="3">
+        <v>-46.610177</v>
+      </c>
+      <c r="N125" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O125" s="3">
+        <v>2</v>
+      </c>
+      <c r="P125" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q125" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="V125" s="3">
+        <v>1</v>
+      </c>
+      <c r="W125" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="X125" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y125" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="L126" s="3">
+        <v>-23.0082369008645</v>
+      </c>
+      <c r="M126" s="3">
+        <v>-43.442585473568698</v>
+      </c>
+      <c r="N126" s="3">
+        <v>2014</v>
+      </c>
+      <c r="O126" s="3">
+        <v>4</v>
+      </c>
+      <c r="P126" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q126" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="V126" s="3">
+        <v>1</v>
+      </c>
+      <c r="W126" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="X126" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="K127" s="10">
+        <v>1729</v>
+      </c>
+      <c r="L127" s="3">
+        <v>42.652000000000001</v>
+      </c>
+      <c r="M127" s="3">
+        <v>23.37491</v>
+      </c>
+      <c r="N127" s="3">
+        <v>1977</v>
+      </c>
+      <c r="Q127" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="U127" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="V127" s="3">
+        <v>1</v>
+      </c>
+      <c r="W127" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="X127" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y127" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:AO107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AO127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
+++ b/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1605" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BEF3A34-5829-4D05-B313-B161C81218EB}"/>
+  <xr:revisionPtr revIDLastSave="1638" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34EA4910-C6DE-4A8A-A3B3-BA87244E3EFE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allende" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="886">
   <si>
     <t>id</t>
   </si>
@@ -651,9 +651,6 @@
     <t>Población Salvador Allende</t>
   </si>
   <si>
-    <t>neighborhood</t>
-  </si>
-  <si>
     <t>Machalí</t>
   </si>
   <si>
@@ -2383,6 +2380,456 @@
   </si>
   <si>
     <t>http://www.abacq.org/calle/index.php?2007/10/02/110-sofia-bulgaria</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Quindío</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Perímetro Urbano Armenia</t>
+  </si>
+  <si>
+    <t>Comuna Quimbaya</t>
+  </si>
+  <si>
+    <t>632001</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/3407894153</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/04/07/169-armenia-colombia</t>
+  </si>
+  <si>
+    <t>Liceo Moderno Salvador Allende</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/07/06/77-bogota-colombia</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Revolution Square</t>
+  </si>
+  <si>
+    <t>Vedado</t>
+  </si>
+  <si>
+    <t>Avenida de los Presidentes (Calle G)</t>
+  </si>
+  <si>
+    <t>10428</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/2936012301</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/7P3o87b36satSrmS7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/07/17/90-monumento-a-salvador-allende-cuba</t>
+  </si>
+  <si>
+    <t>Hospital Docente Clínico Quirúrgico "Dr. Salvador Allende"</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>Calzada del Cerro</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/38658701</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/7jcTo9ireepx7Q9aA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/02/10/318-la-habana-cuba</t>
+  </si>
+  <si>
+    <t>Escuela primaria Salvador Allende</t>
+  </si>
+  <si>
+    <t>Palatino</t>
+  </si>
+  <si>
+    <t>Daoiz</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/438885360</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/07/06/76-la-habana-cuba</t>
+  </si>
+  <si>
+    <t>Centro Habana</t>
+  </si>
+  <si>
+    <t>Los Sitios</t>
+  </si>
+  <si>
+    <t>Avenida Carlos III</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/23860167</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/CfjwCeYfvvFJM6jg9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/08/23/530-la-habana-cuba</t>
+  </si>
+  <si>
+    <t>Casa Memorial Salvador Allende</t>
+  </si>
+  <si>
+    <t>Calle 13</t>
+  </si>
+  <si>
+    <t>A los hijos de la tierra de O'Higgins, fallecidos en la tierra de Martí.
+A las valiosas vidas brotadas en Chile y culminadas en Cuba, con quienes compartimos el amor por la revolución y la esperanza de ver a nuestro Chile liberado. Su memoria, banderas y anhelos, los recogemos hoy sus compatriotas y compañeros de exilio.
+11 de septiembre de 1989</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/09/16/97-la-casa-memorial-salvador-allende-cuba</t>
+  </si>
+  <si>
+    <t>Ciego de Ávila</t>
+  </si>
+  <si>
+    <t>Ciudad de Ciego de Ávila</t>
+  </si>
+  <si>
+    <t>Reparto Rivas Fraga</t>
+  </si>
+  <si>
+    <t>Barrio Ciudad Central</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/255352862</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/YrjQahnWjrj3GxgG9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/10/01/272-ciego-de-avila-cuba</t>
+  </si>
+  <si>
+    <t>Busto del presidente Salvador Allende</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>Facultad de Cultura Física</t>
+  </si>
+  <si>
+    <t>Plaza América</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/07/11/229-santiago-de-cuba-cuba</t>
+  </si>
+  <si>
+    <t>residential area</t>
+  </si>
+  <si>
+    <t>Busto a Salvador Allende en la Facultad de Economía, Universidad Central del Ecuador, Quito</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Pichincha</t>
+  </si>
+  <si>
+    <t>Quito Canton</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Belisario Quevedo</t>
+  </si>
+  <si>
+    <t>Avenida Universitaria</t>
+  </si>
+  <si>
+    <t>Salvador Allende G. 
+1908 - 1973
+Presidente Constitucional de la República de Chile
+ADHU - America
+Quito Septiembre 1993
+"Ser joven y no ser revolucionario es una contradicción hasta biológica"</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/31960336</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/M6nEE3kkeyNdRX5c8</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2012/09/15/592-quito-ecuador</t>
+  </si>
+  <si>
+    <t>Solanda</t>
+  </si>
+  <si>
+    <t>Mercado Mayorista</t>
+  </si>
+  <si>
+    <t>Plaza Salvador Allende G.
+Presidente constitucional de Chile 
+1970 - 1973
+"Son los pueblos, todos los pueblos al Sur del río Bravo, los que se yerguen para decir ¡Basta! basta a la dependencia, basta a las presiones, basta a las intervenciones para afirmar el derecho de todos los países al desarrollo."
+Discurso ante las Naciones Unidas. Diciembre 1972</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/04/22/342-quito-ecuador</t>
+  </si>
+  <si>
+    <t>Manabí</t>
+  </si>
+  <si>
+    <t>Portoviejo</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/40526661</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/H6ChkKtdiBL76VdUA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/25-ecuador</t>
+  </si>
+  <si>
+    <t>Ciudadela Salvador Allende</t>
+  </si>
+  <si>
+    <t>Guayas</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Tarqui</t>
+  </si>
+  <si>
+    <t>Orellana</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/639580748</t>
+  </si>
+  <si>
+    <t>Quitumbe</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/27713309</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/EyAQj2q7mWjCey4w6</t>
+  </si>
+  <si>
+    <t>Conocoto</t>
+  </si>
+  <si>
+    <t>Urbanización Ciudad de Quito</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/27625378</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/H7CH6dvw78FAzq978</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/24898506</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/wgHGCPnDYXvogmKY8</t>
+  </si>
+  <si>
+    <t>Allendeho</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Eastern Slovakia</t>
+  </si>
+  <si>
+    <t>Region of Prešov</t>
+  </si>
+  <si>
+    <t>District of Poprad</t>
+  </si>
+  <si>
+    <t>Poprad</t>
+  </si>
+  <si>
+    <t>Matejovce</t>
+  </si>
+  <si>
+    <t>059 51</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/887013190</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/SeQwvUVnGCvCpgt3A</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/05/22/352-poprad-eslovaquia</t>
+  </si>
+  <si>
+    <t>Salvador Allende memorial tree and plate</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Rideau-Vanier</t>
+  </si>
+  <si>
+    <t>Sandy Hill</t>
+  </si>
+  <si>
+    <t>Strathcona Park</t>
+  </si>
+  <si>
+    <t>K1N 8J3</t>
+  </si>
+  <si>
+    <t>President of Chile
+Salvador Allende Gossens 
+1908 - 1973
+At his centennial
+Chilean Popular Unity Ottawa - Gatineau
+Montréal, Toronto
+June 26, 2008</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/Q4ruvPyrtX8H5giU9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/10/20/502-ottawa-canada</t>
+  </si>
+  <si>
+    <t>L'Arc</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Ville-Marie</t>
+  </si>
+  <si>
+    <t>Île Notre-Dame</t>
+  </si>
+  <si>
+    <t>Parc Jean-Drapeau</t>
+  </si>
+  <si>
+    <t>H3C 4W7</t>
+  </si>
+  <si>
+    <t>Hommage à Salvador Allende (1908-1973)
+Médecin et homme politique, Salvador Allende est président du Chili de 1970 à 1973. Son mandat se termine brutalement le 11 septembre 1973: un coup d’État dirigé par Augusto Pinochet renverse le gouvernement socialiste et instaure une dictature militaire de 17 ans. L’œuvre se veut un rappel des valeurs humanitaires et démocratiques défendues par Allende. L’arbre, par son double enracinement, jette un pont entre le pays d’origine et Montréal comme terre d’accueil de la communauté chilienne.
+L'histoire nous appartient et ce sont les peuples qui la font.
+Salvador Allende
+Extrait de son dernier discours,
+Radio Magallanes, 11 septembre 1973
+Collection municipale d’art public
+Titre: L’arc
+Artiste: Michel de Broin
+Matériaux: Béton à ultra-haute performance, acier inoxydable
+Fabrication: Design m3béton inc.
+Collaboration: Véronique Ducharmes, Louis Dumontier, Jean-Pierre Thonney
+Installation: 2009
+Acquisition: Commande publique de la Ville de Montréal, avec l’appui financier des membres des organismes chiliens de Montréal et de la fondation Salvador Allende de Montréal
+Emplacement: Île Notre-Dame, parc Jean-Drapeau, Arrondissement de Ville-Marie 
+www: ville.montreal.qc.ca/artpublic
+Information in English is available on the above Web site.</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/4320293899</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/tLr4TQEHP2Gwuw2KA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/09/14/404-montreal-canada</t>
+  </si>
+  <si>
+    <t>Parc Salvador-Allende</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Sainte-Dorothée</t>
+  </si>
+  <si>
+    <t>H7Y 2J3</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/431692174</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/B95s6Fe7qUYhubVr9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/09/21/271-laval-canada</t>
+  </si>
+  <si>
+    <t>Rue Salvador-Allende</t>
+  </si>
+  <si>
+    <t>H7R 3X7</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/52489524</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/fueFT2YFWqVNqzTF9</t>
   </si>
 </sst>
 </file>
@@ -2713,13 +3160,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO127"/>
+  <dimension ref="A1:AO148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2754,22 +3201,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -2778,40 +3225,40 @@
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -2856,7 +3303,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="9">
@@ -2878,7 +3325,7 @@
         <v>19</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -2893,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y2" s="14" t="s">
         <v>164</v>
@@ -2959,10 +3406,10 @@
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>21</v>
@@ -3038,10 +3485,10 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>21</v>
@@ -3117,7 +3564,7 @@
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -3196,7 +3643,7 @@
         <v>26</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>38</v>
@@ -3279,7 +3726,7 @@
         <v>26</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -3294,7 +3741,7 @@
         <v>45</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y7" s="5" t="s">
         <v>46</v>
@@ -3358,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>159</v>
@@ -3421,7 +3868,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="9"/>
@@ -3441,7 +3888,7 @@
         <v>4</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="6"/>
@@ -3454,7 +3901,7 @@
         <v>53</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>54</v>
@@ -3502,7 +3949,7 @@
         <v>56</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="9"/>
@@ -3522,7 +3969,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="6"/>
@@ -3583,7 +4030,7 @@
         <v>62</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="9">
@@ -3605,7 +4052,7 @@
         <v>26</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="6"/>
@@ -3686,7 +4133,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="6"/>
@@ -3701,7 +4148,7 @@
         <v>69</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y12" s="5" t="s">
         <v>70</v>
@@ -3769,7 +4216,7 @@
         <v>28</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="6"/>
@@ -3826,7 +4273,7 @@
         <v>75</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="9">
@@ -3848,7 +4295,7 @@
         <v>29</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="6"/>
@@ -3861,7 +4308,7 @@
         <v>76</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>77</v>
@@ -3925,7 +4372,7 @@
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>160</v>
@@ -3988,7 +4435,7 @@
         <v>81</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="9">
@@ -4008,7 +4455,7 @@
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="6"/>
@@ -4023,7 +4470,7 @@
         <v>85</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -4083,7 +4530,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="6"/>
@@ -4164,7 +4611,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="6"/>
@@ -4223,10 +4670,10 @@
         <v>31</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="4">
@@ -4243,7 +4690,7 @@
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>161</v>
@@ -4328,7 +4775,7 @@
         <v>28</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="6"/>
@@ -4341,7 +4788,7 @@
         <v>101</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>102</v>
@@ -4409,7 +4856,7 @@
         <v>26</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="6"/>
@@ -4472,10 +4919,10 @@
         <v>51</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="4">
@@ -4494,7 +4941,7 @@
         <v>26</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>158</v>
@@ -4559,7 +5006,7 @@
         <v>116</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="9">
@@ -4581,7 +5028,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>117</v>
@@ -4648,7 +5095,7 @@
         <v>123</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="9">
@@ -4670,7 +5117,7 @@
         <v>15</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="6"/>
@@ -4742,7 +5189,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="6"/>
@@ -4823,10 +5270,10 @@
         <v>1</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>21</v>
@@ -4900,10 +5347,10 @@
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S27" s="4" t="s">
         <v>21</v>
@@ -4965,7 +5412,7 @@
         <v>144</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="9">
@@ -4987,7 +5434,7 @@
         <v>9</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="6"/>
@@ -5000,7 +5447,7 @@
         <v>145</v>
       </c>
       <c r="X28" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y28" s="15" t="s">
         <v>146</v>
@@ -5048,10 +5495,10 @@
         <v>115</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="K29" s="9">
         <v>3461761</v>
@@ -5070,7 +5517,7 @@
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="6"/>
@@ -5087,7 +5534,7 @@
         <v>162</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y29" s="15" t="s">
         <v>163</v>
@@ -5135,7 +5582,7 @@
         <v>147</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K30" s="10">
         <v>9140110</v>
@@ -5156,7 +5603,7 @@
         <v>21</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V30" s="3">
         <v>1</v>
@@ -5165,7 +5612,7 @@
         <v>152</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y30" s="14" t="s">
         <v>151</v>
@@ -5215,7 +5662,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V31" s="3">
         <v>1</v>
@@ -5224,7 +5671,7 @@
         <v>153</v>
       </c>
       <c r="X31" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y31" s="14" t="s">
         <v>151</v>
@@ -5256,7 +5703,7 @@
         <v>149</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K32" s="10">
         <v>9090184</v>
@@ -5277,7 +5724,7 @@
         <v>21</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V32" s="3">
         <v>1</v>
@@ -5286,7 +5733,7 @@
         <v>154</v>
       </c>
       <c r="X32" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y32" s="14" t="s">
         <v>151</v>
@@ -5312,13 +5759,13 @@
         <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>150</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K33" s="10">
         <v>8150000</v>
@@ -5339,7 +5786,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V33" s="3">
         <v>1</v>
@@ -5348,7 +5795,7 @@
         <v>155</v>
       </c>
       <c r="X33" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y33" s="14" t="s">
         <v>151</v>
@@ -5398,7 +5845,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V34" s="3">
         <v>1</v>
@@ -5407,7 +5854,7 @@
         <v>156</v>
       </c>
       <c r="X34" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y34" s="14" t="s">
         <v>151</v>
@@ -5439,7 +5886,7 @@
         <v>165</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L35" s="3">
         <v>-25.398264530651701</v>
@@ -5457,7 +5904,7 @@
         <v>8</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>166</v>
@@ -5469,7 +5916,7 @@
         <v>168</v>
       </c>
       <c r="X35" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y35" s="14" t="s">
         <v>167</v>
@@ -5504,7 +5951,7 @@
         <v>171</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K36" s="10">
         <v>1790437</v>
@@ -5525,7 +5972,7 @@
         <v>8</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V36" s="3">
         <v>1</v>
@@ -5534,7 +5981,7 @@
         <v>172</v>
       </c>
       <c r="X36" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y36" s="14" t="s">
         <v>167</v>
@@ -5566,10 +6013,10 @@
         <v>175</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="L37" s="3">
         <v>-33.187467887892403</v>
@@ -5587,7 +6034,7 @@
         <v>8</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V37" s="3">
         <v>1</v>
@@ -5596,7 +6043,7 @@
         <v>176</v>
       </c>
       <c r="X37" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y37" s="14" t="s">
         <v>167</v>
@@ -5649,7 +6096,7 @@
         <v>8</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V38" s="3">
         <v>1</v>
@@ -5702,7 +6149,7 @@
         <v>2008</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>183</v>
@@ -5758,7 +6205,7 @@
         <v>2008</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>189</v>
@@ -5802,10 +6249,10 @@
         <v>190</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="K41" s="10">
         <v>7870154</v>
@@ -5826,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V41" s="3">
         <v>1</v>
@@ -5867,7 +6314,7 @@
         <v>37</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K42" s="10">
         <v>8940000</v>
@@ -5888,7 +6335,7 @@
         <v>8</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V42" s="3">
         <v>1</v>
@@ -5897,7 +6344,7 @@
         <v>194</v>
       </c>
       <c r="X42" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y42" s="14" t="s">
         <v>167</v>
@@ -5911,7 +6358,7 @@
         <v>195</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>196</v>
+        <v>803</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>55</v>
@@ -5926,7 +6373,7 @@
         <v>80</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K43" s="10">
         <v>2910036</v>
@@ -5947,13 +6394,13 @@
         <v>8</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V43" s="3">
         <v>1</v>
       </c>
       <c r="W43" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y43" s="14" t="s">
         <v>167</v>
@@ -5964,7 +6411,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
@@ -5982,7 +6429,7 @@
         <v>80</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K44" s="10">
         <v>2910036</v>
@@ -6000,13 +6447,13 @@
         <v>4</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V44" s="3">
         <v>1</v>
       </c>
       <c r="X44" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6014,10 +6461,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>196</v>
+        <v>803</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>55</v>
@@ -6032,7 +6479,7 @@
         <v>134</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L45" s="3">
         <v>-34.658200000000001</v>
@@ -6050,13 +6497,13 @@
         <v>8</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V45" s="3">
         <v>1</v>
       </c>
       <c r="W45" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y45" s="14" t="s">
         <v>167</v>
@@ -6067,7 +6514,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
@@ -6082,13 +6529,13 @@
         <v>18</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="I46" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K46" s="10">
         <v>4370786</v>
@@ -6109,16 +6556,16 @@
         <v>8</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V46" s="3">
         <v>1</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y46" s="14" t="s">
         <v>167</v>
@@ -6129,10 +6576,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -6144,13 +6591,13 @@
         <v>18</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="I47" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K47" s="10">
         <v>4370786</v>
@@ -6171,16 +6618,16 @@
         <v>10</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V47" s="3">
         <v>1</v>
       </c>
       <c r="W47" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="X47" s="14" t="s">
         <v>210</v>
-      </c>
-      <c r="X47" s="14" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6200,16 +6647,16 @@
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="I48" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K48" s="10">
         <v>6200537</v>
@@ -6230,19 +6677,19 @@
         <v>8</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V48" s="3">
         <v>1</v>
       </c>
       <c r="W48" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X48" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y48" s="14" t="s">
         <v>167</v>
@@ -6253,10 +6700,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -6271,13 +6718,13 @@
         <v>51</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I49" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="K49" s="10">
         <v>2540114</v>
@@ -6298,16 +6745,16 @@
         <v>8</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V49" s="3">
         <v>1</v>
       </c>
       <c r="W49" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="X49" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="X49" s="14" t="s">
-        <v>220</v>
       </c>
       <c r="Y49" s="14" t="s">
         <v>167</v>
@@ -6318,7 +6765,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -6333,7 +6780,7 @@
         <v>51</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K50" s="10">
         <v>2580253</v>
@@ -6348,13 +6795,13 @@
         <v>2015</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V50" s="3">
         <v>0</v>
       </c>
       <c r="X50" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6377,10 +6824,10 @@
         <v>30</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K51" s="10">
         <v>9670000</v>
@@ -6398,16 +6845,16 @@
         <v>5</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V51" s="3">
         <v>1</v>
       </c>
       <c r="W51" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X51" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6415,10 +6862,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>55</v>
@@ -6454,13 +6901,13 @@
         <v>8</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V52" s="3">
         <v>1</v>
       </c>
       <c r="X52" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y52" s="14" t="s">
         <v>167</v>
@@ -6471,10 +6918,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>55</v>
@@ -6489,13 +6936,13 @@
         <v>31</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I53" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="K53" s="10">
         <v>8010000</v>
@@ -6516,16 +6963,16 @@
         <v>11</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V53" s="3">
         <v>1</v>
       </c>
       <c r="W53" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X53" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6548,16 +6995,16 @@
         <v>30</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="I54" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="L54" s="3">
         <v>-33.713178508031604</v>
@@ -6575,16 +7022,16 @@
         <v>14</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V54" s="3">
         <v>1</v>
       </c>
       <c r="W54" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X54" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6592,7 +7039,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>8</v>
@@ -6607,10 +7054,10 @@
         <v>30</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="L55" s="3">
         <v>-33.706864166440397</v>
@@ -6625,13 +7072,13 @@
         <v>12</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V55" s="3">
         <v>1</v>
       </c>
       <c r="X55" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6657,13 +7104,13 @@
         <v>129</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="K56" s="10">
         <v>1930000</v>
@@ -6681,16 +7128,16 @@
         <v>12</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V56" s="3">
         <v>1</v>
       </c>
       <c r="W56" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X56" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6698,31 +7145,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="J57" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K57" s="10">
         <v>97419</v>
@@ -6743,19 +7190,19 @@
         <v>8</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T57" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1</v>
+      </c>
+      <c r="W57" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="V57" s="3">
-        <v>1</v>
-      </c>
-      <c r="W57" s="14" t="s">
-        <v>265</v>
-      </c>
       <c r="X57" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6799,13 +7246,13 @@
         <v>2</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V58" s="3">
         <v>1</v>
       </c>
       <c r="X58" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6813,7 +7260,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>8</v>
@@ -6822,19 +7269,19 @@
         <v>55</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="K59" s="10">
         <v>97300</v>
@@ -6855,16 +7302,16 @@
         <v>12</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V59" s="3">
         <v>1</v>
       </c>
       <c r="W59" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="X59" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="X59" s="14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6872,7 +7319,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>8</v>
@@ -6887,13 +7334,13 @@
         <v>30</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K60" s="10">
         <v>8012117</v>
@@ -6911,16 +7358,16 @@
         <v>8</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V60" s="3">
         <v>1</v>
       </c>
       <c r="W60" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X60" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6928,7 +7375,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>61</v>
@@ -6946,10 +7393,10 @@
         <v>31</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K61" s="10">
         <v>9020078</v>
@@ -6970,10 +7417,10 @@
         <v>23</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S61" s="3" t="s">
         <v>21</v>
@@ -6982,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="W61" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="X61" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="X61" s="14" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6993,7 +7440,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>61</v>
@@ -7011,13 +7458,13 @@
         <v>31</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I62" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="K62" s="10">
         <v>8700000</v>
@@ -7035,16 +7482,16 @@
         <v>5</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V62" s="3">
         <v>1</v>
       </c>
       <c r="W62" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="X62" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="X62" s="14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7052,7 +7499,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>61</v>
@@ -7070,7 +7517,7 @@
         <v>31</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K63" s="10">
         <v>7980008</v>
@@ -7085,13 +7532,13 @@
         <v>2014</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V63" s="3">
         <v>1</v>
       </c>
       <c r="X63" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7099,7 +7546,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
@@ -7117,7 +7564,7 @@
         <v>67</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K64" s="10">
         <v>1310000</v>
@@ -7135,13 +7582,13 @@
         <v>7</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V64" s="3">
         <v>1</v>
       </c>
       <c r="X64" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7149,7 +7596,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>8</v>
@@ -7161,16 +7608,16 @@
         <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="I65" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L65" s="3">
         <v>-38.733962241319396</v>
@@ -7185,19 +7632,19 @@
         <v>3</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U65" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="V65" s="3">
+        <v>1</v>
+      </c>
+      <c r="W65" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="X65" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="V65" s="3">
-        <v>1</v>
-      </c>
-      <c r="W65" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="X65" s="14" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7217,19 +7664,19 @@
         <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="I66" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="K66" s="10">
         <v>4720359</v>
@@ -7250,16 +7697,16 @@
         <v>16</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V66" s="3">
         <v>1</v>
       </c>
       <c r="W66" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X66" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7267,7 +7714,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>8</v>
@@ -7279,13 +7726,13 @@
         <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K67" s="10">
         <v>5030000</v>
@@ -7306,13 +7753,13 @@
         <v>27</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V67" s="3">
         <v>1</v>
       </c>
       <c r="X67" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7335,13 +7782,13 @@
         <v>18</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L68" s="3">
         <v>-37.596467640336897</v>
@@ -7359,16 +7806,16 @@
         <v>2</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V68" s="3">
         <v>1</v>
       </c>
       <c r="W68" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X68" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7376,7 +7823,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>8</v>
@@ -7397,7 +7844,7 @@
         <v>19</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K69" s="10">
         <v>4081375</v>
@@ -7415,16 +7862,16 @@
         <v>1</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V69" s="3">
         <v>1</v>
       </c>
       <c r="W69" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X69" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7450,10 +7897,10 @@
         <v>19</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K70" s="10">
         <v>4160000</v>
@@ -7468,16 +7915,16 @@
         <v>2016</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V70" s="3">
         <v>1</v>
       </c>
       <c r="W70" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X70" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7503,7 +7950,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K71" s="10">
         <v>4190000</v>
@@ -7518,13 +7965,13 @@
         <v>2022</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V71" s="3">
         <v>1</v>
       </c>
       <c r="X71" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7553,10 +8000,10 @@
         <v>128</v>
       </c>
       <c r="I72" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="K72" s="10">
         <v>1720700</v>
@@ -7577,19 +8024,19 @@
         <v>14</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U72" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="V72" s="3">
+        <v>1</v>
+      </c>
+      <c r="W72" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="X72" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="V72" s="3">
-        <v>1</v>
-      </c>
-      <c r="W72" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="X72" s="14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7597,7 +8044,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>8</v>
@@ -7618,10 +8065,10 @@
         <v>128</v>
       </c>
       <c r="I73" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="K73" s="10">
         <v>1720700</v>
@@ -7642,16 +8089,16 @@
         <v>14</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V73" s="3">
         <v>1</v>
       </c>
       <c r="W73" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X73" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7659,7 +8106,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>8</v>
@@ -7677,7 +8124,7 @@
         <v>170</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K74" s="10">
         <v>1720700</v>
@@ -7695,13 +8142,13 @@
         <v>10</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V74" s="3">
         <v>1</v>
       </c>
       <c r="X74" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7727,10 +8174,10 @@
         <v>74</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K75" s="10">
         <v>5550451</v>
@@ -7751,16 +8198,16 @@
         <v>8</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V75" s="3">
         <v>1</v>
       </c>
       <c r="W75" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X75" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7768,7 +8215,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>8</v>
@@ -7786,7 +8233,7 @@
         <v>12</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K76" s="10">
         <v>5700808</v>
@@ -7801,13 +8248,13 @@
         <v>2013</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V76" s="3">
         <v>1</v>
       </c>
       <c r="X76" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7827,19 +8274,19 @@
         <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="I77" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="L77" s="3">
         <v>-39.6431644719502</v>
@@ -7854,16 +8301,16 @@
         <v>3</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V77" s="3">
         <v>1</v>
       </c>
       <c r="W77" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X77" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7883,16 +8330,16 @@
         <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G78" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="I78" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K78" s="10">
         <v>6160534</v>
@@ -7913,16 +8360,16 @@
         <v>16</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V78" s="3">
         <v>1</v>
       </c>
       <c r="W78" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X78" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7930,7 +8377,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>8</v>
@@ -7948,10 +8395,10 @@
         <v>80</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K79" s="10">
         <v>2940640</v>
@@ -7969,16 +8416,16 @@
         <v>2</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V79" s="3">
         <v>1</v>
       </c>
       <c r="W79" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X79" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7986,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>8</v>
@@ -8004,7 +8451,7 @@
         <v>43</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K80" s="10">
         <v>1130000</v>
@@ -8025,16 +8472,16 @@
         <v>26</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V80" s="3">
         <v>1</v>
       </c>
       <c r="W80" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="X80" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8042,7 +8489,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>8</v>
@@ -8057,13 +8504,13 @@
         <v>51</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K81" s="10">
         <v>2100000</v>
@@ -8084,16 +8531,16 @@
         <v>24</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V81" s="3">
         <v>1</v>
       </c>
       <c r="W81" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X81" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8116,13 +8563,13 @@
         <v>51</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L82" s="3">
         <v>-32.784049770332999</v>
@@ -8140,16 +8587,16 @@
         <v>30</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V82" s="3">
         <v>1</v>
       </c>
       <c r="W82" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X82" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8157,10 +8604,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>9</v>
@@ -8169,13 +8616,13 @@
         <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L83" s="3">
         <v>-38.130151669861398</v>
@@ -8190,13 +8637,13 @@
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V83" s="3">
         <v>1</v>
       </c>
       <c r="X83" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8225,10 +8672,10 @@
         <v>37</v>
       </c>
       <c r="I84" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="K84" s="10">
         <v>8940000</v>
@@ -8246,25 +8693,25 @@
         <v>12</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="T84" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="V84" s="3">
+        <v>1</v>
+      </c>
+      <c r="W84" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="X84" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="V84" s="3">
-        <v>1</v>
-      </c>
-      <c r="W84" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="X84" s="14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8275,7 +8722,7 @@
         <v>195</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>196</v>
+        <v>803</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
@@ -8290,7 +8737,7 @@
         <v>12</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K85" s="10">
         <v>5700808</v>
@@ -8308,13 +8755,13 @@
         <v>2</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V85" s="3">
         <v>1</v>
       </c>
       <c r="X85" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8322,31 +8769,31 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="I86" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="K86" s="10">
         <v>2200</v>
@@ -8367,25 +8814,25 @@
         <v>4</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S86" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="V86" s="3">
+        <v>1</v>
+      </c>
+      <c r="W86" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="X86" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="V86" s="3">
-        <v>1</v>
-      </c>
-      <c r="W86" s="14" t="s">
+      <c r="Y86" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="X86" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y86" s="14" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8393,28 +8840,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F87" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="K87" s="10">
         <v>86000</v>
@@ -8435,25 +8882,25 @@
         <v>5</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R87" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="V87" s="3">
+        <v>1</v>
+      </c>
+      <c r="W87" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="X87" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="S87" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="V87" s="3">
-        <v>1</v>
-      </c>
-      <c r="W87" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="X87" s="14" t="s">
-        <v>381</v>
-      </c>
       <c r="Y87" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8461,28 +8908,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="I88" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="K88" s="10">
         <v>91120</v>
@@ -8503,19 +8950,19 @@
         <v>21</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V88" s="3">
         <v>1</v>
       </c>
       <c r="W88" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X88" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y88" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="Y88" s="14" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8523,28 +8970,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G89" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="K89" s="10">
         <v>91120</v>
@@ -8565,19 +9012,19 @@
         <v>20</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V89" s="3">
         <v>1</v>
       </c>
       <c r="W89" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X89" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y89" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="Y89" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8585,28 +9032,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G90" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="K90" s="10">
         <v>63300</v>
@@ -8624,19 +9071,19 @@
         <v>11</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V90" s="3">
         <v>1</v>
       </c>
       <c r="W90" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="X90" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y90" s="14" t="s">
         <v>401</v>
-      </c>
-      <c r="X90" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y90" s="14" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8644,31 +9091,31 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G91" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="I91" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="K91" s="10">
         <v>63800</v>
@@ -8686,19 +9133,19 @@
         <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V91" s="3">
         <v>1</v>
       </c>
       <c r="W91" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X91" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y91" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="Y91" s="14" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8706,28 +9153,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="K92" s="10">
         <v>18100</v>
@@ -8745,25 +9192,25 @@
         <v>9</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V92" s="3">
         <v>1</v>
       </c>
       <c r="W92" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="X92" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y92" s="14" t="s">
         <v>409</v>
-      </c>
-      <c r="Y92" s="14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8771,31 +9218,31 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I93" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="K93" s="10">
         <v>29700</v>
@@ -8810,19 +9257,19 @@
         <v>1989</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V93" s="3">
         <v>1</v>
       </c>
       <c r="W93" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="X93" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="X93" s="14" t="s">
-        <v>423</v>
-      </c>
       <c r="Y93" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8830,31 +9277,31 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G94" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="J94" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K94" s="10">
         <v>29100</v>
@@ -8875,19 +9322,19 @@
         <v>2</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V94" s="3">
         <v>1</v>
       </c>
       <c r="W94" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X94" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y94" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8895,31 +9342,31 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H95" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="K95" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>433</v>
       </c>
       <c r="L95" s="3">
         <v>46.343936980975201</v>
@@ -8934,19 +9381,19 @@
         <v>9</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V95" s="3">
         <v>1</v>
       </c>
       <c r="W95" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X95" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y95" s="14" t="s">
         <v>429</v>
-      </c>
-      <c r="Y95" s="14" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8954,31 +9401,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G96" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="J96" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K96" s="10">
         <v>29000</v>
@@ -8999,19 +9446,19 @@
         <v>17</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V96" s="3">
         <v>1</v>
       </c>
       <c r="W96" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="X96" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y96" s="14" t="s">
         <v>437</v>
-      </c>
-      <c r="Y96" s="14" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9019,31 +9466,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="K97" s="10">
         <v>51370</v>
@@ -9061,16 +9508,16 @@
         <v>8</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V97" s="3">
         <v>1</v>
       </c>
       <c r="X97" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y97" s="14" t="s">
         <v>453</v>
-      </c>
-      <c r="Y97" s="14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9078,31 +9525,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G98" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I98" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="J98" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K98" s="10">
         <v>29730</v>
@@ -9123,19 +9570,19 @@
         <v>16</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V98" s="3">
         <v>1</v>
       </c>
       <c r="W98" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="X98" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y98" s="14" t="s">
         <v>455</v>
-      </c>
-      <c r="Y98" s="14" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9143,28 +9590,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G99" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="K99" s="10">
         <v>62200</v>
@@ -9182,19 +9629,19 @@
         <v>4</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V99" s="3">
         <v>1</v>
       </c>
       <c r="W99" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X99" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y99" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9202,31 +9649,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H100" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="K100" s="10">
         <v>94600</v>
@@ -9244,16 +9691,16 @@
         <v>8</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V100" s="3">
         <v>1</v>
       </c>
       <c r="W100" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X100" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9261,31 +9708,31 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H101" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="K101" s="10">
         <v>93310</v>
@@ -9303,25 +9750,25 @@
         <v>6</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R101" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U101" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="V101" s="3">
+        <v>1</v>
+      </c>
+      <c r="W101" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="V101" s="3">
-        <v>1</v>
-      </c>
-      <c r="W101" s="14" t="s">
-        <v>477</v>
-      </c>
       <c r="X101" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9329,28 +9776,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G102" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="N102" s="3">
         <v>2011</v>
@@ -9362,13 +9809,13 @@
         <v>22</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9376,10 +9823,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>55</v>
@@ -9415,19 +9862,19 @@
         <v>9</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U103" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="V103" s="3">
+        <v>1</v>
+      </c>
+      <c r="W103" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="X103" s="14" t="s">
         <v>486</v>
-      </c>
-      <c r="V103" s="3">
-        <v>1</v>
-      </c>
-      <c r="W103" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="X103" s="14" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9435,30 +9882,30 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E104" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="F104" s="12" t="s">
+      <c r="G104" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="G104" s="12" t="s">
+      <c r="H104" s="12" t="s">
         <v>568</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>569</v>
       </c>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L104" s="12">
         <v>36.753338499999998</v>
@@ -9476,7 +9923,7 @@
         <v>11</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S104" s="12"/>
       <c r="T104" s="12"/>
@@ -9485,13 +9932,13 @@
         <v>1</v>
       </c>
       <c r="W104" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="X104" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="X104" s="13" t="s">
+      <c r="Y104" s="13" t="s">
         <v>572</v>
-      </c>
-      <c r="Y104" s="13" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9508,25 +9955,25 @@
         <v>55</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="K105" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="L105" s="3">
         <v>-12.110276300000001</v>
@@ -9544,19 +9991,19 @@
         <v>20</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V105" s="3">
         <v>1</v>
       </c>
       <c r="W105" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="X105" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="X105" s="3" t="s">
+      <c r="Y105" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="Y105" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9573,19 +10020,19 @@
         <v>55</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>577</v>
-      </c>
       <c r="I106" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K106" s="10">
         <v>15828</v>
@@ -9606,16 +10053,16 @@
         <v>23</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V106" s="3">
         <v>1</v>
       </c>
       <c r="W106" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="X106" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="X106" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9632,22 +10079,22 @@
         <v>55</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>577</v>
-      </c>
       <c r="I107" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K107" s="10">
         <v>15811</v>
@@ -9665,16 +10112,16 @@
         <v>5</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V107" s="3">
         <v>1</v>
       </c>
       <c r="W107" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="X107" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="X107" s="3" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9682,28 +10129,28 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="J108" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="L108" s="3">
         <v>-8.8210223403869605</v>
@@ -9721,19 +10168,19 @@
         <v>18</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V108" s="3">
         <v>1</v>
       </c>
       <c r="W108" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="X108" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="X108" s="3" t="s">
+      <c r="Y108" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="Y108" s="3" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9741,16 +10188,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>606</v>
       </c>
       <c r="N109" s="3">
         <v>2009</v>
@@ -9762,13 +10209,13 @@
         <v>5</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V109" s="3">
         <v>0</v>
       </c>
       <c r="Y109" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9785,25 +10232,25 @@
         <v>55</v>
       </c>
       <c r="E110" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>614</v>
       </c>
       <c r="L110" s="3">
         <v>-43.2526619</v>
@@ -9821,10 +10268,10 @@
         <v>4</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S110" s="3" t="s">
         <v>21</v>
@@ -9833,13 +10280,13 @@
         <v>1</v>
       </c>
       <c r="W110" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="X110" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="X110" s="3" t="s">
+      <c r="Y110" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="Y110" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9847,7 +10294,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>179</v>
@@ -9856,25 +10303,25 @@
         <v>55</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F111" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="H111" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="I111" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="J111" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="K111" s="10" t="s">
         <v>624</v>
-      </c>
-      <c r="K111" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="L111" s="3">
         <v>-38.9398709779149</v>
@@ -9892,10 +10339,10 @@
         <v>17</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S111" s="3" t="s">
         <v>21</v>
@@ -9904,13 +10351,13 @@
         <v>1</v>
       </c>
       <c r="W111" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="X111" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="X111" s="3" t="s">
+      <c r="Y111" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="Y111" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9918,7 +10365,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>8</v>
@@ -9927,16 +10374,16 @@
         <v>55</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F112" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="K112" s="10">
         <v>1900</v>
@@ -9957,10 +10404,10 @@
         <v>12</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S112" s="3" t="s">
         <v>21</v>
@@ -9969,13 +10416,13 @@
         <v>1</v>
       </c>
       <c r="W112" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="X112" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="X112" s="3" t="s">
+      <c r="Y112" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="Y112" s="3" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9992,19 +10439,19 @@
         <v>55</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G113" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>640</v>
       </c>
       <c r="N113" s="3">
         <v>2012</v>
@@ -10016,10 +10463,10 @@
         <v>9</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S113" s="3" t="s">
         <v>21</v>
@@ -10028,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="Y113" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10036,7 +10483,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>140</v>
@@ -10045,22 +10492,22 @@
         <v>55</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F114" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>647</v>
       </c>
       <c r="L114" s="3">
         <v>-34.581500925866997</v>
@@ -10078,10 +10525,10 @@
         <v>26</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="S114" s="3" t="s">
         <v>21</v>
@@ -10090,13 +10537,13 @@
         <v>1</v>
       </c>
       <c r="W114" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="X114" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="X114" s="3" t="s">
+      <c r="Y114" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="Y114" s="3" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10104,31 +10551,31 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="K115" s="10">
         <v>2163</v>
@@ -10143,16 +10590,16 @@
         <v>2003</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V115" s="3">
         <v>1</v>
       </c>
       <c r="X115" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y115" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="Y115" s="3" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10160,25 +10607,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="K116" s="10">
         <v>1110</v>
@@ -10193,22 +10640,22 @@
         <v>1965</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R116" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="S116" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="S116" s="3" t="s">
+      <c r="V116" s="3">
+        <v>1</v>
+      </c>
+      <c r="W116" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="V116" s="3">
-        <v>1</v>
-      </c>
-      <c r="W116" s="3" t="s">
+      <c r="Y116" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="Y116" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10216,25 +10663,25 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>665</v>
-      </c>
       <c r="G117" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>674</v>
       </c>
       <c r="K117" s="10">
         <v>1220</v>
@@ -10249,22 +10696,22 @@
         <v>2005</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R117" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="S117" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="S117" s="3" t="s">
+      <c r="V117" s="3">
+        <v>1</v>
+      </c>
+      <c r="W117" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="V117" s="3">
-        <v>1</v>
-      </c>
-      <c r="W117" s="3" t="s">
+      <c r="Y117" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="Y117" s="3" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10272,28 +10719,28 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F118" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="H118" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="I118" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>683</v>
       </c>
       <c r="K118" s="10">
         <v>4030</v>
@@ -10314,19 +10761,19 @@
         <v>29</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V118" s="3">
         <v>1</v>
       </c>
       <c r="W118" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="X118" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="X118" s="3" t="s">
+      <c r="Y118" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="Y118" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10334,25 +10781,25 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>665</v>
-      </c>
       <c r="G119" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>674</v>
       </c>
       <c r="K119" s="10">
         <v>1220</v>
@@ -10367,19 +10814,19 @@
         <v>2005</v>
       </c>
       <c r="Q119" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="R119" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="R119" s="3" t="s">
+      <c r="S119" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="V119" s="3">
+        <v>1</v>
+      </c>
+      <c r="W119" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="S119" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="V119" s="3">
-        <v>1</v>
-      </c>
-      <c r="W119" s="3" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10387,22 +10834,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>694</v>
       </c>
       <c r="N120" s="3">
         <v>2007</v>
@@ -10417,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="Y120" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10425,10 +10872,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>196</v>
+        <v>803</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>55</v>
@@ -10443,7 +10890,7 @@
         <v>31</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K121" s="10">
         <v>8010000</v>
@@ -10461,16 +10908,16 @@
         <v>11</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V121" s="3">
         <v>1</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10478,7 +10925,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>17</v>
@@ -10487,19 +10934,19 @@
         <v>55</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="K122" s="10" t="s">
         <v>704</v>
-      </c>
-      <c r="K122" s="10" t="s">
-        <v>705</v>
       </c>
       <c r="L122" s="3">
         <v>-30.034959675270098</v>
@@ -10514,25 +10961,25 @@
         <v>9</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R122" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="S122" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="S122" s="3" t="s">
+      <c r="V122" s="3">
+        <v>1</v>
+      </c>
+      <c r="W122" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="V122" s="3">
-        <v>1</v>
-      </c>
-      <c r="W122" s="3" t="s">
+      <c r="X122" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="X122" s="3" t="s">
+      <c r="Y122" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="Y122" s="3" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10540,7 +10987,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>36</v>
@@ -10549,31 +10996,31 @@
         <v>55</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F123" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="N123" s="3">
         <v>2008</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V123" s="3">
         <v>0</v>
       </c>
       <c r="Y123" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10590,16 +11037,16 @@
         <v>55</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F124" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="K124" s="10" t="s">
         <v>716</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="K124" s="10" t="s">
-        <v>717</v>
       </c>
       <c r="L124" s="3">
         <v>-22.985492037936801</v>
@@ -10617,25 +11064,25 @@
         <v>18</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R124" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="V124" s="3">
+        <v>1</v>
+      </c>
+      <c r="W124" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="S124" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="V124" s="3">
-        <v>1</v>
-      </c>
-      <c r="W124" s="3" t="s">
+      <c r="X124" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="X124" s="3" t="s">
+      <c r="Y124" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="Y124" s="3" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10643,7 +11090,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>8</v>
@@ -10652,22 +11099,22 @@
         <v>55</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F125" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="K125" s="10" t="s">
         <v>724</v>
-      </c>
-      <c r="K125" s="10" t="s">
-        <v>725</v>
       </c>
       <c r="L125" s="3">
         <v>-23.618749999999999</v>
@@ -10685,19 +11132,19 @@
         <v>18</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V125" s="3">
         <v>1</v>
       </c>
       <c r="W125" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="X125" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="X125" s="3" t="s">
+      <c r="Y125" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="Y125" s="3" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10705,31 +11152,31 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>730</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H126" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="K126" s="10" t="s">
         <v>732</v>
-      </c>
-      <c r="K126" s="10" t="s">
-        <v>733</v>
       </c>
       <c r="L126" s="3">
         <v>-23.0082369008645</v>
@@ -10747,16 +11194,16 @@
         <v>22</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V126" s="3">
         <v>1</v>
       </c>
       <c r="W126" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="X126" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="X126" s="3" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10764,28 +11211,28 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E127" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="K127" s="10">
         <v>1729</v>
@@ -10800,32 +11247,1238 @@
         <v>1977</v>
       </c>
       <c r="Q127" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="U127" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="V127" s="3">
+        <v>1</v>
+      </c>
+      <c r="W127" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="X127" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y127" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="L128" s="3">
+        <v>4.5740726</v>
+      </c>
+      <c r="M128" s="3">
+        <v>-75.643816000000001</v>
+      </c>
+      <c r="N128" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O128" s="3">
+        <v>4</v>
+      </c>
+      <c r="P128" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q128" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V128" s="3">
+        <v>1</v>
+      </c>
+      <c r="W128" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y128" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="N129" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O129" s="3">
+        <v>7</v>
+      </c>
+      <c r="P129" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q129" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V129" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="L130" s="3">
+        <v>23.136733100000001</v>
+      </c>
+      <c r="M130" s="3">
+        <v>-82.388380400000003</v>
+      </c>
+      <c r="N130" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q130" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V130" s="3">
+        <v>1</v>
+      </c>
+      <c r="W130" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="X130" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y130" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="L131" s="3">
+        <v>23.111516649999999</v>
+      </c>
+      <c r="M131" s="3">
+        <v>-82.378701591545223</v>
+      </c>
+      <c r="N131" s="3">
+        <v>1988</v>
+      </c>
+      <c r="Q131" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V131" s="3">
+        <v>1</v>
+      </c>
+      <c r="W131" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="X131" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y131" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="K132" s="10">
+        <v>13200</v>
+      </c>
+      <c r="L132" s="3">
+        <v>23.105049999999999</v>
+      </c>
+      <c r="M132" s="3">
+        <v>-82.388450000000006</v>
+      </c>
+      <c r="N132" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O132" s="3">
+        <v>7</v>
+      </c>
+      <c r="P132" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q132" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V132" s="3">
+        <v>1</v>
+      </c>
+      <c r="W132" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y132" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K133" s="10">
+        <v>10300</v>
+      </c>
+      <c r="L133" s="3">
+        <v>23.1310166623357</v>
+      </c>
+      <c r="M133" s="3">
+        <v>-82.377670086500103</v>
+      </c>
+      <c r="N133" s="3">
+        <v>1973</v>
+      </c>
+      <c r="O133" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q133" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="U133" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="V133" s="3">
+        <v>1</v>
+      </c>
+      <c r="W133" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="X133" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="Y133" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K134" s="10">
+        <v>10424</v>
+      </c>
+      <c r="L134" s="3">
+        <v>23.138590000000001</v>
+      </c>
+      <c r="M134" s="3">
+        <v>-82.394159999999999</v>
+      </c>
+      <c r="N134" s="3">
+        <v>1989</v>
+      </c>
+      <c r="O134" s="3">
+        <v>9</v>
+      </c>
+      <c r="P134" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V134" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="L135" s="3">
+        <v>21.840030378676399</v>
+      </c>
+      <c r="M135" s="3">
+        <v>-78.760074125767304</v>
+      </c>
+      <c r="N135" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O135" s="3">
+        <v>6</v>
+      </c>
+      <c r="P135" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V135" s="3">
+        <v>1</v>
+      </c>
+      <c r="W135" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="X135" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="Y135" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="N136" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O136" s="3">
+        <v>6</v>
+      </c>
+      <c r="P136" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q136" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V136" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K137" s="10">
+        <v>170520</v>
+      </c>
+      <c r="L137" s="3">
+        <v>-0.19972340068116301</v>
+      </c>
+      <c r="M137" s="3">
+        <v>-78.502675578540007</v>
+      </c>
+      <c r="N137" s="3">
+        <v>1993</v>
+      </c>
+      <c r="O137" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="S137" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V137" s="3">
+        <v>1</v>
+      </c>
+      <c r="W137" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="X137" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y137" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K138" s="10">
+        <v>170606</v>
+      </c>
+      <c r="N138" s="3">
+        <v>2009</v>
+      </c>
+      <c r="O138" s="3">
+        <v>4</v>
+      </c>
+      <c r="P138" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q138" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="S138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V138" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="K139" s="10">
+        <v>311516</v>
+      </c>
+      <c r="L139" s="3">
+        <v>-1.0384724999999999</v>
+      </c>
+      <c r="M139" s="3">
+        <v>-80.463496699999993</v>
+      </c>
+      <c r="N139" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O139" s="3">
+        <v>2</v>
+      </c>
+      <c r="P139" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q139" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V139" s="3">
+        <v>1</v>
+      </c>
+      <c r="W139" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="X139" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y139" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="L140" s="3">
+        <v>-2.1819809000000001</v>
+      </c>
+      <c r="M140" s="3">
+        <v>-79.898309523613989</v>
+      </c>
+      <c r="N140" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O140" s="3">
+        <v>2</v>
+      </c>
+      <c r="P140" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V140" s="3">
+        <v>1</v>
+      </c>
+      <c r="W140" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y140" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K141" s="10">
+        <v>170146</v>
+      </c>
+      <c r="V141" s="3">
+        <v>1</v>
+      </c>
+      <c r="W141" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="X141" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="K142" s="10">
+        <v>170156</v>
+      </c>
+      <c r="L142" s="3">
+        <v>-0.28545187483766798</v>
+      </c>
+      <c r="M142" s="3">
+        <v>-78.486944116167294</v>
+      </c>
+      <c r="N142" s="3">
+        <v>2014</v>
+      </c>
+      <c r="O142" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V142" s="3">
+        <v>1</v>
+      </c>
+      <c r="W142" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="X142" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K143" s="10">
+        <v>170405</v>
+      </c>
+      <c r="L143" s="3">
+        <v>-0.209169373185011</v>
+      </c>
+      <c r="M143" s="3">
+        <v>-78.521289122087296</v>
+      </c>
+      <c r="N143" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O143" s="3">
+        <v>8</v>
+      </c>
+      <c r="P143" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q143" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="R127" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="S127" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="U127" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="V127" s="3">
-        <v>1</v>
-      </c>
-      <c r="W127" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="X127" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="Y127" s="3" t="s">
-        <v>747</v>
+      <c r="V143" s="3">
+        <v>1</v>
+      </c>
+      <c r="W143" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="X143" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="L144" s="3">
+        <v>49.080322179431299</v>
+      </c>
+      <c r="M144" s="3">
+        <v>20.320914111738901</v>
+      </c>
+      <c r="N144" s="3">
+        <v>2009</v>
+      </c>
+      <c r="O144" s="3">
+        <v>5</v>
+      </c>
+      <c r="P144" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V144" s="3">
+        <v>1</v>
+      </c>
+      <c r="W144" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="X144" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y144" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="K145" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="L145" s="3">
+        <v>45.426959445173999</v>
+      </c>
+      <c r="M145" s="3">
+        <v>-75.671990511997393</v>
+      </c>
+      <c r="N145" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O145" s="3">
+        <v>6</v>
+      </c>
+      <c r="P145" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q145" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="V145" s="3">
+        <v>1</v>
+      </c>
+      <c r="X145" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y145" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="L146" s="3">
+        <v>45.505864845012297</v>
+      </c>
+      <c r="M146" s="3">
+        <v>-73.527645359948096</v>
+      </c>
+      <c r="N146" s="3">
+        <v>2009</v>
+      </c>
+      <c r="O146" s="3">
+        <v>9</v>
+      </c>
+      <c r="P146" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q146" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R146" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="S146" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="V146" s="3">
+        <v>1</v>
+      </c>
+      <c r="W146" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="X146" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="Y146" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="K147" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="L147" s="3">
+        <v>45.538018000000001</v>
+      </c>
+      <c r="M147" s="3">
+        <v>-73.860242282245252</v>
+      </c>
+      <c r="N147" s="3">
+        <v>2014</v>
+      </c>
+      <c r="O147" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q147" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="V147" s="3">
+        <v>1</v>
+      </c>
+      <c r="W147" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="X147" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="K148" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="L148" s="3">
+        <v>45.537924799999999</v>
+      </c>
+      <c r="M148" s="3">
+        <v>-73.861561399999999</v>
+      </c>
+      <c r="N148" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O148" s="3">
+        <v>2</v>
+      </c>
+      <c r="P148" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q148" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V148" s="3">
+        <v>1</v>
+      </c>
+      <c r="W148" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="X148" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="Y148" s="3" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AO127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AO136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
+++ b/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1638" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34EA4910-C6DE-4A8A-A3B3-BA87244E3EFE}"/>
+  <xr:revisionPtr revIDLastSave="1646" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353E9B1F-0C10-41B3-98AB-1F19707E6000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allende" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3166,7 +3166,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A149" sqref="A149"/>
+      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12478,7 +12478,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AO136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AO148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
+++ b/a-place-for-salvador-allende/a-place-for-salvador-allende.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1646" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353E9B1F-0C10-41B3-98AB-1F19707E6000}"/>
+  <xr:revisionPtr revIDLastSave="1691" documentId="11_FF6F299C653B866D72320E251CEDB2C4009A2F63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A483BF3-1889-494D-AEDE-00DCD84197CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allende" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allende!$B$1:$AO$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1199">
   <si>
     <t>id</t>
   </si>
@@ -1976,13 +1976,6 @@
   </si>
   <si>
     <t>Q8300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Nacional del Comahue
-Aula Magna Presidente Salvador Allende
-Nombre restituido por ordenanza 0598/88 del Consejo Superior
-Neuquén 17 noviembre 1988
-</t>
   </si>
   <si>
     <t>https://www.openstreetmap.org/way/1065996590</t>
@@ -2830,6 +2823,1014 @@
   </si>
   <si>
     <t>https://goo.gl/maps/fueFT2YFWqVNqzTF9</t>
+  </si>
+  <si>
+    <t>Escola Salvador Allende</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Bissáu</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/19-guinea-bissau</t>
+  </si>
+  <si>
+    <t>Allendemonument</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>North Holland</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Nieuw-West</t>
+  </si>
+  <si>
+    <t>President Allendelaan</t>
+  </si>
+  <si>
+    <t>1064 GW</t>
+  </si>
+  <si>
+    <t>Salvador Allende 
+1908 - 1973 
+Presiden van Chili
+1970 - 1973
+Hem stond voor ogen dat zijn land zou toebehoren aan hen die er leven en werken
+Door de vijanden van zijn volk werd hij vermoord op 11 september 1973
+Als eerste van tienduizenden chilenen
+In de strijd voor de bevrijding van Latijns-Amerika</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/9947159768</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/ph9FCixYVG7Teu7w9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/09/24/558-amsterdam-holanda</t>
+  </si>
+  <si>
+    <t>1068 VN</t>
+  </si>
+  <si>
+    <t>President Allendelaan
+Salvador Allende Gossens (1908 - 1973)
+Van 1970 tot 1973 president van de republiek Chili
+Osdorp</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/467752396</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/BWmMijeXwfL989DD8</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/05/01/68-amsterdam-holanda</t>
+  </si>
+  <si>
+    <t>Salvador Allendelaan</t>
+  </si>
+  <si>
+    <t>Beverwijk</t>
+  </si>
+  <si>
+    <t>Oostertuinen</t>
+  </si>
+  <si>
+    <t>1945 EX</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/6630114</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/yonzPvga4XKNkumE6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/10/07/463-beverwijk-holanda</t>
+  </si>
+  <si>
+    <t>Salvador Allendestraat</t>
+  </si>
+  <si>
+    <t>South Holland</t>
+  </si>
+  <si>
+    <t>The Hague</t>
+  </si>
+  <si>
+    <t>Loosduinen</t>
+  </si>
+  <si>
+    <t>Notenbuurt</t>
+  </si>
+  <si>
+    <t>2552 PP</t>
+  </si>
+  <si>
+    <t>Salvador Allendestraat
+Salvador Allende-Gossens, 1908-1973, president van Chili, omgekomen bij staatsgreep</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/7491382</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/DHitEFyMA1rwBCTd6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/06/06/474-la-haya-holanda</t>
+  </si>
+  <si>
+    <t>Purmerend</t>
+  </si>
+  <si>
+    <t>Overwhere Noord</t>
+  </si>
+  <si>
+    <t>1444 XP</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/6593251</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/bxPcRixWjEQTBJiU7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/02/16/464-purmerend-holanda</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>Prins Alexander</t>
+  </si>
+  <si>
+    <t>'s-Gravenland</t>
+  </si>
+  <si>
+    <t>3065 ED</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/7312156</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/cVQKA2AjFiqpsKRF7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/09/18/99-centro-salvador-allende-rotterdam-holanda</t>
+  </si>
+  <si>
+    <t>North Brabant</t>
+  </si>
+  <si>
+    <t>'s-Hertogenbosch</t>
+  </si>
+  <si>
+    <t>De Edelstenenbuurt</t>
+  </si>
+  <si>
+    <t>5231 BZ</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/7077081</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/KUhbFt1dBEsj3hCu5</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/28-holanda</t>
+  </si>
+  <si>
+    <t>Allende utca</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Transdanubia</t>
+  </si>
+  <si>
+    <t>Southern Transdanubia</t>
+  </si>
+  <si>
+    <t>Tolna</t>
+  </si>
+  <si>
+    <t>Szekszárdi járás</t>
+  </si>
+  <si>
+    <t>Szekszárd</t>
+  </si>
+  <si>
+    <t>7100</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/468356193</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/vv3okokQ6rszYxjZ7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/01/25/469-szekszard-hungria</t>
+  </si>
+  <si>
+    <t>Dr. Salvador Allende emlékmű</t>
+  </si>
+  <si>
+    <t>Central Hungary</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>11th district</t>
+  </si>
+  <si>
+    <t>Kelenföld</t>
+  </si>
+  <si>
+    <t>Allende park</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>Dr. SALVADOR ALLENDE 
+1908 - 1973
+CHILE KÖZTÁRSASÁGI ELNÖKE EMLÉKÉRE, AKI NEPE SZOCIALISTA  ELEMELKEDÉSÉÉRT VÍVOTT KÜZDELEMBEN MARTIRHALÁLT HALT.
+ÁLLÍTOTTA BUDAPEST FÖVÁROS TANÁCSA
+1973</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/5809332965</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/YQcFyi8KnWngtRzTA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/07/15/363-budapest-hungria</t>
+  </si>
+  <si>
+    <t>desc other</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/39043557</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/nAoYajJtHKELmivF9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/07/09/79-budapest-hungria</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/20436071</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/31-budapest-hungria</t>
+  </si>
+  <si>
+    <t>Monument to Salvador Allende</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Ramot Menashe</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/11/14/284-ramot-menashe-israel</t>
+  </si>
+  <si>
+    <t>Cité Salvador Allende</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Canton Esch-sur-Alzette</t>
+  </si>
+  <si>
+    <t>Esch-sur-Alzette</t>
+  </si>
+  <si>
+    <t>Wobrecken</t>
+  </si>
+  <si>
+    <t>4014</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/24045256</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/Xe3oVYPTyrTtrTzt7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/01/22/306-esch-sur-alzette-luxemburgo</t>
+  </si>
+  <si>
+    <t>Rue Salvadore Allende</t>
+  </si>
+  <si>
+    <t>Sanem</t>
+  </si>
+  <si>
+    <t>Soleuvre</t>
+  </si>
+  <si>
+    <t>4407</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/26206253</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/uxqTbbGx23j22U1U9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/30-belvaux-luxemburgo</t>
+  </si>
+  <si>
+    <t>Av. Salvador Allende</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>Distrito Municipal de KaMpfumo</t>
+  </si>
+  <si>
+    <t>Polana Cimento "B"</t>
+  </si>
+  <si>
+    <t>0101-10</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/24769111</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/tkSiEMEkXH7BK6FJ9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/19/3-maputo-mozambique</t>
+  </si>
+  <si>
+    <t>Puerto Salvador Allende</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>District I</t>
+  </si>
+  <si>
+    <t>Centro Histórico Cultural</t>
+  </si>
+  <si>
+    <t>Paseo Xolotlán</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/3464599354</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/RxYZrxB3MtPuExXQ7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/09/08/261-puerto-salvador-allende-managua-nicaragua</t>
+  </si>
+  <si>
+    <t>Paseo Salvador Allende</t>
+  </si>
+  <si>
+    <t>Distrito II</t>
+  </si>
+  <si>
+    <t>Batahola Sur</t>
+  </si>
+  <si>
+    <t>12073</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/397401498</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/d1qAc89ZoZWfwP4v5</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/02/13/148-managua-nicaragua</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/04/08/340-islamabad-pakistan</t>
+  </si>
+  <si>
+    <t>Allende St. ش اللندي</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Area A</t>
+  </si>
+  <si>
+    <t>Ramallah</t>
+  </si>
+  <si>
+    <t>ar, en</t>
+  </si>
+  <si>
+    <t>Al Kawakibi</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/cRogeyabMCHLm4NKA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2013/09/11/610-ramallah-palestina</t>
+  </si>
+  <si>
+    <t>Salvador Allende (1908-1973)
+A marxist politician, the chairman of the Chilean Socialist Party, he was elected as the president of Chile in 1970. The US, and in cooperation with some military leaders and some of the rich, arranged a bloody coup d'état on September 11, 1973 where his government was overthrown, and he was killed along with thousands of supporters and allies, and a fascist regime was installed.</t>
+  </si>
+  <si>
+    <t>Allende Way</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>South Yorkshire Mayoral Combined Authority</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>S9 5AT</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/25400571</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/rf3MG9FCCEaPuYaC7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/01/07/509-sheffield-reino-unido</t>
+  </si>
+  <si>
+    <t>Salvador Allende 1908-1973 Presidente de la Dignidad 1970-1973
+El pueblo debe estar alerta y vigilante. No debe provocar ni dejarse masacrar, pero también debe defender sus conquistas. Debe defender el derecho a construir con su esfuerzo una vida digna y mejor
+Puerto Salvador Allende
+Sigan ustedes sabiendo que, mucho más temprano que tarde, de nuevo se abrirán las grandes alamedas por donde pase el hombre libre, para construir una sociedad mejor. 
+Salvador Allende, Presidente de la Dignidad</t>
+  </si>
+  <si>
+    <t>Escuela Secundaria Pedagógica Salvador Allende</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/19/32-praga-republica-checa</t>
+  </si>
+  <si>
+    <t>Lycée Salvador Allende</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Makoua</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/01/21/136-makoua-republica-del-congo</t>
+  </si>
+  <si>
+    <t>Тодор Александров / Todor Aleksandrov</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Skopje Region</t>
+  </si>
+  <si>
+    <t>City of Skopje</t>
+  </si>
+  <si>
+    <t>Municipality of Centar</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>Centar</t>
+  </si>
+  <si>
+    <t>Салвадорe Аљенде / Salvador Allende</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/223285069</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/U6mo3gBsrWQhq7Lz7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2012/09/03/585-skopie-macedonia</t>
+  </si>
+  <si>
+    <t>улица Сальвадора Альенде / ulitsa Sal'vadora Al'yende</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Central Federal District</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Sokol District</t>
+  </si>
+  <si>
+    <t>УЛИЦА САЛЬВАДОРА АЛЬЕНДЕ
+С НАЗВАНА В 1973 ГОДУ В ПАМЯТЬ МУЖЕСТВЕННОГО БОРЦА ЗА ДЕЛО ЧИАЛИСКОГО НАРОДА. “ВЫДАЮЩЕГОСЯ КЯТЕЛЯ КОСВОБОДИТЕЛЬНОГО КАНТНИ ПЕРНА ЛИСТИЧЕСКОГО ДВИЖЕНИЯ ЛАТИНСКОЙ АМЕРИКа ЛАУРЕАТА МЕЖДУНАРОДНОЙ ЛЕНИНСКОЙ ПРИ МЗА УКРЕПЛЕНИЕ НЯРА ОМЕЖДУ НАРОДАМИ ПУ САЛЬВАДОРА АЛЬЕНДЕ 1908-1973</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/47454716</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/TJukf8AKJDaaX57MA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/06/30/214-moscu-rusia</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Departamento de San Salvador</t>
+  </si>
+  <si>
+    <t>Ayutuxtepeque</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>Distrito Municipal 1</t>
+  </si>
+  <si>
+    <t>Residencial San Carlos</t>
+  </si>
+  <si>
+    <t>Remodelación y Obras Artísticas de la 
+"Plaza Salvador Allende" 
+Inauguradas en la Facultad de Medicina de la Universidad de El Salvador 
+En honor del ex presidente chileno y su cruzada por la medicina social.
+MICHELLE BACHELET 
+Presidenta de Chile 
+San Salvador, 12 de agosto de 2015.</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/relation/8028683</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/ThMd4iRHTQ96gtJB6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/39-san-salvador-el-salvador</t>
+  </si>
+  <si>
+    <t>Plaza Salvador Allende, Facultad de Medicina de la Universidad de El Salvador</t>
+  </si>
+  <si>
+    <t>Улица Салвадора Аљендеа / Ulica Salvadora Aljendea</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Vojvodina</t>
+  </si>
+  <si>
+    <t>West Backa Administrative District</t>
+  </si>
+  <si>
+    <t>City of Sombor</t>
+  </si>
+  <si>
+    <t>Sombor</t>
+  </si>
+  <si>
+    <t>Горња Варош</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/48980304</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2012/02/11/561-sombor-serbia</t>
+  </si>
+  <si>
+    <t>Central Serbia</t>
+  </si>
+  <si>
+    <t>Nisava Administrative District</t>
+  </si>
+  <si>
+    <t>Niš</t>
+  </si>
+  <si>
+    <t>Градска општина Палилула</t>
+  </si>
+  <si>
+    <t>Ниш (Палилула)</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/115561128</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/ikYCF4qzpFyznkdH8</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/05/20/489-ni-serbia</t>
+  </si>
+  <si>
+    <t>City of Belgrade</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>Palilula Urban Municipality</t>
+  </si>
+  <si>
+    <t>Palilula</t>
+  </si>
+  <si>
+    <t>САЛВАДОР АЉЕНДЕ
+1908-1973
+ПРЕДСЕДНИК РЕПУБЛИКЕ ЧИЛЕ ПОВОДОМ 10 ГОДИШЊИЦЕ ХЕРОЈСКЕ ПОГИБИЈЕ
+11. СЕПТЕМБРА 1983. ГРАЂАНИ БЕОГРАДА</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/474842438</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/dBxtPE73E36LraDt6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/11/18/440-belgrado-serbia</t>
+  </si>
+  <si>
+    <t>Monuments to Mustafa Kemal Atatürk and Salvador Allende at Özgürlük Parkı</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Marmara Region</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Ataşehir</t>
+  </si>
+  <si>
+    <t>Atatürk Mahallesi</t>
+  </si>
+  <si>
+    <t>Doğu Ataşehir</t>
+  </si>
+  <si>
+    <t>34758</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/5001163522</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/2EDh3PdEGfgg9EUt9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2012/04/03/563-estambul-turquia</t>
+  </si>
+  <si>
+    <t>Plazuela Salvador Allende</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Departamento de Montevideo</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Pocitos</t>
+  </si>
+  <si>
+    <t>"Mucho más temprano que tarde se abrirán las anchas alamedas por donde pase el hombre libre para construir una sociedad mejor."
+Dr. Salvador Allende
+26-VII-1908 - 11-IX-1973
+Homenaje del Gobierno Departamental de Montevideo
+4 de Setiembre de 1990</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/205233614</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/zRE9fdmDbUfSUtmx8</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2012/09/16/593-montevideo-uruguay</t>
+  </si>
+  <si>
+    <t>Centro Civico Dr. Salvador Allende</t>
+  </si>
+  <si>
+    <t>Departamento de Canelones</t>
+  </si>
+  <si>
+    <t>Municipio de Nicolich</t>
+  </si>
+  <si>
+    <t>Barros Blancos</t>
+  </si>
+  <si>
+    <t>Villa Izestel</t>
+  </si>
+  <si>
+    <t>Ruta 8 Brigadier General Juan Antonio Lavalleja</t>
+  </si>
+  <si>
+    <t>CENTRO CIVICO DE BARROS BLANCOS 
+"Dr.  SALVADOR ALLENDE" 
+Predio "La Paloma" 
+INAUGURADO POR LA PRESIDENTA DE CHILE Dra. MICHELL BACHELET 
+y el INTENDENTE DE CANELONES Dr. MARCOS CARÁMBULA 
+Barros Blancos, 8 de julio de 2008</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/B7zUeDi4brhJkqc38</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/11/11/282-barros-blancos-uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Capital District</t>
+  </si>
+  <si>
+    <t>Municipio Libertador</t>
+  </si>
+  <si>
+    <t>Parroquia El Recreo</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Los Caobos</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El concejo municipal del distrito federal designó esta avenida con el nombre Dr. Salvador Allende G. en homenaje a la memoria del extinto presidente de Chile según acuerdo de ese ayuntamiento aprobado el 4 de septiembre de 1974.
+</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/564685049</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/CbsJSkDGS2EMNZFDA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/03/03/37-caracas-venezuela</t>
+  </si>
+  <si>
+    <t>Monumento a Salvador Allende a la Plazuela Salvador Allende</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>"Sabed que más temprano que tarde se abrirán las grandes alamedas por donde pase el hombre libre"
+Salvador Allende
+(Ultimo mensaje al pueblo chileno: 11-09-73)
+Comunidad chilena democrática
+Escultora: Ana Avalos
+11-09-93</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/54iF5Qd9B9UaLm4w5</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/03/02/83-caracas-venezuela</t>
+  </si>
+  <si>
+    <t>Centro de Salud Integral Dr. Salvador Allende</t>
+  </si>
+  <si>
+    <t>Miranda State</t>
+  </si>
+  <si>
+    <t>Municipio Baruta</t>
+  </si>
+  <si>
+    <t>Parroquia El Cafetal</t>
+  </si>
+  <si>
+    <t>Lomas de Chuao</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRO DE SALUD INTEGRAL
+"Dr. SALVADOR ALLENDE"
+Municipio Baruta
+Parroquia El Cafetal
+Obra Ejecutada por el ciudadano Presidente de la República Bolivariana de Venezuela
+CMDTE. HUGO CHÁVEZ FRÍAS
+A través del Gobierno del Estado Bolivariano de Miranda
+Ing. DIOSDADO CARELLO
+"La Salud dejo de ser un privilegio de pocos para convertirse en un patrimonio del pueblo."
+OCTUBRE 2006
+</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/2795655243</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/1aBi1e643wmgFk586</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/02/08/314-chuao-baruta-venezuela</t>
+  </si>
+  <si>
+    <t>Ambulatorio "Dr. Salvador Allende"</t>
+  </si>
+  <si>
+    <t>Municipio autónomo de Sucre</t>
+  </si>
+  <si>
+    <t>Urbanización Araguaney</t>
+  </si>
+  <si>
+    <t>Kilómetro 15 de la carretera Petare-Guarenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcaldia del Municipio Autónomo Sucre
+Ambulatorio "Dr. Salvador Allende"
+Fecha: 21-XII-2001
+</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/01/07/508-sucre-venezuela</t>
+  </si>
+  <si>
+    <t>Carabobo State</t>
+  </si>
+  <si>
+    <t>Municipio Naguanagua</t>
+  </si>
+  <si>
+    <t>Parroquia Bárbula</t>
+  </si>
+  <si>
+    <t>Naguanagua</t>
+  </si>
+  <si>
+    <t>No se detienen los procesos sociales ni con el crimen ni con la fuerza.
+ La historia es nuestra y la hacen los pueblos.
+ Salvador Allende
+26-06-1908 - 11-09-1973
+Partido Socialista de Chile en Carabobo</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/74neyEXymJ3wvf7SA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/10/11/117-valencia-venezuela</t>
+  </si>
+  <si>
+    <t>Escuela Latinoamericana de Medicina Dr. Salvador Allende (ELAM)</t>
+  </si>
+  <si>
+    <t>Municipio Sucre</t>
+  </si>
+  <si>
+    <t>Parroquia Filas de Mariche</t>
+  </si>
+  <si>
+    <t>La Lagunita</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/rmdrHXWKnaMJ8yCv9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/09/11/541-filas-de-mariche-venezuela</t>
+  </si>
+  <si>
+    <t>Liceo Salvador Allende</t>
+  </si>
+  <si>
+    <t>Monagas State</t>
+  </si>
+  <si>
+    <t>Municipio Maturín</t>
+  </si>
+  <si>
+    <t>Parroquia Boquerón</t>
+  </si>
+  <si>
+    <t>Urb. Godofredo González</t>
+  </si>
+  <si>
+    <t>Avenida Principal de Boquerón</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/tcJR4j5u7MoB2Q338</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/09/18/98-liceo-salvador-allende-maturin-venezuela</t>
+  </si>
+  <si>
+    <t>Salón Blanco Presidente Allende
+[…]</t>
+  </si>
+  <si>
+    <t>Universidad Nacional del Comahue
+Aula Magna Presidente Salvador Allende
+Nombre restituido por ordenanza 0598/88 del Consejo Superior
+Neuquén 17 noviembre 1988</t>
+  </si>
+  <si>
+    <t>Salón Salvador Allende, Ministerio del Poder Popular para Relaciones Exteriores</t>
+  </si>
+  <si>
+    <t>Parroquia Catedral</t>
+  </si>
+  <si>
+    <t>Avenida Norte 4</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/60-ministerio-relaciones-exteriores-venezuela</t>
   </si>
 </sst>
 </file>
@@ -2905,7 +3906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2930,6 +3931,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3160,13 +4165,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO148"/>
+  <dimension ref="A1:AO188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
+      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6099,7 +7104,7 @@
         <v>442</v>
       </c>
       <c r="V38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="14" t="s">
         <v>181</v>
@@ -6151,8 +7156,11 @@
       <c r="Q39" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="R39" s="3" t="s">
-        <v>183</v>
+      <c r="R39" s="16" t="s">
+        <v>1193</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="V39" s="3">
         <v>1</v>
@@ -6210,6 +7218,9 @@
       <c r="R40" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="S40" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="V40" s="3">
         <v>1</v>
       </c>
@@ -6276,7 +7287,7 @@
         <v>442</v>
       </c>
       <c r="V41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="14" t="s">
         <v>192</v>
@@ -6358,7 +7369,7 @@
         <v>195</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>55</v>
@@ -6464,7 +7475,7 @@
         <v>200</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>55</v>
@@ -8722,7 +9733,7 @@
         <v>195</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
@@ -10341,8 +11352,8 @@
       <c r="Q111" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="R111" s="3" t="s">
-        <v>625</v>
+      <c r="R111" s="16" t="s">
+        <v>1194</v>
       </c>
       <c r="S111" s="3" t="s">
         <v>21</v>
@@ -10351,13 +11362,13 @@
         <v>1</v>
       </c>
       <c r="W111" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="X111" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="X111" s="3" t="s">
+      <c r="Y111" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="Y111" s="3" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10365,7 +11376,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>8</v>
@@ -10377,13 +11388,13 @@
         <v>607</v>
       </c>
       <c r="F112" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="K112" s="10">
         <v>1900</v>
@@ -10407,7 +11418,7 @@
         <v>443</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S112" s="3" t="s">
         <v>21</v>
@@ -10416,13 +11427,13 @@
         <v>1</v>
       </c>
       <c r="W112" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="X112" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="X112" s="3" t="s">
+      <c r="Y112" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="Y112" s="3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10442,16 +11453,16 @@
         <v>607</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G113" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="N113" s="3">
         <v>2012</v>
@@ -10466,7 +11477,7 @@
         <v>442</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S113" s="3" t="s">
         <v>21</v>
@@ -10475,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="Y113" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10483,7 +11494,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>140</v>
@@ -10495,19 +11506,19 @@
         <v>607</v>
       </c>
       <c r="F114" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="L114" s="3">
         <v>-34.581500925866997</v>
@@ -10528,7 +11539,7 @@
         <v>443</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S114" s="3" t="s">
         <v>21</v>
@@ -10537,13 +11548,13 @@
         <v>1</v>
       </c>
       <c r="W114" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="X114" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="X114" s="3" t="s">
+      <c r="Y114" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="Y114" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10551,31 +11562,31 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="K115" s="10">
         <v>2163</v>
@@ -10596,10 +11607,10 @@
         <v>1</v>
       </c>
       <c r="X115" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y115" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="Y115" s="3" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10607,25 +11618,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>366</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>666</v>
       </c>
       <c r="K116" s="10">
         <v>1110</v>
@@ -10643,19 +11654,19 @@
         <v>443</v>
       </c>
       <c r="R116" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="S116" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="S116" s="3" t="s">
+      <c r="V116" s="3">
+        <v>1</v>
+      </c>
+      <c r="W116" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="V116" s="3">
-        <v>1</v>
-      </c>
-      <c r="W116" s="3" t="s">
+      <c r="Y116" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="Y116" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10663,7 +11674,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>36</v>
@@ -10672,16 +11683,16 @@
         <v>366</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>664</v>
-      </c>
       <c r="G117" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>673</v>
       </c>
       <c r="K117" s="10">
         <v>1220</v>
@@ -10699,19 +11710,19 @@
         <v>444</v>
       </c>
       <c r="R117" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="S117" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="S117" s="3" t="s">
+      <c r="V117" s="3">
+        <v>1</v>
+      </c>
+      <c r="W117" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="V117" s="3">
-        <v>1</v>
-      </c>
-      <c r="W117" s="3" t="s">
+      <c r="Y117" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="Y117" s="3" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10719,7 +11730,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>8</v>
@@ -10728,19 +11739,19 @@
         <v>366</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F118" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="H118" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="I118" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>682</v>
       </c>
       <c r="K118" s="10">
         <v>4030</v>
@@ -10767,13 +11778,13 @@
         <v>1</v>
       </c>
       <c r="W118" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="X118" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="X118" s="3" t="s">
+      <c r="Y118" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="Y118" s="3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10781,7 +11792,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>8</v>
@@ -10790,16 +11801,16 @@
         <v>366</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>664</v>
-      </c>
       <c r="G119" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>673</v>
       </c>
       <c r="K119" s="10">
         <v>1220</v>
@@ -10814,19 +11825,19 @@
         <v>2005</v>
       </c>
       <c r="Q119" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="R119" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="R119" s="3" t="s">
+      <c r="S119" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="V119" s="3">
+        <v>1</v>
+      </c>
+      <c r="W119" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="S119" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="V119" s="3">
-        <v>1</v>
-      </c>
-      <c r="W119" s="3" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10834,7 +11845,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>8</v>
@@ -10843,13 +11854,13 @@
         <v>366</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>693</v>
       </c>
       <c r="N120" s="3">
         <v>2007</v>
@@ -10864,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="Y120" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10872,10 +11883,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>55</v>
@@ -10890,7 +11901,7 @@
         <v>31</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K121" s="10">
         <v>8010000</v>
@@ -10914,10 +11925,10 @@
         <v>1</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10925,7 +11936,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>17</v>
@@ -10934,19 +11945,19 @@
         <v>55</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="K122" s="10" t="s">
         <v>703</v>
-      </c>
-      <c r="K122" s="10" t="s">
-        <v>704</v>
       </c>
       <c r="L122" s="3">
         <v>-30.034959675270098</v>
@@ -10964,22 +11975,22 @@
         <v>444</v>
       </c>
       <c r="R122" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="S122" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="S122" s="3" t="s">
+      <c r="V122" s="3">
+        <v>1</v>
+      </c>
+      <c r="W122" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="V122" s="3">
-        <v>1</v>
-      </c>
-      <c r="W122" s="3" t="s">
+      <c r="X122" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="X122" s="3" t="s">
+      <c r="Y122" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="Y122" s="3" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10987,7 +11998,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>36</v>
@@ -10996,13 +12007,13 @@
         <v>55</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F123" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>712</v>
       </c>
       <c r="N123" s="3">
         <v>2008</v>
@@ -11011,16 +12022,16 @@
         <v>444</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="V123" s="3">
         <v>0</v>
       </c>
       <c r="Y123" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11037,16 +12048,16 @@
         <v>55</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F124" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="K124" s="10" t="s">
         <v>715</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="K124" s="10" t="s">
-        <v>716</v>
       </c>
       <c r="L124" s="3">
         <v>-22.985492037936801</v>
@@ -11067,22 +12078,22 @@
         <v>442</v>
       </c>
       <c r="R124" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="V124" s="3">
+        <v>1</v>
+      </c>
+      <c r="W124" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="S124" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="V124" s="3">
-        <v>1</v>
-      </c>
-      <c r="W124" s="3" t="s">
+      <c r="X124" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="X124" s="3" t="s">
+      <c r="Y124" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="Y124" s="3" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11090,7 +12101,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>8</v>
@@ -11099,22 +12110,22 @@
         <v>55</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F125" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="K125" s="10" t="s">
         <v>723</v>
-      </c>
-      <c r="K125" s="10" t="s">
-        <v>724</v>
       </c>
       <c r="L125" s="3">
         <v>-23.618749999999999</v>
@@ -11138,13 +12149,13 @@
         <v>1</v>
       </c>
       <c r="W125" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="X125" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="X125" s="3" t="s">
+      <c r="Y125" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="Y125" s="3" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11152,31 +12163,31 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H126" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="K126" s="10" t="s">
         <v>731</v>
-      </c>
-      <c r="K126" s="10" t="s">
-        <v>732</v>
       </c>
       <c r="L126" s="3">
         <v>-23.0082369008645</v>
@@ -11200,10 +12211,10 @@
         <v>1</v>
       </c>
       <c r="W126" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="X126" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="X126" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11211,7 +12222,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>8</v>
@@ -11220,19 +12231,19 @@
         <v>366</v>
       </c>
       <c r="E127" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="K127" s="10">
         <v>1729</v>
@@ -11250,25 +12261,25 @@
         <v>444</v>
       </c>
       <c r="R127" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="S127" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="S127" s="3" t="s">
+      <c r="U127" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="U127" s="3" t="s">
+      <c r="V127" s="3">
+        <v>1</v>
+      </c>
+      <c r="W127" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="V127" s="3">
-        <v>1</v>
-      </c>
-      <c r="W127" s="3" t="s">
+      <c r="X127" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="X127" s="3" t="s">
+      <c r="Y127" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="Y127" s="3" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11279,31 +12290,31 @@
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="I128" s="3" t="s">
+      <c r="J128" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="K128" s="10" t="s">
         <v>752</v>
-      </c>
-      <c r="K128" s="10" t="s">
-        <v>753</v>
       </c>
       <c r="L128" s="3">
         <v>4.5740726</v>
@@ -11327,10 +12338,10 @@
         <v>1</v>
       </c>
       <c r="W128" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y128" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="Y128" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11338,7 +12349,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>216</v>
@@ -11347,10 +12358,10 @@
         <v>55</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N129" s="3">
         <v>2007</v>
@@ -11368,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="Y129" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11382,25 +12393,25 @@
         <v>36</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="K130" s="10" t="s">
         <v>764</v>
-      </c>
-      <c r="K130" s="10" t="s">
-        <v>765</v>
       </c>
       <c r="L130" s="3">
         <v>23.136733100000001</v>
@@ -11418,13 +12429,13 @@
         <v>1</v>
       </c>
       <c r="W130" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="X130" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="X130" s="3" t="s">
+      <c r="Y130" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="Y130" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11432,31 +12443,31 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>761</v>
-      </c>
       <c r="G131" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I131" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="I131" s="3" t="s">
+      <c r="K131" s="10" t="s">
         <v>771</v>
-      </c>
-      <c r="K131" s="10" t="s">
-        <v>772</v>
       </c>
       <c r="L131" s="3">
         <v>23.111516649999999</v>
@@ -11474,13 +12485,13 @@
         <v>1</v>
       </c>
       <c r="W131" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="X131" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="X131" s="3" t="s">
+      <c r="Y131" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="Y131" s="3" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11488,28 +12499,28 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="F132" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>761</v>
-      </c>
       <c r="G132" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H132" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="I132" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>778</v>
       </c>
       <c r="K132" s="10">
         <v>13200</v>
@@ -11536,10 +12547,10 @@
         <v>1</v>
       </c>
       <c r="W132" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y132" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="Y132" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11553,19 +12564,19 @@
         <v>8</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>761</v>
-      </c>
       <c r="G133" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="H133" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>782</v>
       </c>
       <c r="K133" s="10">
         <v>10300</v>
@@ -11586,19 +12597,19 @@
         <v>444</v>
       </c>
       <c r="U133" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="V133" s="3">
+        <v>1</v>
+      </c>
+      <c r="W133" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="V133" s="3">
-        <v>1</v>
-      </c>
-      <c r="W133" s="3" t="s">
+      <c r="X133" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="X133" s="3" t="s">
+      <c r="Y133" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="Y133" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11606,28 +12617,28 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>484</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="H134" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>763</v>
-      </c>
       <c r="I134" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K134" s="10">
         <v>10424</v>
@@ -11651,7 +12662,7 @@
         <v>444</v>
       </c>
       <c r="R134" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S134" s="3" t="s">
         <v>21</v>
@@ -11660,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="Y134" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11674,22 +12685,22 @@
         <v>17</v>
       </c>
       <c r="D135" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>760</v>
-      </c>
       <c r="F135" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="L135" s="3">
         <v>21.840030378676399</v>
@@ -11713,13 +12724,13 @@
         <v>1</v>
       </c>
       <c r="W135" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="X135" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="X135" s="3" t="s">
+      <c r="Y135" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="Y135" s="3" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11727,25 +12738,25 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>760</v>
-      </c>
       <c r="F136" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>801</v>
       </c>
       <c r="N136" s="3">
         <v>2008</v>
@@ -11763,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="Y136" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11771,7 +12782,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>36</v>
@@ -11780,22 +12791,22 @@
         <v>55</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="I137" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="J137" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>810</v>
       </c>
       <c r="K137" s="10">
         <v>170520</v>
@@ -11816,7 +12827,7 @@
         <v>443</v>
       </c>
       <c r="R137" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="S137" s="3" t="s">
         <v>21</v>
@@ -11825,13 +12836,13 @@
         <v>1</v>
       </c>
       <c r="W137" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="X137" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="X137" s="3" t="s">
+      <c r="Y137" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="Y137" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11848,22 +12859,22 @@
         <v>55</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>808</v>
-      </c>
       <c r="I138" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="J138" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>816</v>
       </c>
       <c r="K138" s="10">
         <v>170606</v>
@@ -11881,7 +12892,7 @@
         <v>444</v>
       </c>
       <c r="R138" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="S138" s="3" t="s">
         <v>21</v>
@@ -11890,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="Y138" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11907,13 +12918,13 @@
         <v>55</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F139" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>820</v>
       </c>
       <c r="K139" s="10">
         <v>311516</v>
@@ -11940,13 +12951,13 @@
         <v>1</v>
       </c>
       <c r="W139" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="X139" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="X139" s="3" t="s">
+      <c r="Y139" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="Y139" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11954,28 +12965,28 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F140" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="I140" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>828</v>
       </c>
       <c r="L140" s="3">
         <v>-2.1819809000000001</v>
@@ -11999,10 +13010,10 @@
         <v>1</v>
       </c>
       <c r="W140" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y140" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12013,25 +13024,25 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E141" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="G141" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="H141" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="H141" s="3" t="s">
-        <v>808</v>
-      </c>
       <c r="I141" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K141" s="10">
         <v>170146</v>
@@ -12040,10 +13051,10 @@
         <v>1</v>
       </c>
       <c r="W141" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="X141" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="X141" s="3" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12060,19 +13071,19 @@
         <v>55</v>
       </c>
       <c r="E142" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="G142" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="G142" s="3" t="s">
-        <v>807</v>
-      </c>
       <c r="H142" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>834</v>
       </c>
       <c r="K142" s="10">
         <v>170156</v>
@@ -12096,10 +13107,10 @@
         <v>1</v>
       </c>
       <c r="W142" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="X142" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="X142" s="3" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12110,25 +13121,25 @@
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="G143" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="H143" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>808</v>
-      </c>
       <c r="I143" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K143" s="10">
         <v>170405</v>
@@ -12155,10 +13166,10 @@
         <v>1</v>
       </c>
       <c r="W143" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="X143" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="X143" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12166,7 +13177,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>8</v>
@@ -12175,25 +13186,25 @@
         <v>366</v>
       </c>
       <c r="E144" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="G144" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="I144" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="I144" s="3" t="s">
+      <c r="J144" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="K144" s="10" t="s">
         <v>846</v>
-      </c>
-      <c r="K144" s="10" t="s">
-        <v>847</v>
       </c>
       <c r="L144" s="3">
         <v>49.080322179431299</v>
@@ -12217,13 +13228,13 @@
         <v>1</v>
       </c>
       <c r="W144" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="X144" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="X144" s="3" t="s">
+      <c r="Y144" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="Y144" s="3" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12231,34 +13242,34 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D145" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="G145" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="H145" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="H145" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="J145" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="J145" s="3" t="s">
+      <c r="K145" s="10" t="s">
         <v>858</v>
-      </c>
-      <c r="K145" s="10" t="s">
-        <v>859</v>
       </c>
       <c r="L145" s="3">
         <v>45.426959445173999</v>
@@ -12279,19 +13290,19 @@
         <v>443</v>
       </c>
       <c r="R145" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="S145" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="S145" s="3" t="s">
+      <c r="V145" s="3">
+        <v>1</v>
+      </c>
+      <c r="X145" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="V145" s="3">
-        <v>1</v>
-      </c>
-      <c r="X145" s="3" t="s">
+      <c r="Y145" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="Y145" s="3" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12299,34 +13310,34 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D146" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>853</v>
-      </c>
       <c r="F146" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="H146" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="J146" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="K146" s="10" t="s">
         <v>869</v>
-      </c>
-      <c r="K146" s="10" t="s">
-        <v>870</v>
       </c>
       <c r="L146" s="3">
         <v>45.505864845012297</v>
@@ -12347,7 +13358,7 @@
         <v>443</v>
       </c>
       <c r="R146" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="S146" s="3" t="s">
         <v>378</v>
@@ -12356,13 +13367,13 @@
         <v>1</v>
       </c>
       <c r="W146" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="X146" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="X146" s="3" t="s">
+      <c r="Y146" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="Y146" s="3" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12370,28 +13381,28 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>853</v>
-      </c>
       <c r="F147" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G147" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="H147" s="3" t="s">
+      <c r="K147" s="10" t="s">
         <v>877</v>
-      </c>
-      <c r="K147" s="10" t="s">
-        <v>878</v>
       </c>
       <c r="L147" s="3">
         <v>45.538018000000001</v>
@@ -12412,10 +13423,10 @@
         <v>1</v>
       </c>
       <c r="W147" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="X147" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="X147" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12423,28 +13434,28 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>853</v>
-      </c>
       <c r="F148" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G148" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="H148" s="3" t="s">
-        <v>877</v>
-      </c>
       <c r="K148" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L148" s="3">
         <v>45.537924799999999</v>
@@ -12468,17 +13479,2419 @@
         <v>1</v>
       </c>
       <c r="W148" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="X148" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="X148" s="3" t="s">
+      <c r="Y148" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="Y148" s="3" t="s">
-        <v>881</v>
+      <c r="C149" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="N149" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O149" s="3">
+        <v>2</v>
+      </c>
+      <c r="P149" s="3">
+        <v>18</v>
+      </c>
+      <c r="V149" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="K150" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="L150" s="3">
+        <v>52.3671173004251</v>
+      </c>
+      <c r="M150" s="3">
+        <v>4.8106240754798604</v>
+      </c>
+      <c r="N150" s="3">
+        <v>1978</v>
+      </c>
+      <c r="O150" s="3">
+        <v>9</v>
+      </c>
+      <c r="P150" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="V150" s="3">
+        <v>1</v>
+      </c>
+      <c r="W150" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="X150" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="Y150" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="K151" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="L151" s="3">
+        <v>52.368268028945302</v>
+      </c>
+      <c r="M151" s="3">
+        <v>4.8122349896955399</v>
+      </c>
+      <c r="N151" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O151" s="3">
+        <v>2</v>
+      </c>
+      <c r="P151" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="V151" s="3">
+        <v>1</v>
+      </c>
+      <c r="W151" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="X151" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="Y151" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="K152" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="L152" s="3">
+        <v>52.497210600000003</v>
+      </c>
+      <c r="M152" s="3">
+        <v>4.6545082999999998</v>
+      </c>
+      <c r="N152" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O152" s="3">
+        <v>9</v>
+      </c>
+      <c r="P152" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="V152" s="3">
+        <v>1</v>
+      </c>
+      <c r="W152" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="X152" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="Y152" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K153" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="L153" s="3">
+        <v>52.0600892</v>
+      </c>
+      <c r="M153" s="3">
+        <v>4.2593226</v>
+      </c>
+      <c r="N153" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O153" s="3">
+        <v>9</v>
+      </c>
+      <c r="P153" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="V153" s="3">
+        <v>1</v>
+      </c>
+      <c r="W153" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="X153" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="Y153" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="K154" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="L154" s="3">
+        <v>52.526737599999997</v>
+      </c>
+      <c r="M154" s="3">
+        <v>4.9656193999999996</v>
+      </c>
+      <c r="N154" s="3">
+        <v>2010</v>
+      </c>
+      <c r="O154" s="3">
+        <v>2</v>
+      </c>
+      <c r="P154" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q154" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V154" s="3">
+        <v>1</v>
+      </c>
+      <c r="W154" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="X154" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="Y154" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="K155" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="L155" s="3">
+        <v>51.922229199999997</v>
+      </c>
+      <c r="M155" s="3">
+        <v>4.5588398000000003</v>
+      </c>
+      <c r="N155" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O155" s="3">
+        <v>9</v>
+      </c>
+      <c r="P155" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q155" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V155" s="3">
+        <v>1</v>
+      </c>
+      <c r="W155" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="X155" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="Y155" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="L156" s="3">
+        <v>51.710180200000003</v>
+      </c>
+      <c r="M156" s="3">
+        <v>5.3043123999999997</v>
+      </c>
+      <c r="N156" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O156" s="3">
+        <v>2</v>
+      </c>
+      <c r="P156" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V156" s="3">
+        <v>1</v>
+      </c>
+      <c r="W156" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="X156" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="Y156" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="K157" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="L157" s="3">
+        <v>46.338473499999999</v>
+      </c>
+      <c r="M157" s="3">
+        <v>18.6977127</v>
+      </c>
+      <c r="N157" s="3">
+        <v>2010</v>
+      </c>
+      <c r="O157" s="3">
+        <v>1</v>
+      </c>
+      <c r="P157" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V157" s="3">
+        <v>1</v>
+      </c>
+      <c r="W157" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="X157" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="Y157" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="K158" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="L158" s="3">
+        <v>47.4545642</v>
+      </c>
+      <c r="M158" s="3">
+        <v>19.0321435</v>
+      </c>
+      <c r="N158" s="3">
+        <v>1973</v>
+      </c>
+      <c r="Q158" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R158" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="V158" s="3">
+        <v>1</v>
+      </c>
+      <c r="W158" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="X158" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="Y158" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="L159" s="3">
+        <v>47.454553300000001</v>
+      </c>
+      <c r="M159" s="3">
+        <v>19.031379391364869</v>
+      </c>
+      <c r="N159" s="3">
+        <v>1973</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="V159" s="3">
+        <v>1</v>
+      </c>
+      <c r="W159" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="X159" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="Y159" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="L160" s="3">
+        <v>47.454895100000002</v>
+      </c>
+      <c r="M160" s="3">
+        <v>19.032283700000001</v>
+      </c>
+      <c r="N160" s="3">
+        <v>1973</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="V160" s="3">
+        <v>1</v>
+      </c>
+      <c r="W160" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="X160" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="Y160" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="N161" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O161" s="3">
+        <v>11</v>
+      </c>
+      <c r="P161" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q161" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V161" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="K162" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="L162" s="3">
+        <v>49.506303000000003</v>
+      </c>
+      <c r="M162" s="3">
+        <v>5.9850126000000001</v>
+      </c>
+      <c r="N162" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O162" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V162" s="3">
+        <v>1</v>
+      </c>
+      <c r="W162" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="X162" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="Y162" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="K163" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="L163" s="3">
+        <v>49.515675199999997</v>
+      </c>
+      <c r="M163" s="3">
+        <v>5.941757</v>
+      </c>
+      <c r="N163" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O163" s="3">
+        <v>2</v>
+      </c>
+      <c r="P163" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q163" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V163" s="3">
+        <v>1</v>
+      </c>
+      <c r="W163" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="X163" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="Y163" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="K164" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="L164" s="3">
+        <v>-25.968146399999998</v>
+      </c>
+      <c r="M164" s="3">
+        <v>32.5867808</v>
+      </c>
+      <c r="N164" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O164" s="3">
+        <v>2</v>
+      </c>
+      <c r="P164" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V164" s="3">
+        <v>1</v>
+      </c>
+      <c r="W164" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="X164" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Y164" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K165" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L165" s="3">
+        <v>12.161264299999999</v>
+      </c>
+      <c r="M165" s="3">
+        <v>-86.275259000000005</v>
+      </c>
+      <c r="N165" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O165" s="3">
+        <v>6</v>
+      </c>
+      <c r="P165" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q165" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R165" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S165" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V165" s="3">
+        <v>1</v>
+      </c>
+      <c r="W165" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="X165" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Y165" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K166" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L166" s="3">
+        <v>12.13765235</v>
+      </c>
+      <c r="M166" s="3">
+        <v>-86.307076943972078</v>
+      </c>
+      <c r="N166" s="3">
+        <v>2007</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V166" s="3">
+        <v>1</v>
+      </c>
+      <c r="W166" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X166" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y166" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N167" s="3">
+        <v>2009</v>
+      </c>
+      <c r="O167" s="3">
+        <v>4</v>
+      </c>
+      <c r="P167" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q167" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V167" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K168" s="10">
+        <v>606</v>
+      </c>
+      <c r="L168" s="3">
+        <v>31.894522877575199</v>
+      </c>
+      <c r="M168" s="3">
+        <v>35.194096121921199</v>
+      </c>
+      <c r="N168" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O168" s="3">
+        <v>9</v>
+      </c>
+      <c r="P168" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q168" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="R168" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="S168" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="T168" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V168" s="3">
+        <v>1</v>
+      </c>
+      <c r="X168" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Y168" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K169" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L169" s="3">
+        <v>53.394214599999998</v>
+      </c>
+      <c r="M169" s="3">
+        <v>-1.4199872</v>
+      </c>
+      <c r="N169" s="3">
+        <v>1980</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V169" s="3">
+        <v>1</v>
+      </c>
+      <c r="W169" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="X169" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Y169" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N170" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O170" s="3">
+        <v>2</v>
+      </c>
+      <c r="P170" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V170" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N171" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O171" s="3">
+        <v>1</v>
+      </c>
+      <c r="P171" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q171" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V171" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K172" s="10">
+        <v>1000</v>
+      </c>
+      <c r="L172" s="3">
+        <v>41.987537632744797</v>
+      </c>
+      <c r="M172" s="3">
+        <v>21.417528522965402</v>
+      </c>
+      <c r="N172" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O172" s="3">
+        <v>2</v>
+      </c>
+      <c r="P172" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="U172" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="V172" s="3">
+        <v>1</v>
+      </c>
+      <c r="W172" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="X172" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Y172" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K173" s="10">
+        <v>125252</v>
+      </c>
+      <c r="L173" s="3">
+        <v>55.796410696991202</v>
+      </c>
+      <c r="M173" s="3">
+        <v>37.511125344967802</v>
+      </c>
+      <c r="N173" s="3">
+        <v>1973</v>
+      </c>
+      <c r="Q173" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R173" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="S173" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="V173" s="3">
+        <v>1</v>
+      </c>
+      <c r="W173" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="X173" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Y173" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L174" s="3">
+        <v>13.717205999999999</v>
+      </c>
+      <c r="M174" s="3">
+        <v>-89.202105893959583</v>
+      </c>
+      <c r="N174" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O174" s="3">
+        <v>2</v>
+      </c>
+      <c r="P174" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="R174" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="S174" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V174" s="3">
+        <v>1</v>
+      </c>
+      <c r="W174" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="X174" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Y174" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K175" s="10">
+        <v>25101</v>
+      </c>
+      <c r="L175" s="3">
+        <v>45.775500700000002</v>
+      </c>
+      <c r="M175" s="3">
+        <v>19.096943100000001</v>
+      </c>
+      <c r="N175" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O175" s="3">
+        <v>2</v>
+      </c>
+      <c r="P175" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V175" s="3">
+        <v>1</v>
+      </c>
+      <c r="W175" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Y175" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K176" s="10">
+        <v>18101</v>
+      </c>
+      <c r="L176" s="3">
+        <v>43.312129900000002</v>
+      </c>
+      <c r="M176" s="3">
+        <v>21.873903500000001</v>
+      </c>
+      <c r="N176" s="3">
+        <v>2010</v>
+      </c>
+      <c r="O176" s="3">
+        <v>5</v>
+      </c>
+      <c r="P176" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V176" s="3">
+        <v>1</v>
+      </c>
+      <c r="W176" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="X176" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Y176" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K177" s="10">
+        <v>11060</v>
+      </c>
+      <c r="L177" s="3">
+        <v>44.807512600000003</v>
+      </c>
+      <c r="M177" s="3">
+        <v>20.522274500000002</v>
+      </c>
+      <c r="N177" s="3">
+        <v>1983</v>
+      </c>
+      <c r="O177" s="3">
+        <v>9</v>
+      </c>
+      <c r="P177" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S177" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="V177" s="3">
+        <v>1</v>
+      </c>
+      <c r="W177" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="X177" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Y177" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K178" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L178" s="3">
+        <v>40.9904492</v>
+      </c>
+      <c r="M178" s="3">
+        <v>29.1259111</v>
+      </c>
+      <c r="N178" s="3">
+        <v>2010</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="S178" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="V178" s="3">
+        <v>1</v>
+      </c>
+      <c r="W178" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="X178" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Y178" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L179" s="3">
+        <v>-34.907453750000002</v>
+      </c>
+      <c r="M179" s="3">
+        <v>-56.158400709785766</v>
+      </c>
+      <c r="N179" s="3">
+        <v>1990</v>
+      </c>
+      <c r="O179" s="3">
+        <v>9</v>
+      </c>
+      <c r="P179" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q179" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R179" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S179" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V179" s="3">
+        <v>1</v>
+      </c>
+      <c r="W179" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="X179" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Y179" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K180" s="10">
+        <v>15500</v>
+      </c>
+      <c r="L180" s="3">
+        <v>-34.7655018162014</v>
+      </c>
+      <c r="M180" s="3">
+        <v>-56.020309058757903</v>
+      </c>
+      <c r="N180" s="3">
+        <v>2008</v>
+      </c>
+      <c r="O180" s="3">
+        <v>7</v>
+      </c>
+      <c r="P180" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q180" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="S180" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V180" s="3">
+        <v>1</v>
+      </c>
+      <c r="X180" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Y180" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K181" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L181" s="3">
+        <v>10.496060699999999</v>
+      </c>
+      <c r="M181" s="3">
+        <v>-66.886418699999993</v>
+      </c>
+      <c r="N181" s="3">
+        <v>1974</v>
+      </c>
+      <c r="O181" s="3">
+        <v>9</v>
+      </c>
+      <c r="P181" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q181" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R181" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="S181" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V181" s="3">
+        <v>1</v>
+      </c>
+      <c r="W181" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="X181" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Y181" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K182" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L182" s="3">
+        <v>10.495160271198399</v>
+      </c>
+      <c r="M182" s="3">
+        <v>-66.887715270361795</v>
+      </c>
+      <c r="N182" s="3">
+        <v>1993</v>
+      </c>
+      <c r="O182" s="3">
+        <v>9</v>
+      </c>
+      <c r="P182" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q182" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R182" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="S182" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V182" s="3">
+        <v>1</v>
+      </c>
+      <c r="X182" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Y182" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K183" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L183" s="3">
+        <v>10.481673199999999</v>
+      </c>
+      <c r="M183" s="3">
+        <v>-66.851719700000004</v>
+      </c>
+      <c r="N183" s="3">
+        <v>2006</v>
+      </c>
+      <c r="O183" s="3">
+        <v>11</v>
+      </c>
+      <c r="P183" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q183" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R183" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="S183" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V183" s="3">
+        <v>1</v>
+      </c>
+      <c r="W183" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="X183" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Y183" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L184" s="3">
+        <v>10.4812310831287</v>
+      </c>
+      <c r="M184" s="3">
+        <v>-66.724138783685603</v>
+      </c>
+      <c r="N184" s="3">
+        <v>2001</v>
+      </c>
+      <c r="O184" s="3">
+        <v>12</v>
+      </c>
+      <c r="P184" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q184" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="S184" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V184" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y184" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K185" s="10">
+        <v>2005</v>
+      </c>
+      <c r="L185" s="3">
+        <v>10.276966835161099</v>
+      </c>
+      <c r="M185" s="3">
+        <v>10.276966835161099</v>
+      </c>
+      <c r="N185" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O185" s="3">
+        <v>9</v>
+      </c>
+      <c r="P185" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q185" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="S185" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V185" s="3">
+        <v>1</v>
+      </c>
+      <c r="X185" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Y185" s="17" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K186" s="10">
+        <v>1073</v>
+      </c>
+      <c r="L186" s="3">
+        <v>10.4468815137409</v>
+      </c>
+      <c r="M186" s="3">
+        <v>-66.741885360984398</v>
+      </c>
+      <c r="N186" s="3">
+        <v>1999</v>
+      </c>
+      <c r="Q186" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V186" s="3">
+        <v>1</v>
+      </c>
+      <c r="X186" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Y186" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K187" s="10">
+        <v>6201</v>
+      </c>
+      <c r="L187" s="3">
+        <v>9.7742121982695291</v>
+      </c>
+      <c r="M187" s="3">
+        <v>-63.208913000303198</v>
+      </c>
+      <c r="N187" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O187" s="3">
+        <v>9</v>
+      </c>
+      <c r="P187" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q187" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="V187" s="3">
+        <v>1</v>
+      </c>
+      <c r="X187" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Y187" s="3" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K188" s="10">
+        <v>1010</v>
+      </c>
+      <c r="L188" s="3">
+        <v>10.507729892250101</v>
+      </c>
+      <c r="M188" s="3">
+        <v>-66.916348921714402</v>
+      </c>
+      <c r="N188" s="3">
+        <v>2007</v>
+      </c>
+      <c r="O188" s="3">
+        <v>2</v>
+      </c>
+      <c r="P188" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q188" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V188" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="3" t="s">
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AO148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AO187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -12699,8 +16112,9 @@
     <hyperlink ref="W104" r:id="rId214" xr:uid="{0AF33AD5-43E5-4C36-A70E-177A04BE4AF4}"/>
     <hyperlink ref="Y104" r:id="rId215" xr:uid="{A459743A-E5CB-43DD-9F55-E2ABBB41891E}"/>
     <hyperlink ref="X104" r:id="rId216" xr:uid="{CD6341ED-F5E4-496D-9565-CE5CE008110F}"/>
+    <hyperlink ref="Y185" r:id="rId217" xr:uid="{A91C2BB1-ADD0-4291-B111-E8DC4969F92A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId217"/>
+  <pageSetup orientation="portrait" r:id="rId218"/>
 </worksheet>
 </file>